--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitLocal\shinoutatime-streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D347CAC8-CFCD-43E6-AEF4-BCC704D1EA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ECFCA7-79E2-4CD6-9909-8B594A06AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A3198A5-688A-495F-A904-EF8FE4BE0835}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3A3198A5-688A-495F-A904-EF8FE4BE0835}"/>
   </bookViews>
   <sheets>
     <sheet name="M_YT_LIVE" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="2118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="2150">
   <si>
     <t>ID</t>
   </si>
@@ -6797,6 +6797,106 @@
   </si>
   <si>
     <t>やなせたかし</t>
+  </si>
+  <si>
+    <t>【#弾き語り】 Mrs. GREEN APPLE縛り歌枠！！【幽音しの:ななしいんく】 #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:05:36</t>
+  </si>
+  <si>
+    <t>アウフヘーベン</t>
+  </si>
+  <si>
+    <t>0:12:54</t>
+  </si>
+  <si>
+    <t>インフェルノ</t>
+  </si>
+  <si>
+    <t>0:21:21</t>
+  </si>
+  <si>
+    <t>Speaking</t>
+  </si>
+  <si>
+    <t>WanteD! WanteD!</t>
+  </si>
+  <si>
+    <t>0:35:37</t>
+  </si>
+  <si>
+    <t>我逢人</t>
+  </si>
+  <si>
+    <t>ケセラセラ</t>
+  </si>
+  <si>
+    <t>0:48:45</t>
+  </si>
+  <si>
+    <t>0:58:32</t>
+  </si>
+  <si>
+    <t>【#弾き語り】深夜定期！！ギターの音で深い眠りへ誘うはず　【幽音しの:ななしいんく】　#shorts #vsinger #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:05:38</t>
+  </si>
+  <si>
+    <t>0:13:04</t>
+  </si>
+  <si>
+    <t>0:19:42</t>
+  </si>
+  <si>
+    <t>GALLOWS BELL</t>
+  </si>
+  <si>
+    <t>buzzG feat.初音ミク</t>
+  </si>
+  <si>
+    <t>0:25:53</t>
+  </si>
+  <si>
+    <t>ワールド・ランプシェード</t>
+  </si>
+  <si>
+    <t>BuzzG feat.GUMI</t>
+  </si>
+  <si>
+    <t>0:33:22</t>
+  </si>
+  <si>
+    <t>アイスクリーム シンドローム</t>
+  </si>
+  <si>
+    <t>1:04:08</t>
+  </si>
+  <si>
+    <t>1:11:06</t>
+  </si>
+  <si>
+    <t>1:18:04</t>
+  </si>
+  <si>
+    <t>1:33:36</t>
+  </si>
+  <si>
+    <t>1:40:38</t>
+  </si>
+  <si>
+    <t>1:48:11</t>
   </si>
 </sst>
 </file>
@@ -7006,7 +7106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7090,9 +7190,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7431,11 +7528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E856D2-B155-4BD9-995B-24668BA721A9}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -9589,7 +9686,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="14">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -9600,14 +9697,14 @@
       <c r="C120" s="25" t="s">
         <v>2037</v>
       </c>
-      <c r="D120" s="28" t="s">
+      <c r="D120" s="19" t="s">
         <v>2038</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="14">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -9618,14 +9715,14 @@
       <c r="C121" s="25" t="s">
         <v>2051</v>
       </c>
-      <c r="D121" s="28" t="s">
+      <c r="D121" s="19" t="s">
         <v>2052</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="14">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -9636,14 +9733,14 @@
       <c r="C122" s="25" t="s">
         <v>2059</v>
       </c>
-      <c r="D122" s="28" t="s">
+      <c r="D122" s="19" t="s">
         <v>2060</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="14">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -9654,14 +9751,14 @@
       <c r="C123" s="25" t="s">
         <v>2073</v>
       </c>
-      <c r="D123" s="28" t="s">
+      <c r="D123" s="19" t="s">
         <v>2074</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="14">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -9672,7 +9769,7 @@
       <c r="C124" s="25" t="s">
         <v>2103</v>
       </c>
-      <c r="D124" s="28" t="s">
+      <c r="D124" s="19" t="s">
         <v>2104</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -9684,18 +9781,36 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="14"/>
+      <c r="B125" s="15">
+        <v>45995</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="14">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="14"/>
+      <c r="B126" s="15">
+        <v>45996</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="14">
@@ -10049,9 +10164,11 @@
     <hyperlink ref="D122" r:id="rId121" xr:uid="{B84442F1-EB40-426B-9425-E0638BC54154}"/>
     <hyperlink ref="D123" r:id="rId122" xr:uid="{A9CA5361-8DA8-48C5-A8B3-13621B596EF7}"/>
     <hyperlink ref="D124" r:id="rId123" xr:uid="{18BA592D-4A01-4A07-A27A-6C4D50D0247D}"/>
+    <hyperlink ref="D125" r:id="rId124" xr:uid="{51653F5C-E2E0-43D4-903D-9213272AF0F2}"/>
+    <hyperlink ref="D126" r:id="rId125" xr:uid="{B0D7FA67-57B1-4A4F-83F0-357E60CD72FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId124"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
 </worksheet>
 </file>
 
@@ -10059,11 +10176,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9EE97A-02BC-4A54-8308-AB1F0F780731}">
   <dimension ref="A1:AA1201"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B608" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B932" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B960" sqref="B960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -45686,29 +45803,37 @@
         <f t="shared" si="46"/>
         <v>937</v>
       </c>
-      <c r="B938" s="14"/>
-      <c r="C938" s="18"/>
-      <c r="D938" s="14"/>
-      <c r="E938" s="14"/>
-      <c r="G938" s="1">
+      <c r="B938" s="14">
+        <v>124</v>
+      </c>
+      <c r="C938" s="21" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D938" s="14" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E938" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="G938" s="1" t="str">
         <f>_xlfn.XLOOKUP(B938,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W938" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W938" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X938" s="12">
+        <v>336</v>
+      </c>
+      <c r="X938" s="12" t="str">
         <f>_xlfn.XLOOKUP($B938,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z938" s="16" t="e">
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-</v>
+      </c>
+      <c r="Z938" s="16" t="str">
         <f>HYPERLINK($X938&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W938))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-&amp;t=336s</v>
       </c>
       <c r="AA938" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Mrs. GREEN APPLEアウフヘーベン</v>
       </c>
     </row>
     <row r="939" spans="1:27" x14ac:dyDescent="0.4">
@@ -45716,29 +45841,37 @@
         <f t="shared" si="46"/>
         <v>938</v>
       </c>
-      <c r="B939" s="14"/>
-      <c r="C939" s="18"/>
-      <c r="D939" s="14"/>
-      <c r="E939" s="14"/>
-      <c r="G939" s="1">
+      <c r="B939" s="14">
+        <v>124</v>
+      </c>
+      <c r="C939" s="21" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D939" s="14" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E939" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="G939" s="1" t="str">
         <f>_xlfn.XLOOKUP(B939,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W939" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W939" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X939" s="12">
+        <v>774</v>
+      </c>
+      <c r="X939" s="12" t="str">
         <f>_xlfn.XLOOKUP($B939,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z939" s="16" t="e">
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-</v>
+      </c>
+      <c r="Z939" s="16" t="str">
         <f>HYPERLINK($X939&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W939))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-&amp;t=774s</v>
       </c>
       <c r="AA939" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Mrs. GREEN APPLEインフェルノ</v>
       </c>
     </row>
     <row r="940" spans="1:27" x14ac:dyDescent="0.4">
@@ -45746,29 +45879,37 @@
         <f t="shared" si="46"/>
         <v>939</v>
       </c>
-      <c r="B940" s="14"/>
-      <c r="C940" s="18"/>
-      <c r="D940" s="14"/>
-      <c r="E940" s="14"/>
-      <c r="G940" s="1">
+      <c r="B940" s="14">
+        <v>124</v>
+      </c>
+      <c r="C940" s="21" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D940" s="14" t="s">
+        <v>2125</v>
+      </c>
+      <c r="E940" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="G940" s="1" t="str">
         <f>_xlfn.XLOOKUP(B940,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W940" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W940" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X940" s="12">
+        <v>1281</v>
+      </c>
+      <c r="X940" s="12" t="str">
         <f>_xlfn.XLOOKUP($B940,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z940" s="16" t="e">
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-</v>
+      </c>
+      <c r="Z940" s="16" t="str">
         <f>HYPERLINK($X940&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W940))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-&amp;t=1281s</v>
       </c>
       <c r="AA940" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Mrs. GREEN APPLESpeaking</v>
       </c>
     </row>
     <row r="941" spans="1:27" x14ac:dyDescent="0.4">
@@ -45776,29 +45917,37 @@
         <f t="shared" si="46"/>
         <v>940</v>
       </c>
-      <c r="B941" s="14"/>
-      <c r="C941" s="18"/>
-      <c r="D941" s="14"/>
-      <c r="E941" s="14"/>
-      <c r="G941" s="1">
+      <c r="B941" s="14">
+        <v>124</v>
+      </c>
+      <c r="C941" s="21" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D941" s="14" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E941" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="G941" s="1" t="str">
         <f>_xlfn.XLOOKUP(B941,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W941" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W941" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X941" s="12">
+        <v>1790</v>
+      </c>
+      <c r="X941" s="12" t="str">
         <f>_xlfn.XLOOKUP($B941,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z941" s="16" t="e">
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-</v>
+      </c>
+      <c r="Z941" s="16" t="str">
         <f>HYPERLINK($X941&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W941))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-&amp;t=1790s</v>
       </c>
       <c r="AA941" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Mrs. GREEN APPLEWanteD! WanteD!</v>
       </c>
     </row>
     <row r="942" spans="1:27" x14ac:dyDescent="0.4">
@@ -45806,29 +45955,37 @@
         <f t="shared" si="46"/>
         <v>941</v>
       </c>
-      <c r="B942" s="14"/>
-      <c r="C942" s="18"/>
-      <c r="D942" s="14"/>
-      <c r="E942" s="14"/>
-      <c r="G942" s="1">
+      <c r="B942" s="14">
+        <v>124</v>
+      </c>
+      <c r="C942" s="21" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D942" s="14" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E942" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="G942" s="1" t="str">
         <f>_xlfn.XLOOKUP(B942,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W942" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W942" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X942" s="12">
+        <v>2137</v>
+      </c>
+      <c r="X942" s="12" t="str">
         <f>_xlfn.XLOOKUP($B942,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z942" s="16" t="e">
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-</v>
+      </c>
+      <c r="Z942" s="16" t="str">
         <f>HYPERLINK($X942&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W942))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-&amp;t=2137s</v>
       </c>
       <c r="AA942" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Mrs. GREEN APPLE我逢人</v>
       </c>
     </row>
     <row r="943" spans="1:27" x14ac:dyDescent="0.4">
@@ -45836,29 +45993,37 @@
         <f t="shared" si="46"/>
         <v>942</v>
       </c>
-      <c r="B943" s="14"/>
-      <c r="C943" s="18"/>
-      <c r="D943" s="14"/>
-      <c r="E943" s="14"/>
-      <c r="G943" s="1">
+      <c r="B943" s="14">
+        <v>124</v>
+      </c>
+      <c r="C943" s="21" t="s">
+        <v>826</v>
+      </c>
+      <c r="D943" s="14" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E943" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="G943" s="1" t="str">
         <f>_xlfn.XLOOKUP(B943,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W943" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W943" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X943" s="12">
+        <v>2557</v>
+      </c>
+      <c r="X943" s="12" t="str">
         <f>_xlfn.XLOOKUP($B943,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z943" s="16" t="e">
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-</v>
+      </c>
+      <c r="Z943" s="16" t="str">
         <f>HYPERLINK($X943&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W943))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-&amp;t=2557s</v>
       </c>
       <c r="AA943" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Mrs. GREEN APPLEケセラセラ</v>
       </c>
     </row>
     <row r="944" spans="1:27" x14ac:dyDescent="0.4">
@@ -45866,29 +46031,37 @@
         <f t="shared" si="46"/>
         <v>943</v>
       </c>
-      <c r="B944" s="14"/>
-      <c r="C944" s="18"/>
-      <c r="D944" s="14"/>
-      <c r="E944" s="14"/>
-      <c r="G944" s="1">
+      <c r="B944" s="14">
+        <v>124</v>
+      </c>
+      <c r="C944" s="21" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D944" s="14" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E944" s="14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G944" s="1" t="str">
         <f>_xlfn.XLOOKUP(B944,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W944" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W944" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X944" s="12">
+        <v>2925</v>
+      </c>
+      <c r="X944" s="12" t="str">
         <f>_xlfn.XLOOKUP($B944,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z944" s="16" t="e">
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-</v>
+      </c>
+      <c r="Z944" s="16" t="str">
         <f>HYPERLINK($X944&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W944))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-&amp;t=2925s</v>
       </c>
       <c r="AA944" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Mrs. GREEN APPLE feat.井上苑子点描の唄</v>
       </c>
     </row>
     <row r="945" spans="1:27" x14ac:dyDescent="0.4">
@@ -45896,29 +46069,37 @@
         <f t="shared" si="46"/>
         <v>944</v>
       </c>
-      <c r="B945" s="14"/>
-      <c r="C945" s="18"/>
-      <c r="D945" s="14"/>
-      <c r="E945" s="14"/>
-      <c r="G945" s="1">
+      <c r="B945" s="14">
+        <v>124</v>
+      </c>
+      <c r="C945" s="21" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D945" s="14" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E945" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="G945" s="1" t="str">
         <f>_xlfn.XLOOKUP(B945,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W945" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W945" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X945" s="12">
+        <v>3512</v>
+      </c>
+      <c r="X945" s="12" t="str">
         <f>_xlfn.XLOOKUP($B945,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z945" s="16" t="e">
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-</v>
+      </c>
+      <c r="Z945" s="16" t="str">
         <f>HYPERLINK($X945&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W945))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/DCABx3RjHlk?si=2kjkclC-U2asQNr-&amp;t=3512s</v>
       </c>
       <c r="AA945" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Mrs. GREEN APPLEライラック</v>
       </c>
     </row>
     <row r="946" spans="1:27" x14ac:dyDescent="0.4">
@@ -45926,29 +46107,37 @@
         <f t="shared" si="46"/>
         <v>945</v>
       </c>
-      <c r="B946" s="14"/>
-      <c r="C946" s="18"/>
-      <c r="D946" s="14"/>
-      <c r="E946" s="14"/>
-      <c r="G946" s="1">
+      <c r="B946" s="14">
+        <v>125</v>
+      </c>
+      <c r="C946" s="21" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D946" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E946" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G946" s="1" t="str">
         <f>_xlfn.XLOOKUP(B946,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W946" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W946" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X946" s="12">
+        <v>338</v>
+      </c>
+      <c r="X946" s="12" t="str">
         <f>_xlfn.XLOOKUP($B946,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z946" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z946" s="16" t="str">
         <f>HYPERLINK($X946&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W946))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=338s</v>
       </c>
       <c r="AA946" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>ヨルシカ靴の花火</v>
       </c>
     </row>
     <row r="947" spans="1:27" x14ac:dyDescent="0.4">
@@ -45956,29 +46145,37 @@
         <f t="shared" si="46"/>
         <v>946</v>
       </c>
-      <c r="B947" s="14"/>
-      <c r="C947" s="18"/>
-      <c r="D947" s="14"/>
-      <c r="E947" s="14"/>
-      <c r="G947" s="1">
+      <c r="B947" s="14">
+        <v>125</v>
+      </c>
+      <c r="C947" s="21" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D947" s="14" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E947" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G947" s="1" t="str">
         <f>_xlfn.XLOOKUP(B947,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W947" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W947" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X947" s="12">
+        <v>784</v>
+      </c>
+      <c r="X947" s="12" t="str">
         <f>_xlfn.XLOOKUP($B947,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z947" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z947" s="16" t="str">
         <f>HYPERLINK($X947&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W947))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=784s</v>
       </c>
       <c r="AA947" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>ヨルシカ忘れてください</v>
       </c>
     </row>
     <row r="948" spans="1:27" x14ac:dyDescent="0.4">
@@ -45986,29 +46183,37 @@
         <f t="shared" si="46"/>
         <v>947</v>
       </c>
-      <c r="B948" s="14"/>
-      <c r="C948" s="18"/>
-      <c r="D948" s="14"/>
-      <c r="E948" s="14"/>
-      <c r="G948" s="1">
+      <c r="B948" s="14">
+        <v>125</v>
+      </c>
+      <c r="C948" s="21" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D948" s="14" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E948" s="14" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G948" s="1" t="str">
         <f>_xlfn.XLOOKUP(B948,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W948" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W948" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X948" s="12">
+        <v>1182</v>
+      </c>
+      <c r="X948" s="12" t="str">
         <f>_xlfn.XLOOKUP($B948,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z948" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z948" s="16" t="str">
         <f>HYPERLINK($X948&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W948))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=1182s</v>
       </c>
       <c r="AA948" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>buzzG feat.初音ミクGALLOWS BELL</v>
       </c>
     </row>
     <row r="949" spans="1:27" x14ac:dyDescent="0.4">
@@ -46016,29 +46221,37 @@
         <f t="shared" si="46"/>
         <v>948</v>
       </c>
-      <c r="B949" s="14"/>
-      <c r="C949" s="18"/>
-      <c r="D949" s="14"/>
-      <c r="E949" s="14"/>
-      <c r="G949" s="1">
+      <c r="B949" s="14">
+        <v>125</v>
+      </c>
+      <c r="C949" s="21" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D949" s="14" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E949" s="14" t="s">
+        <v>2141</v>
+      </c>
+      <c r="G949" s="1" t="str">
         <f>_xlfn.XLOOKUP(B949,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W949" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W949" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X949" s="12">
+        <v>1552.9999999999998</v>
+      </c>
+      <c r="X949" s="12" t="str">
         <f>_xlfn.XLOOKUP($B949,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z949" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z949" s="16" t="str">
         <f>HYPERLINK($X949&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W949))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=1553s</v>
       </c>
       <c r="AA949" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>BuzzG feat.GUMIワールド・ランプシェード</v>
       </c>
     </row>
     <row r="950" spans="1:27" x14ac:dyDescent="0.4">
@@ -46046,29 +46259,37 @@
         <f t="shared" si="46"/>
         <v>949</v>
       </c>
-      <c r="B950" s="14"/>
-      <c r="C950" s="18"/>
-      <c r="D950" s="14"/>
-      <c r="E950" s="14"/>
-      <c r="G950" s="1">
+      <c r="B950" s="14">
+        <v>125</v>
+      </c>
+      <c r="C950" s="21" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D950" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E950" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G950" s="1" t="str">
         <f>_xlfn.XLOOKUP(B950,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W950" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W950" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X950" s="12">
+        <v>2002</v>
+      </c>
+      <c r="X950" s="12" t="str">
         <f>_xlfn.XLOOKUP($B950,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z950" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z950" s="16" t="str">
         <f>HYPERLINK($X950&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W950))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=2002s</v>
       </c>
       <c r="AA950" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>phatmans after schoolツキヨミ</v>
       </c>
     </row>
     <row r="951" spans="1:27" x14ac:dyDescent="0.4">
@@ -46076,29 +46297,37 @@
         <f t="shared" si="46"/>
         <v>950</v>
       </c>
-      <c r="B951" s="14"/>
-      <c r="C951" s="18"/>
-      <c r="D951" s="14"/>
-      <c r="E951" s="14"/>
-      <c r="G951" s="1">
+      <c r="B951" s="14">
+        <v>125</v>
+      </c>
+      <c r="C951" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D951" s="14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E951" s="14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G951" s="1" t="str">
         <f>_xlfn.XLOOKUP(B951,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W951" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W951" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X951" s="12">
+        <v>2522</v>
+      </c>
+      <c r="X951" s="12" t="str">
         <f>_xlfn.XLOOKUP($B951,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z951" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z951" s="16" t="str">
         <f>HYPERLINK($X951&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W951))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=2522s</v>
       </c>
       <c r="AA951" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>Galileo Galilei恋の寿命</v>
       </c>
     </row>
     <row r="952" spans="1:27" x14ac:dyDescent="0.4">
@@ -46106,29 +46335,37 @@
         <f t="shared" si="46"/>
         <v>951</v>
       </c>
-      <c r="B952" s="14"/>
-      <c r="C952" s="18"/>
-      <c r="D952" s="14"/>
-      <c r="E952" s="14"/>
-      <c r="G952" s="1">
+      <c r="B952" s="14">
+        <v>125</v>
+      </c>
+      <c r="C952" s="21" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D952" s="14" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E952" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="G952" s="1" t="str">
         <f>_xlfn.XLOOKUP(B952,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W952" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W952" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X952" s="12">
+        <v>2957</v>
+      </c>
+      <c r="X952" s="12" t="str">
         <f>_xlfn.XLOOKUP($B952,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z952" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z952" s="16" t="str">
         <f>HYPERLINK($X952&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W952))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=2957s</v>
       </c>
       <c r="AA952" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>スキマスイッチアイスクリーム シンドローム</v>
       </c>
     </row>
     <row r="953" spans="1:27" x14ac:dyDescent="0.4">
@@ -46136,29 +46373,37 @@
         <f t="shared" si="46"/>
         <v>952</v>
       </c>
-      <c r="B953" s="14"/>
-      <c r="C953" s="18"/>
-      <c r="D953" s="14"/>
-      <c r="E953" s="14"/>
-      <c r="G953" s="1">
+      <c r="B953" s="14">
+        <v>125</v>
+      </c>
+      <c r="C953" s="21" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D953" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E953" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G953" s="1" t="str">
         <f>_xlfn.XLOOKUP(B953,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W953" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W953" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X953" s="12">
+        <v>3394.9999999999995</v>
+      </c>
+      <c r="X953" s="12" t="str">
         <f>_xlfn.XLOOKUP($B953,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z953" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z953" s="16" t="str">
         <f>HYPERLINK($X953&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W953))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=3395s</v>
       </c>
       <c r="AA953" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>羊文学光るとき</v>
       </c>
     </row>
     <row r="954" spans="1:27" x14ac:dyDescent="0.4">
@@ -46166,29 +46411,37 @@
         <f t="shared" si="46"/>
         <v>953</v>
       </c>
-      <c r="B954" s="14"/>
-      <c r="C954" s="18"/>
-      <c r="D954" s="14"/>
-      <c r="E954" s="14"/>
-      <c r="G954" s="1">
+      <c r="B954" s="14">
+        <v>125</v>
+      </c>
+      <c r="C954" s="21" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D954" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E954" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G954" s="1" t="str">
         <f>_xlfn.XLOOKUP(B954,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W954" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W954" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X954" s="12">
+        <v>3848</v>
+      </c>
+      <c r="X954" s="12" t="str">
         <f>_xlfn.XLOOKUP($B954,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z954" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z954" s="16" t="str">
         <f>HYPERLINK($X954&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W954))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=3848s</v>
       </c>
       <c r="AA954" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>ポルカドットスティングレイトゲめくスピカ</v>
       </c>
     </row>
     <row r="955" spans="1:27" x14ac:dyDescent="0.4">
@@ -46196,29 +46449,37 @@
         <f t="shared" si="46"/>
         <v>954</v>
       </c>
-      <c r="B955" s="14"/>
-      <c r="C955" s="18"/>
-      <c r="D955" s="14"/>
-      <c r="E955" s="14"/>
-      <c r="G955" s="1">
+      <c r="B955" s="14">
+        <v>125</v>
+      </c>
+      <c r="C955" s="21" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D955" s="14" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E955" s="14" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G955" s="1" t="str">
         <f>_xlfn.XLOOKUP(B955,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W955" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W955" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X955" s="12">
+        <v>4266</v>
+      </c>
+      <c r="X955" s="12" t="str">
         <f>_xlfn.XLOOKUP($B955,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z955" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z955" s="16" t="str">
         <f>HYPERLINK($X955&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W955))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=4266s</v>
       </c>
       <c r="AA955" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>蝶々P feat.GUMI心做し</v>
       </c>
     </row>
     <row r="956" spans="1:27" x14ac:dyDescent="0.4">
@@ -46226,29 +46487,37 @@
         <f t="shared" si="46"/>
         <v>955</v>
       </c>
-      <c r="B956" s="14"/>
-      <c r="C956" s="18"/>
-      <c r="D956" s="14"/>
-      <c r="E956" s="14"/>
-      <c r="G956" s="1">
+      <c r="B956" s="14">
+        <v>125</v>
+      </c>
+      <c r="C956" s="21" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D956" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E956" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G956" s="1" t="str">
         <f>_xlfn.XLOOKUP(B956,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W956" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W956" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X956" s="12">
+        <v>4684</v>
+      </c>
+      <c r="X956" s="12" t="str">
         <f>_xlfn.XLOOKUP($B956,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z956" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z956" s="16" t="str">
         <f>HYPERLINK($X956&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W956))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=4684s</v>
       </c>
       <c r="AA956" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>ジミーサムP feat.初音ミク＆巡音ルカ(コーラス)from Y to Y</v>
       </c>
     </row>
     <row r="957" spans="1:27" x14ac:dyDescent="0.4">
@@ -46256,29 +46525,37 @@
         <f t="shared" si="46"/>
         <v>956</v>
       </c>
-      <c r="B957" s="14"/>
-      <c r="C957" s="18"/>
-      <c r="D957" s="14"/>
-      <c r="E957" s="14"/>
-      <c r="G957" s="1">
+      <c r="B957" s="14">
+        <v>125</v>
+      </c>
+      <c r="C957" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D957" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="E957" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G957" s="1" t="str">
         <f>_xlfn.XLOOKUP(B957,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W957" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W957" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X957" s="12">
+        <v>5252</v>
+      </c>
+      <c r="X957" s="12" t="str">
         <f>_xlfn.XLOOKUP($B957,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z957" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z957" s="16" t="str">
         <f>HYPERLINK($X957&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W957))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=5252s</v>
       </c>
       <c r="AA957" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>AimerRef:rain</v>
       </c>
     </row>
     <row r="958" spans="1:27" x14ac:dyDescent="0.4">
@@ -46286,29 +46563,37 @@
         <f t="shared" si="46"/>
         <v>957</v>
       </c>
-      <c r="B958" s="14"/>
-      <c r="C958" s="18"/>
-      <c r="D958" s="14"/>
-      <c r="E958" s="14"/>
-      <c r="G958" s="1">
+      <c r="B958" s="14">
+        <v>125</v>
+      </c>
+      <c r="C958" s="21" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D958" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="E958" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="G958" s="1" t="str">
         <f>_xlfn.XLOOKUP(B958,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W958" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W958" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X958" s="12">
+        <v>5616</v>
+      </c>
+      <c r="X958" s="12" t="str">
         <f>_xlfn.XLOOKUP($B958,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z958" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z958" s="16" t="str">
         <f>HYPERLINK($X958&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W958))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=5616s</v>
       </c>
       <c r="AA958" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>煮ル果実 feat.可不ナイトルール</v>
       </c>
     </row>
     <row r="959" spans="1:27" x14ac:dyDescent="0.4">
@@ -46316,29 +46601,37 @@
         <f t="shared" si="46"/>
         <v>958</v>
       </c>
-      <c r="B959" s="14"/>
-      <c r="C959" s="18"/>
-      <c r="D959" s="14"/>
-      <c r="E959" s="14"/>
-      <c r="G959" s="1">
+      <c r="B959" s="14">
+        <v>125</v>
+      </c>
+      <c r="C959" s="21" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D959" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E959" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G959" s="1" t="str">
         <f>_xlfn.XLOOKUP(B959,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W959" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W959" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X959" s="12">
+        <v>6038</v>
+      </c>
+      <c r="X959" s="12" t="str">
         <f>_xlfn.XLOOKUP($B959,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z959" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z959" s="16" t="str">
         <f>HYPERLINK($X959&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W959))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=6038s</v>
       </c>
       <c r="AA959" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>ryo(supercell) feat.初音ミクメルト</v>
       </c>
     </row>
     <row r="960" spans="1:27" x14ac:dyDescent="0.4">
@@ -46346,29 +46639,37 @@
         <f t="shared" si="46"/>
         <v>959</v>
       </c>
-      <c r="B960" s="14"/>
-      <c r="C960" s="18"/>
-      <c r="D960" s="14"/>
-      <c r="E960" s="14"/>
-      <c r="G960" s="1">
+      <c r="B960" s="14">
+        <v>125</v>
+      </c>
+      <c r="C960" s="21" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D960" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E960" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G960" s="1" t="str">
         <f>_xlfn.XLOOKUP(B960,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W960" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W960" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X960" s="12">
+        <v>6491</v>
+      </c>
+      <c r="X960" s="12" t="str">
         <f>_xlfn.XLOOKUP($B960,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z960" s="16" t="e">
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n</v>
+      </c>
+      <c r="Z960" s="16" t="str">
         <f>HYPERLINK($X960&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W960))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/tbPnXY8S_GQ?si=8PkFk0wPDIc_uL_n&amp;t=6491s</v>
       </c>
       <c r="AA960" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>じん(自然の敵P) feat.IA想像フォレスト</v>
       </c>
     </row>
     <row r="961" spans="1:27" x14ac:dyDescent="0.4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitLocal\shinoutatime-streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ECFCA7-79E2-4CD6-9909-8B594A06AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40F6786-66F8-457D-81F6-FEBF30C06BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3A3198A5-688A-495F-A904-EF8FE4BE0835}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="2182">
   <si>
     <t>ID</t>
   </si>
@@ -6897,6 +6897,106 @@
   </si>
   <si>
     <t>1:48:11</t>
+  </si>
+  <si>
+    <t>【#弾き語り】　火曜日の夜+に弾き語りで彩りを！【幽音しの:ななしいんく】 #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:06:48</t>
+  </si>
+  <si>
+    <t>0:16:15</t>
+  </si>
+  <si>
+    <t>0:23:15</t>
+  </si>
+  <si>
+    <t>愛唄</t>
+  </si>
+  <si>
+    <t>GRe4N BOYZ</t>
+  </si>
+  <si>
+    <t>0:43:34</t>
+  </si>
+  <si>
+    <t>迷宮ラブソング (1chorus)</t>
+  </si>
+  <si>
+    <t>0:47:19</t>
+  </si>
+  <si>
+    <t>0:54:33</t>
+  </si>
+  <si>
+    <t>1:03:01</t>
+  </si>
+  <si>
+    <t>1:09:50</t>
+  </si>
+  <si>
+    <t>今週の予定の歌</t>
+  </si>
+  <si>
+    <t>【#弾き語り】少し寒い昼下がりに、、弾き語りを聴かない？　【幽音しの:ななしいんく】　#shorts #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:05:14</t>
+  </si>
+  <si>
+    <t>0:11:14</t>
+  </si>
+  <si>
+    <t>0:17:05</t>
+  </si>
+  <si>
+    <t>雨とペトラ</t>
+  </si>
+  <si>
+    <t>0:23:18</t>
+  </si>
+  <si>
+    <t>0:35:07</t>
+  </si>
+  <si>
+    <t>0:41:36</t>
+  </si>
+  <si>
+    <t>0:46:32</t>
+  </si>
+  <si>
+    <t>0:52:24</t>
+  </si>
+  <si>
+    <t>0:58:20</t>
+  </si>
+  <si>
+    <t>1:03:43</t>
+  </si>
+  <si>
+    <t>1:09:55</t>
+  </si>
+  <si>
+    <t>1:17:07</t>
+  </si>
+  <si>
+    <t>1:24:42</t>
+  </si>
+  <si>
+    <t>トゥインクル</t>
+  </si>
+  <si>
+    <t>Junky feat.鏡音リン</t>
   </si>
 </sst>
 </file>
@@ -7106,7 +7206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7190,6 +7290,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7529,10 +7632,10 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C126" sqref="C126"/>
+      <selection pane="bottomRight" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -9812,23 +9915,41 @@
         <v>628</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A127" s="14">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="14"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B127" s="15">
+        <v>46000</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A128" s="14">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="14"/>
+      <c r="B128" s="15">
+        <v>46001</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="14">
@@ -10166,9 +10287,11 @@
     <hyperlink ref="D124" r:id="rId123" xr:uid="{18BA592D-4A01-4A07-A27A-6C4D50D0247D}"/>
     <hyperlink ref="D125" r:id="rId124" xr:uid="{51653F5C-E2E0-43D4-903D-9213272AF0F2}"/>
     <hyperlink ref="D126" r:id="rId125" xr:uid="{B0D7FA67-57B1-4A4F-83F0-357E60CD72FF}"/>
+    <hyperlink ref="D127" r:id="rId126" xr:uid="{25246C23-ADE2-4370-9D2B-7CC21BCF2257}"/>
+    <hyperlink ref="D128" r:id="rId127" xr:uid="{1386682D-90D7-4317-A6BE-7BBFFA52CBEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId128"/>
 </worksheet>
 </file>
 
@@ -10177,10 +10300,10 @@
   <dimension ref="A1:AA1201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B932" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B957" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B960" sqref="B960"/>
+      <selection pane="bottomRight" activeCell="C984" sqref="C970:C984"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -46677,29 +46800,37 @@
         <f t="shared" si="46"/>
         <v>960</v>
       </c>
-      <c r="B961" s="14"/>
-      <c r="C961" s="18"/>
-      <c r="D961" s="14"/>
-      <c r="E961" s="14"/>
-      <c r="G961" s="1">
+      <c r="B961" s="14">
+        <v>126</v>
+      </c>
+      <c r="C961" s="21" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D961" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E961" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G961" s="1" t="str">
         <f>_xlfn.XLOOKUP(B961,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W961" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W961" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X961" s="12">
+        <v>408</v>
+      </c>
+      <c r="X961" s="12" t="str">
         <f>_xlfn.XLOOKUP($B961,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z961" s="16" t="e">
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq</v>
+      </c>
+      <c r="Z961" s="16" t="str">
         <f>HYPERLINK($X961&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W961))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq&amp;t=408s</v>
       </c>
       <c r="AA961" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>DECO*27 feat.GUMI弱虫モンブラン</v>
       </c>
     </row>
     <row r="962" spans="1:27" x14ac:dyDescent="0.4">
@@ -46707,29 +46838,37 @@
         <f t="shared" si="46"/>
         <v>961</v>
       </c>
-      <c r="B962" s="14"/>
-      <c r="C962" s="18"/>
-      <c r="D962" s="14"/>
-      <c r="E962" s="14"/>
-      <c r="G962" s="1">
+      <c r="B962" s="14">
+        <v>126</v>
+      </c>
+      <c r="C962" s="21" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D962" s="14" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E962" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G962" s="1" t="str">
         <f>_xlfn.XLOOKUP(B962,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W962" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W962" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X962" s="12">
+        <v>975</v>
+      </c>
+      <c r="X962" s="12" t="str">
         <f>_xlfn.XLOOKUP($B962,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z962" s="16" t="e">
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq</v>
+      </c>
+      <c r="Z962" s="16" t="str">
         <f>HYPERLINK($X962&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W962))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq&amp;t=975s</v>
       </c>
       <c r="AA962" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>DECO*27 feat.初音ミクリバーシブル・キャンペーン</v>
       </c>
     </row>
     <row r="963" spans="1:27" x14ac:dyDescent="0.4">
@@ -46737,29 +46876,37 @@
         <f t="shared" si="46"/>
         <v>962</v>
       </c>
-      <c r="B963" s="14"/>
-      <c r="C963" s="18"/>
-      <c r="D963" s="14"/>
-      <c r="E963" s="14"/>
-      <c r="G963" s="1">
+      <c r="B963" s="14">
+        <v>126</v>
+      </c>
+      <c r="C963" s="21" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D963" s="14" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E963" s="14" t="s">
+        <v>2156</v>
+      </c>
+      <c r="G963" s="1" t="str">
         <f>_xlfn.XLOOKUP(B963,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W963" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W963" s="13">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X963" s="12">
+        <v>1395.0000000000002</v>
+      </c>
+      <c r="X963" s="12" t="str">
         <f>_xlfn.XLOOKUP($B963,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z963" s="16" t="e">
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq</v>
+      </c>
+      <c r="Z963" s="16" t="str">
         <f>HYPERLINK($X963&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W963))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq&amp;t=1395s</v>
       </c>
       <c r="AA963" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>GRe4N BOYZ愛唄</v>
       </c>
     </row>
     <row r="964" spans="1:27" x14ac:dyDescent="0.4">
@@ -46767,29 +46914,37 @@
         <f t="shared" si="46"/>
         <v>963</v>
       </c>
-      <c r="B964" s="14"/>
-      <c r="C964" s="18"/>
-      <c r="D964" s="14"/>
-      <c r="E964" s="14"/>
-      <c r="G964" s="1">
+      <c r="B964" s="14">
+        <v>126</v>
+      </c>
+      <c r="C964" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="D964" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E964" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G964" s="1" t="str">
         <f>_xlfn.XLOOKUP(B964,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W964" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W964" s="13">
         <f t="shared" ref="W964:W1027" si="47">TIMEVALUE($C964)*86400</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X964" s="12">
+        <v>1955</v>
+      </c>
+      <c r="X964" s="12" t="str">
         <f>_xlfn.XLOOKUP($B964,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z964" s="16" t="e">
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq</v>
+      </c>
+      <c r="Z964" s="16" t="str">
         <f>HYPERLINK($X964&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W964))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq&amp;t=1955s</v>
       </c>
       <c r="AA964" s="12" t="str">
         <f t="shared" si="45"/>
-        <v/>
+        <v>家入レオサブリナ</v>
       </c>
     </row>
     <row r="965" spans="1:27" x14ac:dyDescent="0.4">
@@ -46797,29 +46952,37 @@
         <f t="shared" si="46"/>
         <v>964</v>
       </c>
-      <c r="B965" s="14"/>
-      <c r="C965" s="18"/>
-      <c r="D965" s="14"/>
-      <c r="E965" s="14"/>
-      <c r="G965" s="1">
+      <c r="B965" s="14">
+        <v>126</v>
+      </c>
+      <c r="C965" s="21" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D965" s="14" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E965" s="14" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G965" s="1" t="str">
         <f>_xlfn.XLOOKUP(B965,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W965" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W965" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X965" s="12">
+        <v>2614</v>
+      </c>
+      <c r="X965" s="12" t="str">
         <f>_xlfn.XLOOKUP($B965,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z965" s="16" t="e">
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq</v>
+      </c>
+      <c r="Z965" s="16" t="str">
         <f>HYPERLINK($X965&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W965))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq&amp;t=2614s</v>
       </c>
       <c r="AA965" s="12" t="str">
         <f t="shared" ref="AA965:AA1028" si="48">TRIM(E965)&amp;TRIM(D965)</f>
-        <v/>
+        <v>嵐迷宮ラブソング (1chorus)</v>
       </c>
     </row>
     <row r="966" spans="1:27" x14ac:dyDescent="0.4">
@@ -46827,29 +46990,37 @@
         <f t="shared" ref="A966:A1029" si="49">ROW()-1</f>
         <v>965</v>
       </c>
-      <c r="B966" s="14"/>
-      <c r="C966" s="18"/>
-      <c r="D966" s="14"/>
-      <c r="E966" s="14"/>
-      <c r="G966" s="1">
+      <c r="B966" s="14">
+        <v>126</v>
+      </c>
+      <c r="C966" s="21" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D966" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="E966" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="G966" s="1" t="str">
         <f>_xlfn.XLOOKUP(B966,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W966" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W966" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X966" s="12">
+        <v>2839</v>
+      </c>
+      <c r="X966" s="12" t="str">
         <f>_xlfn.XLOOKUP($B966,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z966" s="16" t="e">
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq</v>
+      </c>
+      <c r="Z966" s="16" t="str">
         <f>HYPERLINK($X966&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W966))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq&amp;t=2839s</v>
       </c>
       <c r="AA966" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>KANA-BOON結晶星</v>
       </c>
     </row>
     <row r="967" spans="1:27" x14ac:dyDescent="0.4">
@@ -46857,29 +47028,37 @@
         <f t="shared" si="49"/>
         <v>966</v>
       </c>
-      <c r="B967" s="14"/>
-      <c r="C967" s="18"/>
-      <c r="D967" s="14"/>
-      <c r="E967" s="14"/>
-      <c r="G967" s="1">
+      <c r="B967" s="14">
+        <v>126</v>
+      </c>
+      <c r="C967" s="21" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D967" s="14" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E967" s="14" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G967" s="1" t="str">
         <f>_xlfn.XLOOKUP(B967,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W967" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W967" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X967" s="12">
+        <v>3273.0000000000005</v>
+      </c>
+      <c r="X967" s="12" t="str">
         <f>_xlfn.XLOOKUP($B967,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z967" s="16" t="e">
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq</v>
+      </c>
+      <c r="Z967" s="16" t="str">
         <f>HYPERLINK($X967&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W967))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq&amp;t=3273s</v>
       </c>
       <c r="AA967" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>三月のパンタシアピンクレモネード</v>
       </c>
     </row>
     <row r="968" spans="1:27" x14ac:dyDescent="0.4">
@@ -46887,29 +47066,37 @@
         <f t="shared" si="49"/>
         <v>967</v>
       </c>
-      <c r="B968" s="14"/>
-      <c r="C968" s="18"/>
-      <c r="D968" s="14"/>
-      <c r="E968" s="14"/>
-      <c r="G968" s="1">
+      <c r="B968" s="14">
+        <v>126</v>
+      </c>
+      <c r="C968" s="21" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D968" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="E968" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G968" s="1" t="str">
         <f>_xlfn.XLOOKUP(B968,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W968" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W968" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X968" s="12">
+        <v>3780.9999999999995</v>
+      </c>
+      <c r="X968" s="12" t="str">
         <f>_xlfn.XLOOKUP($B968,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z968" s="16" t="e">
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq</v>
+      </c>
+      <c r="Z968" s="16" t="str">
         <f>HYPERLINK($X968&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W968))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq&amp;t=3781s</v>
       </c>
       <c r="AA968" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>supercellヒーロー</v>
       </c>
     </row>
     <row r="969" spans="1:27" x14ac:dyDescent="0.4">
@@ -46917,29 +47104,37 @@
         <f t="shared" si="49"/>
         <v>968</v>
       </c>
-      <c r="B969" s="14"/>
-      <c r="C969" s="18"/>
-      <c r="D969" s="14"/>
-      <c r="E969" s="14"/>
-      <c r="G969" s="1">
+      <c r="B969" s="14">
+        <v>126</v>
+      </c>
+      <c r="C969" s="21" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D969" s="14" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E969" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G969" s="1" t="str">
         <f>_xlfn.XLOOKUP(B969,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W969" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W969" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X969" s="12">
+        <v>4190</v>
+      </c>
+      <c r="X969" s="12" t="str">
         <f>_xlfn.XLOOKUP($B969,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z969" s="16" t="e">
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq</v>
+      </c>
+      <c r="Z969" s="16" t="str">
         <f>HYPERLINK($X969&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W969))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/3sDTyQ9hCDg?si=pXcH4WBWdJUgF-zq&amp;t=4190s</v>
       </c>
       <c r="AA969" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>幽音しの(即興)今週の予定の歌</v>
       </c>
     </row>
     <row r="970" spans="1:27" x14ac:dyDescent="0.4">
@@ -46947,29 +47142,37 @@
         <f t="shared" si="49"/>
         <v>969</v>
       </c>
-      <c r="B970" s="14"/>
-      <c r="C970" s="18"/>
-      <c r="D970" s="14"/>
-      <c r="E970" s="14"/>
-      <c r="G970" s="1">
+      <c r="B970" s="14">
+        <v>127</v>
+      </c>
+      <c r="C970" s="21" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D970" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="E970" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G970" s="1" t="str">
         <f>_xlfn.XLOOKUP(B970,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W970" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W970" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X970" s="12">
+        <v>314</v>
+      </c>
+      <c r="X970" s="12" t="str">
         <f>_xlfn.XLOOKUP($B970,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z970" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z970" s="16" t="str">
         <f>HYPERLINK($X970&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W970))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=314s</v>
       </c>
       <c r="AA970" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ヨルシカ斜陽</v>
       </c>
     </row>
     <row r="971" spans="1:27" x14ac:dyDescent="0.4">
@@ -46977,29 +47180,37 @@
         <f t="shared" si="49"/>
         <v>970</v>
       </c>
-      <c r="B971" s="14"/>
-      <c r="C971" s="18"/>
-      <c r="D971" s="14"/>
-      <c r="E971" s="14"/>
-      <c r="G971" s="1">
+      <c r="B971" s="14">
+        <v>127</v>
+      </c>
+      <c r="C971" s="21" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D971" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E971" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="G971" s="1" t="str">
         <f>_xlfn.XLOOKUP(B971,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W971" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W971" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X971" s="12">
+        <v>674</v>
+      </c>
+      <c r="X971" s="12" t="str">
         <f>_xlfn.XLOOKUP($B971,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z971" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z971" s="16" t="str">
         <f>HYPERLINK($X971&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W971))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=674s</v>
       </c>
       <c r="AA971" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>バルーン(須田景凪) feat.flowerレディーレ</v>
       </c>
     </row>
     <row r="972" spans="1:27" x14ac:dyDescent="0.4">
@@ -47007,29 +47218,37 @@
         <f t="shared" si="49"/>
         <v>971</v>
       </c>
-      <c r="B972" s="14"/>
-      <c r="C972" s="18"/>
-      <c r="D972" s="14"/>
-      <c r="E972" s="14"/>
-      <c r="G972" s="1">
+      <c r="B972" s="14">
+        <v>127</v>
+      </c>
+      <c r="C972" s="21" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D972" s="14" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E972" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="G972" s="1" t="str">
         <f>_xlfn.XLOOKUP(B972,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W972" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W972" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X972" s="12">
+        <v>1025</v>
+      </c>
+      <c r="X972" s="12" t="str">
         <f>_xlfn.XLOOKUP($B972,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z972" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z972" s="16" t="str">
         <f>HYPERLINK($X972&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W972))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=1025s</v>
       </c>
       <c r="AA972" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>バルーン(須田景凪) feat.flower雨とペトラ</v>
       </c>
     </row>
     <row r="973" spans="1:27" x14ac:dyDescent="0.4">
@@ -47037,29 +47256,37 @@
         <f t="shared" si="49"/>
         <v>972</v>
       </c>
-      <c r="B973" s="14"/>
-      <c r="C973" s="18"/>
-      <c r="D973" s="14"/>
-      <c r="E973" s="14"/>
-      <c r="G973" s="1">
+      <c r="B973" s="14">
+        <v>127</v>
+      </c>
+      <c r="C973" s="21" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D973" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E973" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="G973" s="1" t="str">
         <f>_xlfn.XLOOKUP(B973,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W973" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W973" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X973" s="12">
+        <v>1398</v>
+      </c>
+      <c r="X973" s="12" t="str">
         <f>_xlfn.XLOOKUP($B973,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z973" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z973" s="16" t="str">
         <f>HYPERLINK($X973&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W973))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=1398s</v>
       </c>
       <c r="AA973" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>バルーン(須田景凪) feat.flowerシャルル</v>
       </c>
     </row>
     <row r="974" spans="1:27" x14ac:dyDescent="0.4">
@@ -47067,29 +47294,37 @@
         <f t="shared" si="49"/>
         <v>973</v>
       </c>
-      <c r="B974" s="14"/>
-      <c r="C974" s="18"/>
-      <c r="D974" s="14"/>
-      <c r="E974" s="14"/>
-      <c r="G974" s="1">
+      <c r="B974" s="14">
+        <v>127</v>
+      </c>
+      <c r="C974" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="D974" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="E974" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="G974" s="1" t="str">
         <f>_xlfn.XLOOKUP(B974,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W974" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W974" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X974" s="12">
+        <v>1777</v>
+      </c>
+      <c r="X974" s="12" t="str">
         <f>_xlfn.XLOOKUP($B974,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z974" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z974" s="16" t="str">
         <f>HYPERLINK($X974&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W974))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=1777s</v>
       </c>
       <c r="AA974" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>バルーン(須田景凪) feat.flower花瓶に触れた</v>
       </c>
     </row>
     <row r="975" spans="1:27" x14ac:dyDescent="0.4">
@@ -47097,29 +47332,37 @@
         <f t="shared" si="49"/>
         <v>974</v>
       </c>
-      <c r="B975" s="14"/>
-      <c r="C975" s="18"/>
-      <c r="D975" s="14"/>
-      <c r="E975" s="14"/>
-      <c r="G975" s="1">
+      <c r="B975" s="14">
+        <v>127</v>
+      </c>
+      <c r="C975" s="21" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D975" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E975" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G975" s="1" t="str">
         <f>_xlfn.XLOOKUP(B975,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W975" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W975" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X975" s="12">
+        <v>2107</v>
+      </c>
+      <c r="X975" s="12" t="str">
         <f>_xlfn.XLOOKUP($B975,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z975" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z975" s="16" t="str">
         <f>HYPERLINK($X975&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W975))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=2107s</v>
       </c>
       <c r="AA975" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>164P feat.GUMI天ノ弱</v>
       </c>
     </row>
     <row r="976" spans="1:27" x14ac:dyDescent="0.4">
@@ -47127,29 +47370,37 @@
         <f t="shared" si="49"/>
         <v>975</v>
       </c>
-      <c r="B976" s="14"/>
-      <c r="C976" s="18"/>
-      <c r="D976" s="14"/>
-      <c r="E976" s="14"/>
-      <c r="G976" s="1">
+      <c r="B976" s="14">
+        <v>127</v>
+      </c>
+      <c r="C976" s="21" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D976" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E976" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G976" s="1" t="str">
         <f>_xlfn.XLOOKUP(B976,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W976" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W976" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X976" s="12">
+        <v>2496</v>
+      </c>
+      <c r="X976" s="12" t="str">
         <f>_xlfn.XLOOKUP($B976,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z976" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z976" s="16" t="str">
         <f>HYPERLINK($X976&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W976))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=2496s</v>
       </c>
       <c r="AA976" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>Orangestar feat.初音ミクアスノヨゾラ哨戒班</v>
       </c>
     </row>
     <row r="977" spans="1:27" x14ac:dyDescent="0.4">
@@ -47157,29 +47408,37 @@
         <f t="shared" si="49"/>
         <v>976</v>
       </c>
-      <c r="B977" s="14"/>
-      <c r="C977" s="18"/>
-      <c r="D977" s="14"/>
-      <c r="E977" s="14"/>
-      <c r="G977" s="1">
+      <c r="B977" s="14">
+        <v>127</v>
+      </c>
+      <c r="C977" s="21" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D977" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E977" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G977" s="1" t="str">
         <f>_xlfn.XLOOKUP(B977,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W977" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W977" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X977" s="12">
+        <v>2792</v>
+      </c>
+      <c r="X977" s="12" t="str">
         <f>_xlfn.XLOOKUP($B977,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z977" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z977" s="16" t="str">
         <f>HYPERLINK($X977&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W977))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=2792s</v>
       </c>
       <c r="AA977" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>メル feat.初音ミク翡翠のまち</v>
       </c>
     </row>
     <row r="978" spans="1:27" x14ac:dyDescent="0.4">
@@ -47187,29 +47446,37 @@
         <f t="shared" si="49"/>
         <v>977</v>
       </c>
-      <c r="B978" s="14"/>
-      <c r="C978" s="18"/>
-      <c r="D978" s="14"/>
-      <c r="E978" s="14"/>
-      <c r="G978" s="1">
+      <c r="B978" s="14">
+        <v>127</v>
+      </c>
+      <c r="C978" s="21" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D978" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E978" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G978" s="1" t="str">
         <f>_xlfn.XLOOKUP(B978,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W978" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W978" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X978" s="12">
+        <v>3144</v>
+      </c>
+      <c r="X978" s="12" t="str">
         <f>_xlfn.XLOOKUP($B978,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z978" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z978" s="16" t="str">
         <f>HYPERLINK($X978&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W978))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=3144s</v>
       </c>
       <c r="AA978" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>メル feat.初音ミクさようなら、花泥棒さん</v>
       </c>
     </row>
     <row r="979" spans="1:27" x14ac:dyDescent="0.4">
@@ -47217,29 +47484,37 @@
         <f t="shared" si="49"/>
         <v>978</v>
       </c>
-      <c r="B979" s="14"/>
-      <c r="C979" s="18"/>
-      <c r="D979" s="14"/>
-      <c r="E979" s="14"/>
-      <c r="G979" s="1">
+      <c r="B979" s="14">
+        <v>127</v>
+      </c>
+      <c r="C979" s="21" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D979" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E979" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G979" s="1" t="str">
         <f>_xlfn.XLOOKUP(B979,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W979" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W979" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X979" s="12">
+        <v>3500</v>
+      </c>
+      <c r="X979" s="12" t="str">
         <f>_xlfn.XLOOKUP($B979,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z979" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z979" s="16" t="str">
         <f>HYPERLINK($X979&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W979))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=3500s</v>
       </c>
       <c r="AA979" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>メル feat.IAプラトニック・ラヴ</v>
       </c>
     </row>
     <row r="980" spans="1:27" x14ac:dyDescent="0.4">
@@ -47247,29 +47522,37 @@
         <f t="shared" si="49"/>
         <v>979</v>
       </c>
-      <c r="B980" s="14"/>
-      <c r="C980" s="18"/>
-      <c r="D980" s="14"/>
-      <c r="E980" s="14"/>
-      <c r="G980" s="1">
+      <c r="B980" s="14">
+        <v>127</v>
+      </c>
+      <c r="C980" s="21" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D980" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="E980" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="G980" s="1" t="str">
         <f>_xlfn.XLOOKUP(B980,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W980" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W980" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X980" s="12">
+        <v>3823.0000000000005</v>
+      </c>
+      <c r="X980" s="12" t="str">
         <f>_xlfn.XLOOKUP($B980,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z980" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z980" s="16" t="str">
         <f>HYPERLINK($X980&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W980))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=3823s</v>
       </c>
       <c r="AA980" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>みきとP feat.MAYU夕立のりぼん</v>
       </c>
     </row>
     <row r="981" spans="1:27" x14ac:dyDescent="0.4">
@@ -47277,29 +47560,37 @@
         <f t="shared" si="49"/>
         <v>980</v>
       </c>
-      <c r="B981" s="14"/>
-      <c r="C981" s="18"/>
-      <c r="D981" s="14"/>
-      <c r="E981" s="14"/>
-      <c r="G981" s="1">
+      <c r="B981" s="14">
+        <v>127</v>
+      </c>
+      <c r="C981" s="21" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D981" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E981" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G981" s="1" t="str">
         <f>_xlfn.XLOOKUP(B981,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W981" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W981" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X981" s="12">
+        <v>4195</v>
+      </c>
+      <c r="X981" s="12" t="str">
         <f>_xlfn.XLOOKUP($B981,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z981" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z981" s="16" t="str">
         <f>HYPERLINK($X981&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W981))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=4195s</v>
       </c>
       <c r="AA981" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>みきとP feat.初音ミク少女レイ</v>
       </c>
     </row>
     <row r="982" spans="1:27" x14ac:dyDescent="0.4">
@@ -47307,29 +47598,37 @@
         <f t="shared" si="49"/>
         <v>981</v>
       </c>
-      <c r="B982" s="14"/>
-      <c r="C982" s="18"/>
-      <c r="D982" s="14"/>
-      <c r="E982" s="14"/>
-      <c r="G982" s="1">
+      <c r="B982" s="14">
+        <v>127</v>
+      </c>
+      <c r="C982" s="21" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D982" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="E982" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="G982" s="1" t="str">
         <f>_xlfn.XLOOKUP(B982,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W982" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W982" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X982" s="12">
+        <v>4627</v>
+      </c>
+      <c r="X982" s="12" t="str">
         <f>_xlfn.XLOOKUP($B982,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z982" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z982" s="16" t="str">
         <f>HYPERLINK($X982&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W982))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=4627s</v>
       </c>
       <c r="AA982" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>halyosy feat.鏡音レンFire◎Flower</v>
       </c>
     </row>
     <row r="983" spans="1:27" x14ac:dyDescent="0.4">
@@ -47337,29 +47636,37 @@
         <f t="shared" si="49"/>
         <v>982</v>
       </c>
-      <c r="B983" s="14"/>
-      <c r="C983" s="18"/>
-      <c r="D983" s="14"/>
-      <c r="E983" s="14"/>
-      <c r="G983" s="1">
+      <c r="B983" s="14">
+        <v>127</v>
+      </c>
+      <c r="C983" s="21" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D983" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="E983" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G983" s="1" t="str">
         <f>_xlfn.XLOOKUP(B983,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W983" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W983" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X983" s="12">
+        <v>5082</v>
+      </c>
+      <c r="X983" s="12" t="str">
         <f>_xlfn.XLOOKUP($B983,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z983" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z983" s="16" t="str">
         <f>HYPERLINK($X983&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W983))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=5082s</v>
       </c>
       <c r="AA983" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ささくれ。P feat.初音ミクハロー、プラネット。</v>
       </c>
     </row>
     <row r="984" spans="1:27" x14ac:dyDescent="0.4">
@@ -47367,29 +47674,37 @@
         <f t="shared" si="49"/>
         <v>983</v>
       </c>
-      <c r="B984" s="14"/>
-      <c r="C984" s="18"/>
-      <c r="D984" s="14"/>
-      <c r="E984" s="14"/>
-      <c r="G984" s="1">
+      <c r="B984" s="14">
+        <v>127</v>
+      </c>
+      <c r="C984" s="21" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D984" s="14" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E984" s="14" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G984" s="1" t="str">
         <f>_xlfn.XLOOKUP(B984,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W984" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W984" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X984" s="12">
+        <v>5540</v>
+      </c>
+      <c r="X984" s="12" t="str">
         <f>_xlfn.XLOOKUP($B984,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z984" s="16" t="e">
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd</v>
+      </c>
+      <c r="Z984" s="16" t="str">
         <f>HYPERLINK($X984&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W984))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xKwyAT6ZyDo?si=p8RkryjyMuiiNoGd&amp;t=5540s</v>
       </c>
       <c r="AA984" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>Junky feat.鏡音リントゥインクル</v>
       </c>
     </row>
     <row r="985" spans="1:27" x14ac:dyDescent="0.4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitLocal\shinoutatime-streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40F6786-66F8-457D-81F6-FEBF30C06BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0761E9-C6B9-4A51-B231-6306BE555A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3A3198A5-688A-495F-A904-EF8FE4BE0835}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A3198A5-688A-495F-A904-EF8FE4BE0835}"/>
   </bookViews>
   <sheets>
     <sheet name="M_YT_LIVE" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="2182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="2268">
   <si>
     <t>ID</t>
   </si>
@@ -6997,6 +6997,278 @@
   </si>
   <si>
     <t>Junky feat.鏡音リン</t>
+  </si>
+  <si>
+    <t>【運動記録】太ももシェイプ！！！！！リングフィットアドベンチャー#7【幽音しの:ななしいんく】 #vtuber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/q-NGMbZYKXs?si=PW1tXGBm0QqXgfQn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【#弾き語り】深夜定期！弾き語りでチルく寝る日【幽音しの:ななしいんく】 #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:05:26</t>
+  </si>
+  <si>
+    <t>0:12:38</t>
+  </si>
+  <si>
+    <t>たばこ</t>
+  </si>
+  <si>
+    <t>コレサワ</t>
+  </si>
+  <si>
+    <t>0:21:19</t>
+  </si>
+  <si>
+    <t>0:44:23</t>
+  </si>
+  <si>
+    <t>うそつき</t>
+  </si>
+  <si>
+    <t>めざめP feat.初音ミク</t>
+  </si>
+  <si>
+    <t>0:51:46</t>
+  </si>
+  <si>
+    <t>1:00:24</t>
+  </si>
+  <si>
+    <t>1:06:30</t>
+  </si>
+  <si>
+    <t>1:13:43</t>
+  </si>
+  <si>
+    <t>1:20:45</t>
+  </si>
+  <si>
+    <t>1:27:25</t>
+  </si>
+  <si>
+    <t>1:34:20</t>
+  </si>
+  <si>
+    <t>1:44:18</t>
+  </si>
+  <si>
+    <t>【 #ななし鉄千 】ねこはスマートにかってなんぼ。ななしいんくMinecraft鉄千！　しの視点【幽音しの:ななしいんく】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/GiTmTKFi_r4?si=YWh5gkimymLBhlSx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【#弾き語り】のんびりとゆっくり弾き語る歌枠　【幽音しの:ななしいんく】　#shorts #vsinger #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:05:13</t>
+  </si>
+  <si>
+    <t>0:24:58</t>
+  </si>
+  <si>
+    <t>0:35:16</t>
+  </si>
+  <si>
+    <t>初めての恋が終わる時</t>
+  </si>
+  <si>
+    <t>supercell feat.初音ミク</t>
+  </si>
+  <si>
+    <t>0:43:44</t>
+  </si>
+  <si>
+    <t>0:52:19</t>
+  </si>
+  <si>
+    <t>1:00:45</t>
+  </si>
+  <si>
+    <t>白い恋人達</t>
+  </si>
+  <si>
+    <t>桑田佳祐</t>
+  </si>
+  <si>
+    <t>1:10:00</t>
+  </si>
+  <si>
+    <t>glow</t>
+  </si>
+  <si>
+    <t>keeno feat.初音ミク</t>
+  </si>
+  <si>
+    <t>1:19:25</t>
+  </si>
+  <si>
+    <t>1:27:38</t>
+  </si>
+  <si>
+    <t>Departures ～あなたにおくるアイの歌～</t>
+  </si>
+  <si>
+    <t>1:34:35</t>
+  </si>
+  <si>
+    <t>1:43:06</t>
+  </si>
+  <si>
+    <t>1:51:36</t>
+  </si>
+  <si>
+    <t>［Alexandros］</t>
+  </si>
+  <si>
+    <t>1:58:34</t>
+  </si>
+  <si>
+    <t>2:05:13</t>
+  </si>
+  <si>
+    <t>【#弾き語り】弾き語りをして寝る前に楽しむぞ！【幽音しの:ななしいんく】 #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:11:20</t>
+  </si>
+  <si>
+    <t>0:17:18</t>
+  </si>
+  <si>
+    <t>0:26:05</t>
+  </si>
+  <si>
+    <t>0:32:58</t>
+  </si>
+  <si>
+    <t>寝癖</t>
+  </si>
+  <si>
+    <t>0:40:48</t>
+  </si>
+  <si>
+    <t>0:57:35</t>
+  </si>
+  <si>
+    <t>1:04:52</t>
+  </si>
+  <si>
+    <t>1:12:30</t>
+  </si>
+  <si>
+    <t>1:21:46</t>
+  </si>
+  <si>
+    <t>1:33:03</t>
+  </si>
+  <si>
+    <t>1:47:26</t>
+  </si>
+  <si>
+    <t>1:55:31</t>
+  </si>
+  <si>
+    <t>【運動記録】一緒に運動いかがですか？リングフィットアドベンチャー#８【幽音しの:ななしいんく】 #vtuber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/CZbn2XcF7qA?si=r-_jc2eVbOWxSTiN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【#弾き語り】深夜定期！ゆっくり流れる時間をあなたに【幽音しの:ななしいんく】 #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:03:49</t>
+  </si>
+  <si>
+    <t>0:12:11</t>
+  </si>
+  <si>
+    <t>0:18:45</t>
+  </si>
+  <si>
+    <t>0:26:22</t>
+  </si>
+  <si>
+    <t>0:33:24</t>
+  </si>
+  <si>
+    <t>0:40:05</t>
+  </si>
+  <si>
+    <t>エウテルペ</t>
+  </si>
+  <si>
+    <t>0:45:49</t>
+  </si>
+  <si>
+    <t>ツギハギスタッカート</t>
+  </si>
+  <si>
+    <t>0:52:06</t>
+  </si>
+  <si>
+    <t>0:59:44</t>
+  </si>
+  <si>
+    <t>街路、ライトの灯りだけ</t>
+  </si>
+  <si>
+    <t>1:06:15</t>
+  </si>
+  <si>
+    <t>vivi</t>
+  </si>
+  <si>
+    <t>1:22:22</t>
+  </si>
+  <si>
+    <t>失想ワアド</t>
+  </si>
+  <si>
+    <t>じん feat.初音ミク</t>
+  </si>
+  <si>
+    <t>1:30:54</t>
+  </si>
+  <si>
+    <t>1:38:23</t>
+  </si>
+  <si>
+    <t>1:47:04</t>
+  </si>
+  <si>
+    <t>いつも何度でも</t>
   </si>
 </sst>
 </file>
@@ -7206,7 +7478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7290,9 +7562,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7631,11 +7900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E856D2-B155-4BD9-995B-24668BA721A9}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F128" sqref="F128"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -9915,7 +10184,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="14">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -9926,14 +10195,14 @@
       <c r="C127" s="25" t="s">
         <v>2150</v>
       </c>
-      <c r="D127" s="28" t="s">
+      <c r="D127" s="19" t="s">
         <v>2151</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="14">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -9944,77 +10213,140 @@
       <c r="C128" s="25" t="s">
         <v>2164</v>
       </c>
-      <c r="D128" s="28" t="s">
+      <c r="D128" s="19" t="s">
         <v>2165</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="14">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="14"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B129" s="15">
+        <v>46002</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="14">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="14"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B130" s="15">
+        <v>46003</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="14">
         <f t="shared" ref="A131:A151" si="2">ROW()-1</f>
         <v>130</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="14"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B131" s="15">
+        <v>46004</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="14">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="14"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B132" s="15">
+        <v>46005</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="14">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="14"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B133" s="15">
+        <v>46008</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>2229</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="14">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="14"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B134" s="15">
+        <v>46009</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="14">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="14"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B135" s="15">
+        <v>46009</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>2246</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="14">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -10023,7 +10355,7 @@
       <c r="C136" s="25"/>
       <c r="D136" s="14"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="14">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -10032,7 +10364,7 @@
       <c r="C137" s="25"/>
       <c r="D137" s="14"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="14">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -10041,7 +10373,7 @@
       <c r="C138" s="25"/>
       <c r="D138" s="14"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="14">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -10050,7 +10382,7 @@
       <c r="C139" s="25"/>
       <c r="D139" s="14"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="14">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -10059,7 +10391,7 @@
       <c r="C140" s="25"/>
       <c r="D140" s="14"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="14">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -10068,7 +10400,7 @@
       <c r="C141" s="25"/>
       <c r="D141" s="14"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="14">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -10077,7 +10409,7 @@
       <c r="C142" s="25"/>
       <c r="D142" s="14"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="14">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -10086,7 +10418,7 @@
       <c r="C143" s="25"/>
       <c r="D143" s="14"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="14">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -10289,9 +10621,16 @@
     <hyperlink ref="D126" r:id="rId125" xr:uid="{B0D7FA67-57B1-4A4F-83F0-357E60CD72FF}"/>
     <hyperlink ref="D127" r:id="rId126" xr:uid="{25246C23-ADE2-4370-9D2B-7CC21BCF2257}"/>
     <hyperlink ref="D128" r:id="rId127" xr:uid="{1386682D-90D7-4317-A6BE-7BBFFA52CBEF}"/>
+    <hyperlink ref="D129" r:id="rId128" xr:uid="{18285BB0-577D-49B5-A32D-E5C7CBAF692E}"/>
+    <hyperlink ref="D130" r:id="rId129" xr:uid="{DEE99C14-74BC-441B-B2D1-0E6E78BCBEA8}"/>
+    <hyperlink ref="D131" r:id="rId130" xr:uid="{488A132C-B0AF-43D7-BE73-5AD54F34F003}"/>
+    <hyperlink ref="D132" r:id="rId131" xr:uid="{E3978D23-4D03-49E6-BCE9-2734E7621738}"/>
+    <hyperlink ref="D133" r:id="rId132" xr:uid="{03C57F93-1EFA-4FFA-BFC5-D1B3A13E5B46}"/>
+    <hyperlink ref="D134" r:id="rId133" xr:uid="{75E548E5-82D6-4B2C-88E6-618E49FCAEA4}"/>
+    <hyperlink ref="D135" r:id="rId134" xr:uid="{0FB22C23-8EE1-4A1A-AA12-C5559F4130C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId128"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId135"/>
 </worksheet>
 </file>
 
@@ -10299,11 +10638,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9EE97A-02BC-4A54-8308-AB1F0F780731}">
   <dimension ref="A1:AA1201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B957" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B1012" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C984" sqref="C970:C984"/>
+      <selection pane="bottomRight" activeCell="B1044" sqref="B1044"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -47712,29 +48051,37 @@
         <f t="shared" si="49"/>
         <v>984</v>
       </c>
-      <c r="B985" s="14"/>
-      <c r="C985" s="18"/>
-      <c r="D985" s="14"/>
-      <c r="E985" s="14"/>
-      <c r="G985" s="1">
+      <c r="B985" s="14">
+        <v>129</v>
+      </c>
+      <c r="C985" s="21" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D985" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E985" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G985" s="1" t="str">
         <f>_xlfn.XLOOKUP(B985,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W985" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W985" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X985" s="12">
+        <v>326</v>
+      </c>
+      <c r="X985" s="12" t="str">
         <f>_xlfn.XLOOKUP($B985,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z985" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z985" s="16" t="str">
         <f>HYPERLINK($X985&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W985))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=326s</v>
       </c>
       <c r="AA985" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>Saucy Dogシンデレラボーイ</v>
       </c>
     </row>
     <row r="986" spans="1:27" x14ac:dyDescent="0.4">
@@ -47742,29 +48089,37 @@
         <f t="shared" si="49"/>
         <v>985</v>
       </c>
-      <c r="B986" s="14"/>
-      <c r="C986" s="18"/>
-      <c r="D986" s="14"/>
-      <c r="E986" s="14"/>
-      <c r="G986" s="1">
+      <c r="B986" s="14">
+        <v>129</v>
+      </c>
+      <c r="C986" s="21" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D986" s="14" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E986" s="14" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G986" s="1" t="str">
         <f>_xlfn.XLOOKUP(B986,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W986" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W986" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X986" s="12">
+        <v>758</v>
+      </c>
+      <c r="X986" s="12" t="str">
         <f>_xlfn.XLOOKUP($B986,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z986" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z986" s="16" t="str">
         <f>HYPERLINK($X986&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W986))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=758s</v>
       </c>
       <c r="AA986" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>コレサワたばこ</v>
       </c>
     </row>
     <row r="987" spans="1:27" x14ac:dyDescent="0.4">
@@ -47772,29 +48127,37 @@
         <f t="shared" si="49"/>
         <v>986</v>
       </c>
-      <c r="B987" s="14"/>
-      <c r="C987" s="18"/>
-      <c r="D987" s="14"/>
-      <c r="E987" s="14"/>
-      <c r="G987" s="1">
+      <c r="B987" s="14">
+        <v>129</v>
+      </c>
+      <c r="C987" s="21" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D987" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="E987" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="G987" s="1" t="str">
         <f>_xlfn.XLOOKUP(B987,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W987" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W987" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X987" s="12">
+        <v>1279</v>
+      </c>
+      <c r="X987" s="12" t="str">
         <f>_xlfn.XLOOKUP($B987,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z987" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z987" s="16" t="str">
         <f>HYPERLINK($X987&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W987))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=1279s</v>
       </c>
       <c r="AA987" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>tuki.晩餐歌</v>
       </c>
     </row>
     <row r="988" spans="1:27" x14ac:dyDescent="0.4">
@@ -47802,29 +48165,37 @@
         <f t="shared" si="49"/>
         <v>987</v>
       </c>
-      <c r="B988" s="14"/>
-      <c r="C988" s="18"/>
-      <c r="D988" s="14"/>
-      <c r="E988" s="14"/>
-      <c r="G988" s="1">
+      <c r="B988" s="14">
+        <v>129</v>
+      </c>
+      <c r="C988" s="21" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D988" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E988" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G988" s="1" t="str">
         <f>_xlfn.XLOOKUP(B988,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W988" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W988" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X988" s="12">
+        <v>1686</v>
+      </c>
+      <c r="X988" s="12" t="str">
         <f>_xlfn.XLOOKUP($B988,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z988" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z988" s="16" t="str">
         <f>HYPERLINK($X988&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W988))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=1686s</v>
       </c>
       <c r="AA988" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>美波カワキヲアメク</v>
       </c>
     </row>
     <row r="989" spans="1:27" x14ac:dyDescent="0.4">
@@ -47832,29 +48203,37 @@
         <f t="shared" si="49"/>
         <v>988</v>
       </c>
-      <c r="B989" s="14"/>
-      <c r="C989" s="18"/>
-      <c r="D989" s="14"/>
-      <c r="E989" s="14"/>
-      <c r="G989" s="1">
+      <c r="B989" s="14">
+        <v>129</v>
+      </c>
+      <c r="C989" s="21" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D989" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="E989" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G989" s="1" t="str">
         <f>_xlfn.XLOOKUP(B989,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W989" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W989" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X989" s="12">
+        <v>2160</v>
+      </c>
+      <c r="X989" s="12" t="str">
         <f>_xlfn.XLOOKUP($B989,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z989" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z989" s="16" t="str">
         <f>HYPERLINK($X989&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W989))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=2160s</v>
       </c>
       <c r="AA989" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>R Sound Design feat.初音ミク帝国少女</v>
       </c>
     </row>
     <row r="990" spans="1:27" x14ac:dyDescent="0.4">
@@ -47862,29 +48241,37 @@
         <f t="shared" si="49"/>
         <v>989</v>
       </c>
-      <c r="B990" s="14"/>
-      <c r="C990" s="18"/>
-      <c r="D990" s="14"/>
-      <c r="E990" s="14"/>
-      <c r="G990" s="1">
+      <c r="B990" s="14">
+        <v>129</v>
+      </c>
+      <c r="C990" s="21" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D990" s="14" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E990" s="14" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G990" s="1" t="str">
         <f>_xlfn.XLOOKUP(B990,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W990" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W990" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X990" s="12">
+        <v>2663</v>
+      </c>
+      <c r="X990" s="12" t="str">
         <f>_xlfn.XLOOKUP($B990,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z990" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z990" s="16" t="str">
         <f>HYPERLINK($X990&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W990))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=2663s</v>
       </c>
       <c r="AA990" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>めざめP feat.初音ミクうそつき</v>
       </c>
     </row>
     <row r="991" spans="1:27" x14ac:dyDescent="0.4">
@@ -47892,29 +48279,37 @@
         <f t="shared" si="49"/>
         <v>990</v>
       </c>
-      <c r="B991" s="14"/>
-      <c r="C991" s="18"/>
-      <c r="D991" s="14"/>
-      <c r="E991" s="14"/>
-      <c r="G991" s="1">
+      <c r="B991" s="14">
+        <v>129</v>
+      </c>
+      <c r="C991" s="21" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D991" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="E991" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G991" s="1" t="str">
         <f>_xlfn.XLOOKUP(B991,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W991" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W991" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X991" s="12">
+        <v>3105.9999999999995</v>
+      </c>
+      <c r="X991" s="12" t="str">
         <f>_xlfn.XLOOKUP($B991,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z991" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z991" s="16" t="str">
         <f>HYPERLINK($X991&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W991))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=3106s</v>
       </c>
       <c r="AA991" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ヨルシカアルジャーノン</v>
       </c>
     </row>
     <row r="992" spans="1:27" x14ac:dyDescent="0.4">
@@ -47922,29 +48317,37 @@
         <f t="shared" si="49"/>
         <v>991</v>
       </c>
-      <c r="B992" s="14"/>
-      <c r="C992" s="18"/>
-      <c r="D992" s="14"/>
-      <c r="E992" s="14"/>
-      <c r="G992" s="1">
+      <c r="B992" s="14">
+        <v>129</v>
+      </c>
+      <c r="C992" s="21" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D992" s="14" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E992" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G992" s="1" t="str">
         <f>_xlfn.XLOOKUP(B992,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W992" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W992" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X992" s="12">
+        <v>3624</v>
+      </c>
+      <c r="X992" s="12" t="str">
         <f>_xlfn.XLOOKUP($B992,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z992" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z992" s="16" t="str">
         <f>HYPERLINK($X992&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W992))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=3624s</v>
       </c>
       <c r="AA992" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ヨルシカ忘れてください</v>
       </c>
     </row>
     <row r="993" spans="1:27" x14ac:dyDescent="0.4">
@@ -47952,29 +48355,37 @@
         <f t="shared" si="49"/>
         <v>992</v>
       </c>
-      <c r="B993" s="14"/>
-      <c r="C993" s="18"/>
-      <c r="D993" s="14"/>
-      <c r="E993" s="14"/>
-      <c r="G993" s="1">
+      <c r="B993" s="14">
+        <v>129</v>
+      </c>
+      <c r="C993" s="21" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D993" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E993" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G993" s="1" t="str">
         <f>_xlfn.XLOOKUP(B993,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W993" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W993" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X993" s="12">
+        <v>3990</v>
+      </c>
+      <c r="X993" s="12" t="str">
         <f>_xlfn.XLOOKUP($B993,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z993" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z993" s="16" t="str">
         <f>HYPERLINK($X993&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W993))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=3990s</v>
       </c>
       <c r="AA993" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ヨルシカチノカテ</v>
       </c>
     </row>
     <row r="994" spans="1:27" x14ac:dyDescent="0.4">
@@ -47982,29 +48393,37 @@
         <f t="shared" si="49"/>
         <v>993</v>
       </c>
-      <c r="B994" s="14"/>
-      <c r="C994" s="18"/>
-      <c r="D994" s="14"/>
-      <c r="E994" s="14"/>
-      <c r="G994" s="1">
+      <c r="B994" s="14">
+        <v>129</v>
+      </c>
+      <c r="C994" s="21" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D994" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E994" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G994" s="1" t="str">
         <f>_xlfn.XLOOKUP(B994,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W994" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W994" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X994" s="12">
+        <v>4423</v>
+      </c>
+      <c r="X994" s="12" t="str">
         <f>_xlfn.XLOOKUP($B994,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z994" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z994" s="16" t="str">
         <f>HYPERLINK($X994&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W994))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=4423s</v>
       </c>
       <c r="AA994" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ヨルシカ靴の花火</v>
       </c>
     </row>
     <row r="995" spans="1:27" x14ac:dyDescent="0.4">
@@ -48012,29 +48431,37 @@
         <f t="shared" si="49"/>
         <v>994</v>
       </c>
-      <c r="B995" s="14"/>
-      <c r="C995" s="18"/>
-      <c r="D995" s="14"/>
-      <c r="E995" s="14"/>
-      <c r="G995" s="1">
+      <c r="B995" s="14">
+        <v>129</v>
+      </c>
+      <c r="C995" s="21" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D995" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E995" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G995" s="1" t="str">
         <f>_xlfn.XLOOKUP(B995,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W995" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W995" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X995" s="12">
+        <v>4845</v>
+      </c>
+      <c r="X995" s="12" t="str">
         <f>_xlfn.XLOOKUP($B995,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z995" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z995" s="16" t="str">
         <f>HYPERLINK($X995&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W995))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=4845s</v>
       </c>
       <c r="AA995" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ヨルシカノーチラス</v>
       </c>
     </row>
     <row r="996" spans="1:27" x14ac:dyDescent="0.4">
@@ -48042,29 +48469,37 @@
         <f t="shared" si="49"/>
         <v>995</v>
       </c>
-      <c r="B996" s="14"/>
-      <c r="C996" s="18"/>
-      <c r="D996" s="14"/>
-      <c r="E996" s="14"/>
-      <c r="G996" s="1">
+      <c r="B996" s="14">
+        <v>129</v>
+      </c>
+      <c r="C996" s="21" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D996" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E996" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G996" s="1" t="str">
         <f>_xlfn.XLOOKUP(B996,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W996" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W996" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X996" s="12">
+        <v>5245</v>
+      </c>
+      <c r="X996" s="12" t="str">
         <f>_xlfn.XLOOKUP($B996,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z996" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z996" s="16" t="str">
         <f>HYPERLINK($X996&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W996))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=5245s</v>
       </c>
       <c r="AA996" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>supercellPerfect Day</v>
       </c>
     </row>
     <row r="997" spans="1:27" x14ac:dyDescent="0.4">
@@ -48072,29 +48507,37 @@
         <f t="shared" si="49"/>
         <v>996</v>
       </c>
-      <c r="B997" s="14"/>
-      <c r="C997" s="18"/>
-      <c r="D997" s="14"/>
-      <c r="E997" s="14"/>
-      <c r="G997" s="1">
+      <c r="B997" s="14">
+        <v>129</v>
+      </c>
+      <c r="C997" s="21" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D997" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E997" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G997" s="1" t="str">
         <f>_xlfn.XLOOKUP(B997,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W997" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W997" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X997" s="12">
+        <v>5659.9999999999991</v>
+      </c>
+      <c r="X997" s="12" t="str">
         <f>_xlfn.XLOOKUP($B997,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z997" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z997" s="16" t="str">
         <f>HYPERLINK($X997&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W997))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=5660s</v>
       </c>
       <c r="AA997" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>supercellうたかた花火</v>
       </c>
     </row>
     <row r="998" spans="1:27" x14ac:dyDescent="0.4">
@@ -48102,29 +48545,37 @@
         <f t="shared" si="49"/>
         <v>997</v>
       </c>
-      <c r="B998" s="14"/>
-      <c r="C998" s="18"/>
-      <c r="D998" s="14"/>
-      <c r="E998" s="14"/>
-      <c r="G998" s="1">
+      <c r="B998" s="14">
+        <v>129</v>
+      </c>
+      <c r="C998" s="21" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D998" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E998" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G998" s="1" t="str">
         <f>_xlfn.XLOOKUP(B998,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W998" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W998" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X998" s="12">
+        <v>6258</v>
+      </c>
+      <c r="X998" s="12" t="str">
         <f>_xlfn.XLOOKUP($B998,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z998" s="16" t="e">
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3</v>
+      </c>
+      <c r="Z998" s="16" t="str">
         <f>HYPERLINK($X998&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W998))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/RXbt0OmMVe8?si=zUTwr5vQz3aflRD3&amp;t=6258s</v>
       </c>
       <c r="AA998" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>supercellさよならメモリーズ</v>
       </c>
     </row>
     <row r="999" spans="1:27" x14ac:dyDescent="0.4">
@@ -48132,29 +48583,37 @@
         <f t="shared" si="49"/>
         <v>998</v>
       </c>
-      <c r="B999" s="14"/>
-      <c r="C999" s="18"/>
-      <c r="D999" s="14"/>
-      <c r="E999" s="14"/>
-      <c r="G999" s="1">
+      <c r="B999" s="14">
+        <v>131</v>
+      </c>
+      <c r="C999" s="21" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D999" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E999" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G999" s="1" t="str">
         <f>_xlfn.XLOOKUP(B999,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W999" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W999" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X999" s="12">
+        <v>313</v>
+      </c>
+      <c r="X999" s="12" t="str">
         <f>_xlfn.XLOOKUP($B999,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z999" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z999" s="16" t="str">
         <f>HYPERLINK($X999&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W999))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=313s</v>
       </c>
       <c r="AA999" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ずっと真夜中でいいのに。Dear Mr 「F」</v>
       </c>
     </row>
     <row r="1000" spans="1:27" x14ac:dyDescent="0.4">
@@ -48162,29 +48621,37 @@
         <f t="shared" si="49"/>
         <v>999</v>
       </c>
-      <c r="B1000" s="14"/>
-      <c r="C1000" s="18"/>
-      <c r="D1000" s="14"/>
-      <c r="E1000" s="14"/>
-      <c r="G1000" s="1">
+      <c r="B1000" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1000" s="21" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D1000" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1000" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1000" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1000,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1000" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1000" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1000" s="12">
+        <v>847</v>
+      </c>
+      <c r="X1000" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1000,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1000" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1000" s="16" t="str">
         <f>HYPERLINK($X1000&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1000))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=847s</v>
       </c>
       <c r="AA1000" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>Dixie Flatline feat.巡音ルカJust Be Friends</v>
       </c>
     </row>
     <row r="1001" spans="1:27" x14ac:dyDescent="0.4">
@@ -48192,29 +48659,37 @@
         <f t="shared" si="49"/>
         <v>1000</v>
       </c>
-      <c r="B1001" s="14"/>
-      <c r="C1001" s="18"/>
-      <c r="D1001" s="14"/>
-      <c r="E1001" s="14"/>
-      <c r="G1001" s="1">
+      <c r="B1001" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1001" s="21" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D1001" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1001" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1001" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1001,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1001" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1001" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1001" s="12">
+        <v>1497.9999999999998</v>
+      </c>
+      <c r="X1001" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1001,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1001" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1001" s="16" t="str">
         <f>HYPERLINK($X1001&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1001))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=1498s</v>
       </c>
       <c r="AA1001" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>さユりフラレガイガール</v>
       </c>
     </row>
     <row r="1002" spans="1:27" x14ac:dyDescent="0.4">
@@ -48222,29 +48697,37 @@
         <f t="shared" si="49"/>
         <v>1001</v>
       </c>
-      <c r="B1002" s="14"/>
-      <c r="C1002" s="18"/>
-      <c r="D1002" s="14"/>
-      <c r="E1002" s="14"/>
-      <c r="G1002" s="1">
+      <c r="B1002" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1002" s="21" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D1002" s="14" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E1002" s="14" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G1002" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1002,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1002" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1002" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1002" s="12">
+        <v>2116</v>
+      </c>
+      <c r="X1002" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1002,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1002" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1002" s="16" t="str">
         <f>HYPERLINK($X1002&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1002))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=2116s</v>
       </c>
       <c r="AA1002" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>supercell feat.初音ミク初めての恋が終わる時</v>
       </c>
     </row>
     <row r="1003" spans="1:27" x14ac:dyDescent="0.4">
@@ -48252,29 +48735,37 @@
         <f t="shared" si="49"/>
         <v>1002</v>
       </c>
-      <c r="B1003" s="14"/>
-      <c r="C1003" s="18"/>
-      <c r="D1003" s="14"/>
-      <c r="E1003" s="14"/>
-      <c r="G1003" s="1">
+      <c r="B1003" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1003" s="21" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D1003" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1003" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1003" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1003,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1003" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1003" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1003" s="12">
+        <v>2624</v>
+      </c>
+      <c r="X1003" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1003,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1003" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1003" s="16" t="str">
         <f>HYPERLINK($X1003&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1003))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=2624s</v>
       </c>
       <c r="AA1003" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>Kemu feat.Gumi地球最後の告白を</v>
       </c>
     </row>
     <row r="1004" spans="1:27" x14ac:dyDescent="0.4">
@@ -48282,29 +48773,37 @@
         <f t="shared" si="49"/>
         <v>1003</v>
       </c>
-      <c r="B1004" s="14"/>
-      <c r="C1004" s="18"/>
-      <c r="D1004" s="14"/>
-      <c r="E1004" s="14"/>
-      <c r="G1004" s="1">
+      <c r="B1004" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1004" s="21" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D1004" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1004" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1004" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1004,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1004" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1004" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1004" s="12">
+        <v>3139</v>
+      </c>
+      <c r="X1004" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1004,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1004" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1004" s="16" t="str">
         <f>HYPERLINK($X1004&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1004))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=3139s</v>
       </c>
       <c r="AA1004" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>レミオロメン粉雪</v>
       </c>
     </row>
     <row r="1005" spans="1:27" x14ac:dyDescent="0.4">
@@ -48312,29 +48811,37 @@
         <f t="shared" si="49"/>
         <v>1004</v>
       </c>
-      <c r="B1005" s="14"/>
-      <c r="C1005" s="18"/>
-      <c r="D1005" s="14"/>
-      <c r="E1005" s="14"/>
-      <c r="G1005" s="1">
+      <c r="B1005" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1005" s="21" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D1005" s="14" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E1005" s="14" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G1005" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1005,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1005" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1005" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1005" s="12">
+        <v>3645.0000000000005</v>
+      </c>
+      <c r="X1005" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1005,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1005" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1005" s="16" t="str">
         <f>HYPERLINK($X1005&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1005))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=3645s</v>
       </c>
       <c r="AA1005" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>桑田佳祐白い恋人達</v>
       </c>
     </row>
     <row r="1006" spans="1:27" x14ac:dyDescent="0.4">
@@ -48342,29 +48849,37 @@
         <f t="shared" si="49"/>
         <v>1005</v>
       </c>
-      <c r="B1006" s="14"/>
-      <c r="C1006" s="18"/>
-      <c r="D1006" s="14"/>
-      <c r="E1006" s="14"/>
-      <c r="G1006" s="1">
+      <c r="B1006" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1006" s="21" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D1006" s="14" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E1006" s="14" t="s">
+        <v>2218</v>
+      </c>
+      <c r="G1006" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1006,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1006" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1006" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1006" s="12">
+        <v>4200</v>
+      </c>
+      <c r="X1006" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1006,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1006" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1006" s="16" t="str">
         <f>HYPERLINK($X1006&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1006))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=4200s</v>
       </c>
       <c r="AA1006" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>keeno feat.初音ミクglow</v>
       </c>
     </row>
     <row r="1007" spans="1:27" x14ac:dyDescent="0.4">
@@ -48372,29 +48887,37 @@
         <f t="shared" si="49"/>
         <v>1006</v>
       </c>
-      <c r="B1007" s="14"/>
-      <c r="C1007" s="18"/>
-      <c r="D1007" s="14"/>
-      <c r="E1007" s="14"/>
-      <c r="G1007" s="1">
+      <c r="B1007" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1007" s="21" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D1007" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="E1007" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1007" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1007,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1007" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1007" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1007" s="12">
+        <v>4765</v>
+      </c>
+      <c r="X1007" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1007,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1007" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1007" s="16" t="str">
         <f>HYPERLINK($X1007&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1007))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=4765s</v>
       </c>
       <c r="AA1007" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>EGOISTAll Alone With You</v>
       </c>
     </row>
     <row r="1008" spans="1:27" x14ac:dyDescent="0.4">
@@ -48402,29 +48925,37 @@
         <f t="shared" si="49"/>
         <v>1007</v>
       </c>
-      <c r="B1008" s="14"/>
-      <c r="C1008" s="18"/>
-      <c r="D1008" s="14"/>
-      <c r="E1008" s="14"/>
-      <c r="G1008" s="1">
+      <c r="B1008" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1008" s="21" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D1008" s="14" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E1008" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1008" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1008,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1008" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1008" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1008" s="12">
+        <v>5258</v>
+      </c>
+      <c r="X1008" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1008,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1008" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1008" s="16" t="str">
         <f>HYPERLINK($X1008&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1008))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=5258s</v>
       </c>
       <c r="AA1008" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>EGOISTDepartures ～あなたにおくるアイの歌～</v>
       </c>
     </row>
     <row r="1009" spans="1:27" x14ac:dyDescent="0.4">
@@ -48432,29 +48963,37 @@
         <f t="shared" si="49"/>
         <v>1008</v>
       </c>
-      <c r="B1009" s="14"/>
-      <c r="C1009" s="18"/>
-      <c r="D1009" s="14"/>
-      <c r="E1009" s="14"/>
-      <c r="G1009" s="1">
+      <c r="B1009" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1009" s="21" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D1009" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1009" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1009" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1009,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1009" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1009" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1009" s="12">
+        <v>5674.9999999999991</v>
+      </c>
+      <c r="X1009" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1009,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1009" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1009" s="16" t="str">
         <f>HYPERLINK($X1009&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1009))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=5675s</v>
       </c>
       <c r="AA1009" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>EGOISTPlanetes</v>
       </c>
     </row>
     <row r="1010" spans="1:27" x14ac:dyDescent="0.4">
@@ -48462,29 +49001,37 @@
         <f t="shared" si="49"/>
         <v>1009</v>
       </c>
-      <c r="B1010" s="14"/>
-      <c r="C1010" s="18"/>
-      <c r="D1010" s="14"/>
-      <c r="E1010" s="14"/>
-      <c r="G1010" s="1">
+      <c r="B1010" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1010" s="21" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D1010" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1010" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1010" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1010,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1010" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1010" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1010" s="12">
+        <v>6186.0000000000009</v>
+      </c>
+      <c r="X1010" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1010,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1010" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1010" s="16" t="str">
         <f>HYPERLINK($X1010&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1010))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=6186s</v>
       </c>
       <c r="AA1010" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>やなぎなぎユキトキ</v>
       </c>
     </row>
     <row r="1011" spans="1:27" x14ac:dyDescent="0.4">
@@ -48492,29 +49039,37 @@
         <f t="shared" si="49"/>
         <v>1010</v>
       </c>
-      <c r="B1011" s="14"/>
-      <c r="C1011" s="18"/>
-      <c r="D1011" s="14"/>
-      <c r="E1011" s="14"/>
-      <c r="G1011" s="1">
+      <c r="B1011" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1011" s="21" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D1011" s="14" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E1011" s="14" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G1011" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1011,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1011" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1011" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1011" s="12">
+        <v>6696</v>
+      </c>
+      <c r="X1011" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1011,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1011" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1011" s="16" t="str">
         <f>HYPERLINK($X1011&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1011))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=6696s</v>
       </c>
       <c r="AA1011" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>［Alexandros］SNOW SOUND</v>
       </c>
     </row>
     <row r="1012" spans="1:27" x14ac:dyDescent="0.4">
@@ -48522,29 +49077,37 @@
         <f t="shared" si="49"/>
         <v>1011</v>
       </c>
-      <c r="B1012" s="14"/>
-      <c r="C1012" s="18"/>
-      <c r="D1012" s="14"/>
-      <c r="E1012" s="14"/>
-      <c r="G1012" s="1">
+      <c r="B1012" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1012" s="21" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D1012" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1012" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1012" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1012,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1012" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1012" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1012" s="12">
+        <v>7114</v>
+      </c>
+      <c r="X1012" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1012,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1012" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1012" s="16" t="str">
         <f>HYPERLINK($X1012&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1012))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=7114s</v>
       </c>
       <c r="AA1012" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ジミーサムP feat.初音ミクCalc.</v>
       </c>
     </row>
     <row r="1013" spans="1:27" x14ac:dyDescent="0.4">
@@ -48552,29 +49115,37 @@
         <f t="shared" si="49"/>
         <v>1012</v>
       </c>
-      <c r="B1013" s="14"/>
-      <c r="C1013" s="18"/>
-      <c r="D1013" s="14"/>
-      <c r="E1013" s="14"/>
-      <c r="G1013" s="1">
+      <c r="B1013" s="14">
+        <v>131</v>
+      </c>
+      <c r="C1013" s="21" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D1013" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1013" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1013" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1013,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1013" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1013" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1013" s="12">
+        <v>7513</v>
+      </c>
+      <c r="X1013" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1013,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1013" s="16" t="e">
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4</v>
+      </c>
+      <c r="Z1013" s="16" t="str">
         <f>HYPERLINK($X1013&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1013))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TLhHmBIm5rI?si=VIh-Mx1TlTgHASX4&amp;t=7513s</v>
       </c>
       <c r="AA1013" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>Orangestar feat.初音ミク回る空うさぎ</v>
       </c>
     </row>
     <row r="1014" spans="1:27" x14ac:dyDescent="0.4">
@@ -48582,29 +49153,37 @@
         <f t="shared" si="49"/>
         <v>1013</v>
       </c>
-      <c r="B1014" s="14"/>
-      <c r="C1014" s="18"/>
-      <c r="D1014" s="14"/>
-      <c r="E1014" s="14"/>
-      <c r="G1014" s="1">
+      <c r="B1014" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1014" s="21" t="s">
+        <v>2206</v>
+      </c>
+      <c r="D1014" s="14" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E1014" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1014" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1014,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1014" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1014" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1014" s="12">
+        <v>313</v>
+      </c>
+      <c r="X1014" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1014,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1014" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1014" s="16" t="str">
         <f>HYPERLINK($X1014&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1014))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=313s</v>
       </c>
       <c r="AA1014" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ポルカドットスティングレイ阿吽</v>
       </c>
     </row>
     <row r="1015" spans="1:27" x14ac:dyDescent="0.4">
@@ -48612,29 +49191,37 @@
         <f t="shared" si="49"/>
         <v>1014</v>
       </c>
-      <c r="B1015" s="14"/>
-      <c r="C1015" s="18"/>
-      <c r="D1015" s="14"/>
-      <c r="E1015" s="14"/>
-      <c r="G1015" s="1">
+      <c r="B1015" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1015" s="21" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D1015" s="14" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E1015" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1015" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1015,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1015" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1015" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1015" s="12">
+        <v>679.99999999999989</v>
+      </c>
+      <c r="X1015" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1015,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1015" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1015" s="16" t="str">
         <f>HYPERLINK($X1015&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1015))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=680s</v>
       </c>
       <c r="AA1015" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ポルカドットスティングレイ化身</v>
       </c>
     </row>
     <row r="1016" spans="1:27" x14ac:dyDescent="0.4">
@@ -48642,29 +49229,37 @@
         <f t="shared" si="49"/>
         <v>1015</v>
       </c>
-      <c r="B1016" s="14"/>
-      <c r="C1016" s="18"/>
-      <c r="D1016" s="14"/>
-      <c r="E1016" s="14"/>
-      <c r="G1016" s="1">
+      <c r="B1016" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1016" s="21" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D1016" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1016" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1016" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1016,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1016" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1016" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1016" s="12">
+        <v>1038</v>
+      </c>
+      <c r="X1016" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1016,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1016" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1016" s="16" t="str">
         <f>HYPERLINK($X1016&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1016))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=1038s</v>
       </c>
       <c r="AA1016" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>あいみょんハルノヒ</v>
       </c>
     </row>
     <row r="1017" spans="1:27" x14ac:dyDescent="0.4">
@@ -48672,29 +49267,37 @@
         <f t="shared" si="49"/>
         <v>1016</v>
       </c>
-      <c r="B1017" s="14"/>
-      <c r="C1017" s="18"/>
-      <c r="D1017" s="14"/>
-      <c r="E1017" s="14"/>
-      <c r="G1017" s="1">
+      <c r="B1017" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1017" s="21" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D1017" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1017" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1017" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1017,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1017" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1017" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1017" s="12">
+        <v>1565</v>
+      </c>
+      <c r="X1017" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1017,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1017" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1017" s="16" t="str">
         <f>HYPERLINK($X1017&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1017))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=1565s</v>
       </c>
       <c r="AA1017" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>緑黄色社会sabotage</v>
       </c>
     </row>
     <row r="1018" spans="1:27" x14ac:dyDescent="0.4">
@@ -48702,29 +49305,37 @@
         <f t="shared" si="49"/>
         <v>1017</v>
       </c>
-      <c r="B1018" s="14"/>
-      <c r="C1018" s="18"/>
-      <c r="D1018" s="14"/>
-      <c r="E1018" s="14"/>
-      <c r="G1018" s="1">
+      <c r="B1018" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1018" s="21" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D1018" s="14" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E1018" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1018" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1018,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1018" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1018" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1018" s="12">
+        <v>1978</v>
+      </c>
+      <c r="X1018" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1018,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1018" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1018" s="16" t="str">
         <f>HYPERLINK($X1018&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1018))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=1978s</v>
       </c>
       <c r="AA1018" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>クリープハイプ寝癖</v>
       </c>
     </row>
     <row r="1019" spans="1:27" x14ac:dyDescent="0.4">
@@ -48732,29 +49343,37 @@
         <f t="shared" si="49"/>
         <v>1018</v>
       </c>
-      <c r="B1019" s="14"/>
-      <c r="C1019" s="18"/>
-      <c r="D1019" s="14"/>
-      <c r="E1019" s="14"/>
-      <c r="G1019" s="1">
+      <c r="B1019" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1019" s="21" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D1019" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1019" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1019" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1019,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1019" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1019" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1019" s="12">
+        <v>2448</v>
+      </c>
+      <c r="X1019" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1019,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1019" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1019" s="16" t="str">
         <f>HYPERLINK($X1019&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1019))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=2448s</v>
       </c>
       <c r="AA1019" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>クリープハイプ憂、燦々</v>
       </c>
     </row>
     <row r="1020" spans="1:27" x14ac:dyDescent="0.4">
@@ -48762,29 +49381,37 @@
         <f t="shared" si="49"/>
         <v>1019</v>
       </c>
-      <c r="B1020" s="14"/>
-      <c r="C1020" s="18"/>
-      <c r="D1020" s="14"/>
-      <c r="E1020" s="14"/>
-      <c r="G1020" s="1">
+      <c r="B1020" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1020" s="21" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D1020" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E1020" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G1020" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1020,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1020" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1020" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1020" s="12">
+        <v>2951</v>
+      </c>
+      <c r="X1020" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1020,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1020" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1020" s="16" t="str">
         <f>HYPERLINK($X1020&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1020))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=2951s</v>
       </c>
       <c r="AA1020" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>Ayase feat.初音ミク幽霊東京</v>
       </c>
     </row>
     <row r="1021" spans="1:27" x14ac:dyDescent="0.4">
@@ -48792,29 +49419,37 @@
         <f t="shared" si="49"/>
         <v>1020</v>
       </c>
-      <c r="B1021" s="14"/>
-      <c r="C1021" s="18"/>
-      <c r="D1021" s="14"/>
-      <c r="E1021" s="14"/>
-      <c r="G1021" s="1">
+      <c r="B1021" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1021" s="21" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D1021" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="E1021" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1021" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1021,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1021" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1021" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1021" s="12">
+        <v>3455</v>
+      </c>
+      <c r="X1021" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1021,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1021" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1021" s="16" t="str">
         <f>HYPERLINK($X1021&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1021))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=3455s</v>
       </c>
       <c r="AA1021" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>supercellLove&amp;Roll</v>
       </c>
     </row>
     <row r="1022" spans="1:27" x14ac:dyDescent="0.4">
@@ -48822,29 +49457,37 @@
         <f t="shared" si="49"/>
         <v>1021</v>
       </c>
-      <c r="B1022" s="14"/>
-      <c r="C1022" s="18"/>
-      <c r="D1022" s="14"/>
-      <c r="E1022" s="14"/>
-      <c r="G1022" s="1">
+      <c r="B1022" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1022" s="21" t="s">
+        <v>2237</v>
+      </c>
+      <c r="D1022" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="E1022" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="G1022" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1022,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1022" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1022" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1022" s="12">
+        <v>3892.0000000000005</v>
+      </c>
+      <c r="X1022" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1022,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1022" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1022" s="16" t="str">
         <f>HYPERLINK($X1022&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1022))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=3892s</v>
       </c>
       <c r="AA1022" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>CHiCO with HoneyWorksカヌレ</v>
       </c>
     </row>
     <row r="1023" spans="1:27" x14ac:dyDescent="0.4">
@@ -48852,29 +49495,37 @@
         <f t="shared" si="49"/>
         <v>1022</v>
       </c>
-      <c r="B1023" s="14"/>
-      <c r="C1023" s="18"/>
-      <c r="D1023" s="14"/>
-      <c r="E1023" s="14"/>
-      <c r="G1023" s="1">
+      <c r="B1023" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1023" s="21" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D1023" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1023" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1023" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1023,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1023" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1023" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1023" s="12">
+        <v>4350</v>
+      </c>
+      <c r="X1023" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1023,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1023" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1023" s="16" t="str">
         <f>HYPERLINK($X1023&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1023))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=4350s</v>
       </c>
       <c r="AA1023" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>supercellリルモア</v>
       </c>
     </row>
     <row r="1024" spans="1:27" x14ac:dyDescent="0.4">
@@ -48882,29 +49533,37 @@
         <f t="shared" si="49"/>
         <v>1023</v>
       </c>
-      <c r="B1024" s="14"/>
-      <c r="C1024" s="18"/>
-      <c r="D1024" s="14"/>
-      <c r="E1024" s="14"/>
-      <c r="G1024" s="1">
+      <c r="B1024" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1024" s="21" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D1024" s="14" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E1024" s="14" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G1024" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1024,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1024" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1024" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1024" s="12">
+        <v>4906</v>
+      </c>
+      <c r="X1024" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1024,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1024" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1024" s="16" t="str">
         <f>HYPERLINK($X1024&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1024))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=4906s</v>
       </c>
       <c r="AA1024" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>サカナクションミュージック</v>
       </c>
     </row>
     <row r="1025" spans="1:27" x14ac:dyDescent="0.4">
@@ -48912,29 +49571,37 @@
         <f t="shared" si="49"/>
         <v>1024</v>
       </c>
-      <c r="B1025" s="14"/>
-      <c r="C1025" s="18"/>
-      <c r="D1025" s="14"/>
-      <c r="E1025" s="14"/>
-      <c r="G1025" s="1">
+      <c r="B1025" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1025" s="21" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D1025" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="E1025" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="G1025" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1025,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1025" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1025" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1025" s="12">
+        <v>5583</v>
+      </c>
+      <c r="X1025" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1025,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1025" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1025" s="16" t="str">
         <f>HYPERLINK($X1025&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1025))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=5583s</v>
       </c>
       <c r="AA1025" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>ryo feat.chellyGreat distance</v>
       </c>
     </row>
     <row r="1026" spans="1:27" x14ac:dyDescent="0.4">
@@ -48942,29 +49609,37 @@
         <f t="shared" si="49"/>
         <v>1025</v>
       </c>
-      <c r="B1026" s="14"/>
-      <c r="C1026" s="18"/>
-      <c r="D1026" s="14"/>
-      <c r="E1026" s="14"/>
-      <c r="G1026" s="1">
+      <c r="B1026" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1026" s="21" t="s">
+        <v>2241</v>
+      </c>
+      <c r="D1026" s="14" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E1026" s="14" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G1026" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1026,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1026" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1026" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1026" s="12">
+        <v>6446</v>
+      </c>
+      <c r="X1026" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1026,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1026" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1026" s="16" t="str">
         <f>HYPERLINK($X1026&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1026))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=6446s</v>
       </c>
       <c r="AA1026" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>AKINO創聖のアクエリオン</v>
       </c>
     </row>
     <row r="1027" spans="1:27" x14ac:dyDescent="0.4">
@@ -48972,29 +49647,37 @@
         <f t="shared" si="49"/>
         <v>1026</v>
       </c>
-      <c r="B1027" s="14"/>
-      <c r="C1027" s="18"/>
-      <c r="D1027" s="14"/>
-      <c r="E1027" s="14"/>
-      <c r="G1027" s="1">
+      <c r="B1027" s="14">
+        <v>132</v>
+      </c>
+      <c r="C1027" s="21" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D1027" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="E1027" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1027" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1027,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1027" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1027" s="13">
         <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1027" s="12">
+        <v>6931</v>
+      </c>
+      <c r="X1027" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1027,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1027" s="16" t="e">
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ</v>
+      </c>
+      <c r="Z1027" s="16" t="str">
         <f>HYPERLINK($X1027&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1027))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/svcUFFcJrHE?si=j83cuHNyk6QwuYkQ&amp;t=6931s</v>
       </c>
       <c r="AA1027" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>クリープハイプ社会の窓</v>
       </c>
     </row>
     <row r="1028" spans="1:27" x14ac:dyDescent="0.4">
@@ -49002,29 +49685,37 @@
         <f t="shared" si="49"/>
         <v>1027</v>
       </c>
-      <c r="B1028" s="14"/>
-      <c r="C1028" s="18"/>
-      <c r="D1028" s="14"/>
-      <c r="E1028" s="14"/>
-      <c r="G1028" s="1">
+      <c r="B1028" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1028" s="21" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D1028" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1028" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1028" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1028,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1028" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1028" s="13">
         <f t="shared" ref="W1028:W1091" si="50">TIMEVALUE($C1028)*86400</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1028" s="12">
+        <v>229</v>
+      </c>
+      <c r="X1028" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1028,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1028" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1028" s="16" t="str">
         <f>HYPERLINK($X1028&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1028))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=229s</v>
       </c>
       <c r="AA1028" s="12" t="str">
         <f t="shared" si="48"/>
-        <v/>
+        <v>優里ドライフラワー</v>
       </c>
     </row>
     <row r="1029" spans="1:27" x14ac:dyDescent="0.4">
@@ -49032,29 +49723,37 @@
         <f t="shared" si="49"/>
         <v>1028</v>
       </c>
-      <c r="B1029" s="14"/>
-      <c r="C1029" s="18"/>
-      <c r="D1029" s="14"/>
-      <c r="E1029" s="14"/>
-      <c r="G1029" s="1">
+      <c r="B1029" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1029" s="21" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D1029" s="14" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E1029" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1029" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1029,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1029" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1029" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1029" s="12">
+        <v>731</v>
+      </c>
+      <c r="X1029" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1029,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1029" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1029" s="16" t="str">
         <f>HYPERLINK($X1029&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1029))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=731s</v>
       </c>
       <c r="AA1029" s="12" t="str">
         <f t="shared" ref="AA1029:AA1092" si="51">TRIM(E1029)&amp;TRIM(D1029)</f>
-        <v/>
+        <v>ずっと真夜中でいいのに。Ham</v>
       </c>
     </row>
     <row r="1030" spans="1:27" x14ac:dyDescent="0.4">
@@ -49062,29 +49761,37 @@
         <f t="shared" ref="A1030:A1093" si="52">ROW()-1</f>
         <v>1029</v>
       </c>
-      <c r="B1030" s="14"/>
-      <c r="C1030" s="18"/>
-      <c r="D1030" s="14"/>
-      <c r="E1030" s="14"/>
-      <c r="G1030" s="1">
+      <c r="B1030" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1030" s="21" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D1030" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1030" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1030" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1030,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1030" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1030" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1030" s="12">
+        <v>1125</v>
+      </c>
+      <c r="X1030" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1030,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1030" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1030" s="16" t="str">
         <f>HYPERLINK($X1030&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1030))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=1125s</v>
       </c>
       <c r="AA1030" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>茅原実里境界の彼方</v>
       </c>
     </row>
     <row r="1031" spans="1:27" x14ac:dyDescent="0.4">
@@ -49092,29 +49799,37 @@
         <f t="shared" si="52"/>
         <v>1030</v>
       </c>
-      <c r="B1031" s="14"/>
-      <c r="C1031" s="18"/>
-      <c r="D1031" s="14"/>
-      <c r="E1031" s="14"/>
-      <c r="G1031" s="1">
+      <c r="B1031" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1031" s="21" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D1031" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="E1031" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="G1031" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1031,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1031" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1031" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1031" s="12">
+        <v>1582</v>
+      </c>
+      <c r="X1031" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1031,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1031" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1031" s="16" t="str">
         <f>HYPERLINK($X1031&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1031))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=1582s</v>
       </c>
       <c r="AA1031" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>(K)NoW_NAMEHarvest</v>
       </c>
     </row>
     <row r="1032" spans="1:27" x14ac:dyDescent="0.4">
@@ -49122,29 +49837,37 @@
         <f t="shared" si="52"/>
         <v>1031</v>
       </c>
-      <c r="B1032" s="14"/>
-      <c r="C1032" s="18"/>
-      <c r="D1032" s="14"/>
-      <c r="E1032" s="14"/>
-      <c r="G1032" s="1">
+      <c r="B1032" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1032" s="21" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D1032" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="E1032" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="G1032" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1032,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1032" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1032" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1032" s="12">
+        <v>2004</v>
+      </c>
+      <c r="X1032" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1032,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1032" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1032" s="16" t="str">
         <f>HYPERLINK($X1032&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1032))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=2004s</v>
       </c>
       <c r="AA1032" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>Rayebb and flow</v>
       </c>
     </row>
     <row r="1033" spans="1:27" x14ac:dyDescent="0.4">
@@ -49152,29 +49875,37 @@
         <f t="shared" si="52"/>
         <v>1032</v>
       </c>
-      <c r="B1033" s="14"/>
-      <c r="C1033" s="18"/>
-      <c r="D1033" s="14"/>
-      <c r="E1033" s="14"/>
-      <c r="G1033" s="1">
+      <c r="B1033" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1033" s="21" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D1033" s="14" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E1033" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1033" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1033,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1033" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1033" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1033" s="12">
+        <v>2405</v>
+      </c>
+      <c r="X1033" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1033,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1033" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1033" s="16" t="str">
         <f>HYPERLINK($X1033&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1033))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=2405s</v>
       </c>
       <c r="AA1033" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>EGOISTエウテルペ</v>
       </c>
     </row>
     <row r="1034" spans="1:27" x14ac:dyDescent="0.4">
@@ -49182,29 +49913,37 @@
         <f t="shared" si="52"/>
         <v>1033</v>
       </c>
-      <c r="B1034" s="14"/>
-      <c r="C1034" s="18"/>
-      <c r="D1034" s="14"/>
-      <c r="E1034" s="14"/>
-      <c r="G1034" s="1">
+      <c r="B1034" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1034" s="21" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D1034" s="14" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E1034" s="14" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G1034" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1034,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1034" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1034" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1034" s="12">
+        <v>2749.0000000000005</v>
+      </c>
+      <c r="X1034" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1034,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1034" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1034" s="16" t="str">
         <f>HYPERLINK($X1034&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1034))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=2749s</v>
       </c>
       <c r="AA1034" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>とあ feat.初音ミクツギハギスタッカート</v>
       </c>
     </row>
     <row r="1035" spans="1:27" x14ac:dyDescent="0.4">
@@ -49212,29 +49951,37 @@
         <f t="shared" si="52"/>
         <v>1034</v>
       </c>
-      <c r="B1035" s="14"/>
-      <c r="C1035" s="18"/>
-      <c r="D1035" s="14"/>
-      <c r="E1035" s="14"/>
-      <c r="G1035" s="1">
+      <c r="B1035" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1035" s="21" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D1035" s="14" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E1035" s="14" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G1035" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1035,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1035" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1035" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1035" s="12">
+        <v>3126</v>
+      </c>
+      <c r="X1035" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1035,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1035" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1035" s="16" t="str">
         <f>HYPERLINK($X1035&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1035))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=3126s</v>
       </c>
       <c r="AA1035" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>サカナクショングッドバイ</v>
       </c>
     </row>
     <row r="1036" spans="1:27" x14ac:dyDescent="0.4">
@@ -49242,29 +49989,37 @@
         <f t="shared" si="52"/>
         <v>1035</v>
       </c>
-      <c r="B1036" s="14"/>
-      <c r="C1036" s="18"/>
-      <c r="D1036" s="14"/>
-      <c r="E1036" s="14"/>
-      <c r="G1036" s="1">
+      <c r="B1036" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1036" s="21" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D1036" s="14" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E1036" s="14" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G1036" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1036,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1036" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1036" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1036" s="12">
+        <v>3584</v>
+      </c>
+      <c r="X1036" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1036,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1036" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1036" s="16" t="str">
         <f>HYPERLINK($X1036&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1036))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=3584s</v>
       </c>
       <c r="AA1036" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>三月のパンタシア街路、ライトの灯りだけ</v>
       </c>
     </row>
     <row r="1037" spans="1:27" x14ac:dyDescent="0.4">
@@ -49272,29 +50027,37 @@
         <f t="shared" si="52"/>
         <v>1036</v>
       </c>
-      <c r="B1037" s="14"/>
-      <c r="C1037" s="18"/>
-      <c r="D1037" s="14"/>
-      <c r="E1037" s="14"/>
-      <c r="G1037" s="1">
+      <c r="B1037" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1037" s="21" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D1037" s="14" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E1037" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1037" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1037,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1037" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1037" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1037" s="12">
+        <v>3975.0000000000005</v>
+      </c>
+      <c r="X1037" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1037,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1037" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1037" s="16" t="str">
         <f>HYPERLINK($X1037&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1037))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=3975s</v>
       </c>
       <c r="AA1037" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>米津玄師vivi</v>
       </c>
     </row>
     <row r="1038" spans="1:27" x14ac:dyDescent="0.4">
@@ -49302,29 +50065,37 @@
         <f t="shared" si="52"/>
         <v>1037</v>
       </c>
-      <c r="B1038" s="14"/>
-      <c r="C1038" s="18"/>
-      <c r="D1038" s="14"/>
-      <c r="E1038" s="14"/>
-      <c r="G1038" s="1">
+      <c r="B1038" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1038" s="21" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D1038" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1038" s="14" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G1038" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1038,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1038" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1038" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1038" s="12">
+        <v>4486</v>
+      </c>
+      <c r="X1038" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1038,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1038" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1038" s="16" t="str">
         <f>HYPERLINK($X1038&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1038))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=4486s</v>
       </c>
       <c r="AA1038" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>じん feat.IA少年ブレイヴ</v>
       </c>
     </row>
     <row r="1039" spans="1:27" x14ac:dyDescent="0.4">
@@ -49332,29 +50103,37 @@
         <f t="shared" si="52"/>
         <v>1038</v>
       </c>
-      <c r="B1039" s="14"/>
-      <c r="C1039" s="18"/>
-      <c r="D1039" s="14"/>
-      <c r="E1039" s="14"/>
-      <c r="G1039" s="1">
+      <c r="B1039" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1039" s="21" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D1039" s="14" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E1039" s="14" t="s">
+        <v>2263</v>
+      </c>
+      <c r="G1039" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1039,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1039" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1039" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1039" s="12">
+        <v>4942</v>
+      </c>
+      <c r="X1039" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1039,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1039" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1039" s="16" t="str">
         <f>HYPERLINK($X1039&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1039))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=4942s</v>
       </c>
       <c r="AA1039" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>じん feat.初音ミク失想ワアド</v>
       </c>
     </row>
     <row r="1040" spans="1:27" x14ac:dyDescent="0.4">
@@ -49362,29 +50141,37 @@
         <f t="shared" si="52"/>
         <v>1039</v>
       </c>
-      <c r="B1040" s="14"/>
-      <c r="C1040" s="18"/>
-      <c r="D1040" s="14"/>
-      <c r="E1040" s="14"/>
-      <c r="G1040" s="1">
+      <c r="B1040" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1040" s="21" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D1040" s="14" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E1040" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1040" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1040,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1040" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1040" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1040" s="12">
+        <v>5454</v>
+      </c>
+      <c r="X1040" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1040,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1040" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1040" s="16" t="str">
         <f>HYPERLINK($X1040&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1040))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=5454s</v>
       </c>
       <c r="AA1040" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>Orangestar feat.IAノクティルーカ</v>
       </c>
     </row>
     <row r="1041" spans="1:27" x14ac:dyDescent="0.4">
@@ -49392,29 +50179,37 @@
         <f t="shared" si="52"/>
         <v>1040</v>
       </c>
-      <c r="B1041" s="14"/>
-      <c r="C1041" s="18"/>
-      <c r="D1041" s="14"/>
-      <c r="E1041" s="14"/>
-      <c r="G1041" s="1">
+      <c r="B1041" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1041" s="21" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D1041" s="14" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E1041" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1041" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1041,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1041" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1041" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1041" s="12">
+        <v>5903</v>
+      </c>
+      <c r="X1041" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1041,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1041" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1041" s="16" t="str">
         <f>HYPERLINK($X1041&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1041))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=5903s</v>
       </c>
       <c r="AA1041" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>米津玄師春雷</v>
       </c>
     </row>
     <row r="1042" spans="1:27" x14ac:dyDescent="0.4">
@@ -49422,29 +50217,37 @@
         <f t="shared" si="52"/>
         <v>1041</v>
       </c>
-      <c r="B1042" s="14"/>
-      <c r="C1042" s="18"/>
-      <c r="D1042" s="14"/>
-      <c r="E1042" s="14"/>
-      <c r="G1042" s="1">
+      <c r="B1042" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1042" s="21" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D1042" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="E1042" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1042" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1042,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1042" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1042" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1042" s="12">
+        <v>6424</v>
+      </c>
+      <c r="X1042" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1042,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1042" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1042" s="16" t="str">
         <f>HYPERLINK($X1042&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1042))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=6424s</v>
       </c>
       <c r="AA1042" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>Orangestar feat.初音ミク霽れを待つ</v>
       </c>
     </row>
     <row r="1043" spans="1:27" x14ac:dyDescent="0.4">
@@ -49452,29 +50255,37 @@
         <f t="shared" si="52"/>
         <v>1042</v>
       </c>
-      <c r="B1043" s="14"/>
-      <c r="C1043" s="18"/>
-      <c r="D1043" s="14"/>
-      <c r="E1043" s="14"/>
-      <c r="G1043" s="1">
+      <c r="B1043" s="14">
+        <v>134</v>
+      </c>
+      <c r="C1043" s="21" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D1043" s="14" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E1043" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1043" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1043,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1043" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1043" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1043" s="12">
+        <v>6858.9999999999991</v>
+      </c>
+      <c r="X1043" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1043,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1043" s="16" t="e">
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc</v>
+      </c>
+      <c r="Z1043" s="16" t="str">
         <f>HYPERLINK($X1043&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1043))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/0AqoHfYD46E?si=mWOedgt9iLzf5zoc&amp;t=6859s</v>
       </c>
       <c r="AA1043" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>木村弓いつも何度でも</v>
       </c>
     </row>
     <row r="1044" spans="1:27" x14ac:dyDescent="0.4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitLocal\shinoutatime-streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0761E9-C6B9-4A51-B231-6306BE555A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427AF10E-49CF-41E7-BD69-B4CCAC2AD7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A3198A5-688A-495F-A904-EF8FE4BE0835}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="2268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="2328">
   <si>
     <t>ID</t>
   </si>
@@ -7269,6 +7269,199 @@
   </si>
   <si>
     <t>いつも何度でも</t>
+  </si>
+  <si>
+    <t>【#弾き語り】ギターの音でゆったり流れる時間を　【幽音しの:ななしいんく】　#shorts #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:05:07</t>
+  </si>
+  <si>
+    <t>クリスマスソング</t>
+  </si>
+  <si>
+    <t>Back number</t>
+  </si>
+  <si>
+    <t>0:12:25</t>
+  </si>
+  <si>
+    <t>あわてんぼうのサンタクロース</t>
+  </si>
+  <si>
+    <t>田中星児etc…</t>
+  </si>
+  <si>
+    <t>ジングルベル</t>
+  </si>
+  <si>
+    <t>James Lord Pierpont</t>
+  </si>
+  <si>
+    <t>0:23:40</t>
+  </si>
+  <si>
+    <t>0:30:17</t>
+  </si>
+  <si>
+    <t>0:36:51</t>
+  </si>
+  <si>
+    <t>0:43:45</t>
+  </si>
+  <si>
+    <t>0:50:59</t>
+  </si>
+  <si>
+    <t>ひまわりの約束</t>
+  </si>
+  <si>
+    <t>秦基博</t>
+  </si>
+  <si>
+    <t>0:58:46</t>
+  </si>
+  <si>
+    <t>1:08:15</t>
+  </si>
+  <si>
+    <t>1:14:13</t>
+  </si>
+  <si>
+    <t>1:21:24</t>
+  </si>
+  <si>
+    <t>1:29:53</t>
+  </si>
+  <si>
+    <t>1:38:12</t>
+  </si>
+  <si>
+    <t>シェリル・ノームstarring May'n</t>
+  </si>
+  <si>
+    <t>1:47:07</t>
+  </si>
+  <si>
+    <t>1999</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【雑談】アイススプーンを使ってアイスを食べ雑談！【幽音しの:ななしいんく】　 #vtuber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/kH-eTHQ4Mg0?si=ApJmJgE98kh-4EZM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【#弾き語り】RADWIMPSさんを歌う日！！【幽音しの:ななしいんく】 #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正解</t>
+  </si>
+  <si>
+    <t>そっけない</t>
+  </si>
+  <si>
+    <t>0:32:52</t>
+  </si>
+  <si>
+    <t>おしゃかしゃま</t>
+  </si>
+  <si>
+    <t>0:47:50</t>
+  </si>
+  <si>
+    <t>0:52:49</t>
+  </si>
+  <si>
+    <t>1:00:48</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【クリスマスイブ大掃除】この部屋、綺麗にな～れ！【幽音しの:ななしいんく】 #vtuber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/KH_X8cFDpAo?si=iylDtsVTLki_7_CH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【運動記録】クリスマスは体を鍛えよ！リングフィットアドベンチャー#９【幽音しの:ななしいんく】 #vtuber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/gdwrzSCbprY?si=ldNO_U0XnD_debJP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【#弾き語り】深夜定期！弾き語りの夜を～クリスマスだね！【幽音しの:ななしいんく】 #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:04:59</t>
+  </si>
+  <si>
+    <t>サンタが街にやってくる</t>
+  </si>
+  <si>
+    <t>神戸孝夫(日本)</t>
+  </si>
+  <si>
+    <t>0:28:36</t>
+  </si>
+  <si>
+    <t>0:36:41</t>
+  </si>
+  <si>
+    <t>0:45:22</t>
+  </si>
+  <si>
+    <t>いかないで</t>
+  </si>
+  <si>
+    <t>想太 feat.歌愛ユキ</t>
+  </si>
+  <si>
+    <t>0:51:33</t>
+  </si>
+  <si>
+    <t>0:56:08</t>
+  </si>
+  <si>
+    <t>お正月</t>
+  </si>
+  <si>
+    <t>瀧廉太郎</t>
+  </si>
+  <si>
+    <t>1:03:25</t>
+  </si>
+  <si>
+    <t>赤鼻のトナカイ</t>
+  </si>
+  <si>
+    <t>Rudolph the Red-Nosed Reindeer</t>
+  </si>
+  <si>
+    <t>1:21:54</t>
+  </si>
+  <si>
+    <t>1:30:11</t>
   </si>
 </sst>
 </file>
@@ -7478,7 +7671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7562,6 +7755,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7901,7 +8097,7 @@
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B124" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -10351,54 +10547,108 @@
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="14"/>
+      <c r="B136" s="15">
+        <v>46010</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>2269</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="14">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="14"/>
+      <c r="B137" s="15">
+        <v>46011</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>2294</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="14">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="14"/>
+      <c r="B138" s="15">
+        <v>46012</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="14">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="14"/>
+      <c r="B139" s="28">
+        <v>46015</v>
+      </c>
+      <c r="C139" s="25" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="14">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="14"/>
+      <c r="B140" s="15">
+        <v>46016</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="14">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B141" s="14"/>
-      <c r="C141" s="25"/>
-      <c r="D141" s="14"/>
+      <c r="B141" s="15">
+        <v>46016</v>
+      </c>
+      <c r="C141" s="25" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="14">
@@ -10628,9 +10878,15 @@
     <hyperlink ref="D133" r:id="rId132" xr:uid="{03C57F93-1EFA-4FFA-BFC5-D1B3A13E5B46}"/>
     <hyperlink ref="D134" r:id="rId133" xr:uid="{75E548E5-82D6-4B2C-88E6-618E49FCAEA4}"/>
     <hyperlink ref="D135" r:id="rId134" xr:uid="{0FB22C23-8EE1-4A1A-AA12-C5559F4130C3}"/>
+    <hyperlink ref="D136" r:id="rId135" xr:uid="{DB36148C-062F-4AC6-BB22-9DBE20B3D3D6}"/>
+    <hyperlink ref="D137" r:id="rId136" xr:uid="{4E1FACE8-0F8D-41BA-B6EC-389E9428D438}"/>
+    <hyperlink ref="D138" r:id="rId137" xr:uid="{DFA34231-673B-41A8-BDC9-BFA127E5BDA9}"/>
+    <hyperlink ref="D139" r:id="rId138" xr:uid="{63396F28-74D3-49F2-9191-5589251D5332}"/>
+    <hyperlink ref="D140" r:id="rId139" xr:uid="{8479B9C0-30FE-496D-B5B4-61B7DF381061}"/>
+    <hyperlink ref="D141" r:id="rId140" xr:uid="{76462A95-D2B1-4F0C-BEE6-C8CEEFE204AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId135"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId141"/>
 </worksheet>
 </file>
 
@@ -10638,11 +10894,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9EE97A-02BC-4A54-8308-AB1F0F780731}">
   <dimension ref="A1:AA1201"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1012" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B1057" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1044" sqref="B1044"/>
+      <selection pane="bottomRight" activeCell="B1076" sqref="B1076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -50293,29 +50549,37 @@
         <f t="shared" si="52"/>
         <v>1043</v>
       </c>
-      <c r="B1044" s="14"/>
-      <c r="C1044" s="18"/>
-      <c r="D1044" s="14"/>
-      <c r="E1044" s="14"/>
-      <c r="G1044" s="1">
+      <c r="B1044" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1044" s="21" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D1044" s="14" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E1044" s="14" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G1044" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1044,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1044" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1044" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1044" s="12">
+        <v>307</v>
+      </c>
+      <c r="X1044" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1044,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1044" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1044" s="16" t="str">
         <f>HYPERLINK($X1044&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1044))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=307s</v>
       </c>
       <c r="AA1044" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>Back numberクリスマスソング</v>
       </c>
     </row>
     <row r="1045" spans="1:27" x14ac:dyDescent="0.4">
@@ -50323,29 +50587,37 @@
         <f t="shared" si="52"/>
         <v>1044</v>
       </c>
-      <c r="B1045" s="14"/>
-      <c r="C1045" s="18"/>
-      <c r="D1045" s="14"/>
-      <c r="E1045" s="14"/>
-      <c r="G1045" s="1">
+      <c r="B1045" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1045" s="21" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D1045" s="14" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E1045" s="14" t="s">
+        <v>2275</v>
+      </c>
+      <c r="G1045" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1045,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1045" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1045" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1045" s="12">
+        <v>745</v>
+      </c>
+      <c r="X1045" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1045,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1045" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1045" s="16" t="str">
         <f>HYPERLINK($X1045&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1045))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=745s</v>
       </c>
       <c r="AA1045" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>田中星児etc…あわてんぼうのサンタクロース</v>
       </c>
     </row>
     <row r="1046" spans="1:27" x14ac:dyDescent="0.4">
@@ -50353,29 +50625,37 @@
         <f t="shared" si="52"/>
         <v>1045</v>
       </c>
-      <c r="B1046" s="14"/>
-      <c r="C1046" s="18"/>
-      <c r="D1046" s="14"/>
-      <c r="E1046" s="14"/>
-      <c r="G1046" s="1">
+      <c r="B1046" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1046" s="21" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D1046" s="14" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E1046" s="14" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G1046" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1046,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1046" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1046" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1046" s="12">
+        <v>1212</v>
+      </c>
+      <c r="X1046" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1046,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1046" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1046" s="16" t="str">
         <f>HYPERLINK($X1046&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1046))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=1212s</v>
       </c>
       <c r="AA1046" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>James Lord Pierpontジングルベル</v>
       </c>
     </row>
     <row r="1047" spans="1:27" x14ac:dyDescent="0.4">
@@ -50383,29 +50663,37 @@
         <f t="shared" si="52"/>
         <v>1046</v>
       </c>
-      <c r="B1047" s="14"/>
-      <c r="C1047" s="18"/>
-      <c r="D1047" s="14"/>
-      <c r="E1047" s="14"/>
-      <c r="G1047" s="1">
+      <c r="B1047" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1047" s="21" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1047" s="23" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E1047" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1047" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1047,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1047" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1047" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1047" s="12">
+        <v>1420</v>
+      </c>
+      <c r="X1047" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1047,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1047" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1047" s="16" t="str">
         <f>HYPERLINK($X1047&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1047))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=1420s</v>
       </c>
       <c r="AA1047" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>羊文学1999</v>
       </c>
     </row>
     <row r="1048" spans="1:27" x14ac:dyDescent="0.4">
@@ -50413,29 +50701,37 @@
         <f t="shared" si="52"/>
         <v>1047</v>
       </c>
-      <c r="B1048" s="14"/>
-      <c r="C1048" s="18"/>
-      <c r="D1048" s="14"/>
-      <c r="E1048" s="14"/>
-      <c r="G1048" s="1">
+      <c r="B1048" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1048" s="21" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D1048" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1048" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1048" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1048,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1048" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1048" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1048" s="12">
+        <v>1817</v>
+      </c>
+      <c r="X1048" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1048,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1048" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1048" s="16" t="str">
         <f>HYPERLINK($X1048&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1048))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=1817s</v>
       </c>
       <c r="AA1048" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>YUICHE.R.RY</v>
       </c>
     </row>
     <row r="1049" spans="1:27" x14ac:dyDescent="0.4">
@@ -50443,29 +50739,37 @@
         <f t="shared" si="52"/>
         <v>1048</v>
       </c>
-      <c r="B1049" s="14"/>
-      <c r="C1049" s="18"/>
-      <c r="D1049" s="14"/>
-      <c r="E1049" s="14"/>
-      <c r="G1049" s="1">
+      <c r="B1049" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1049" s="21" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D1049" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1049" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1049" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1049,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1049" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1049" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1049" s="12">
+        <v>2211</v>
+      </c>
+      <c r="X1049" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1049,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1049" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1049" s="16" t="str">
         <f>HYPERLINK($X1049&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1049))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=2211s</v>
       </c>
       <c r="AA1049" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>YUILaugh away</v>
       </c>
     </row>
     <row r="1050" spans="1:27" x14ac:dyDescent="0.4">
@@ -50473,29 +50777,37 @@
         <f t="shared" si="52"/>
         <v>1049</v>
       </c>
-      <c r="B1050" s="14"/>
-      <c r="C1050" s="18"/>
-      <c r="D1050" s="14"/>
-      <c r="E1050" s="14"/>
-      <c r="G1050" s="1">
+      <c r="B1050" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1050" s="21" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D1050" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1050" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1050" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1050,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1050" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1050" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1050" s="12">
+        <v>2625</v>
+      </c>
+      <c r="X1050" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1050,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1050" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1050" s="16" t="str">
         <f>HYPERLINK($X1050&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1050))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=2625s</v>
       </c>
       <c r="AA1050" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>YUI for 雨音薫Good-bye days</v>
       </c>
     </row>
     <row r="1051" spans="1:27" x14ac:dyDescent="0.4">
@@ -50503,29 +50815,37 @@
         <f t="shared" si="52"/>
         <v>1050</v>
       </c>
-      <c r="B1051" s="14"/>
-      <c r="C1051" s="18"/>
-      <c r="D1051" s="14"/>
-      <c r="E1051" s="14"/>
-      <c r="G1051" s="1">
+      <c r="B1051" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1051" s="21" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D1051" s="14" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E1051" s="14" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G1051" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1051,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1051" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1051" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1051" s="12">
+        <v>3059</v>
+      </c>
+      <c r="X1051" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1051,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1051" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1051" s="16" t="str">
         <f>HYPERLINK($X1051&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1051))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=3059s</v>
       </c>
       <c r="AA1051" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>秦基博ひまわりの約束</v>
       </c>
     </row>
     <row r="1052" spans="1:27" x14ac:dyDescent="0.4">
@@ -50533,29 +50853,37 @@
         <f t="shared" si="52"/>
         <v>1051</v>
       </c>
-      <c r="B1052" s="14"/>
-      <c r="C1052" s="18"/>
-      <c r="D1052" s="14"/>
-      <c r="E1052" s="14"/>
-      <c r="G1052" s="1">
+      <c r="B1052" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1052" s="21" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D1052" s="14" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E1052" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1052" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1052,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1052" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1052" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1052" s="12">
+        <v>3526</v>
+      </c>
+      <c r="X1052" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1052,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1052" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1052" s="16" t="str">
         <f>HYPERLINK($X1052&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1052))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=3526s</v>
       </c>
       <c r="AA1052" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>Official髭男dismPretender</v>
       </c>
     </row>
     <row r="1053" spans="1:27" x14ac:dyDescent="0.4">
@@ -50563,29 +50891,37 @@
         <f t="shared" si="52"/>
         <v>1052</v>
       </c>
-      <c r="B1053" s="14"/>
-      <c r="C1053" s="18"/>
-      <c r="D1053" s="14"/>
-      <c r="E1053" s="14"/>
-      <c r="G1053" s="1">
+      <c r="B1053" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1053" s="21" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D1053" s="14" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E1053" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="G1053" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1053,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1053" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1053" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1053" s="12">
+        <v>4095</v>
+      </c>
+      <c r="X1053" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1053,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1053" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1053" s="16" t="str">
         <f>HYPERLINK($X1053&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1053))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=4095s</v>
       </c>
       <c r="AA1053" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>KANA-BOONシルエット</v>
       </c>
     </row>
     <row r="1054" spans="1:27" x14ac:dyDescent="0.4">
@@ -50593,29 +50929,37 @@
         <f t="shared" si="52"/>
         <v>1053</v>
       </c>
-      <c r="B1054" s="14"/>
-      <c r="C1054" s="18"/>
-      <c r="D1054" s="14"/>
-      <c r="E1054" s="14"/>
-      <c r="G1054" s="1">
+      <c r="B1054" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1054" s="21" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D1054" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="E1054" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="G1054" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1054,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1054" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1054" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1054" s="12">
+        <v>4453</v>
+      </c>
+      <c r="X1054" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1054,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1054" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1054" s="16" t="str">
         <f>HYPERLINK($X1054&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1054))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=4453s</v>
       </c>
       <c r="AA1054" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>スキマスイッチ奏</v>
       </c>
     </row>
     <row r="1055" spans="1:27" x14ac:dyDescent="0.4">
@@ -50623,29 +50967,37 @@
         <f t="shared" si="52"/>
         <v>1054</v>
       </c>
-      <c r="B1055" s="14"/>
-      <c r="C1055" s="18"/>
-      <c r="D1055" s="14"/>
-      <c r="E1055" s="14"/>
-      <c r="G1055" s="1">
+      <c r="B1055" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1055" s="21" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D1055" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="E1055" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="G1055" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1055,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1055" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1055" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1055" s="12">
+        <v>4884</v>
+      </c>
+      <c r="X1055" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1055,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1055" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1055" s="16" t="str">
         <f>HYPERLINK($X1055&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1055))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=4884s</v>
       </c>
       <c r="AA1055" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>スキマスイッチ全力少年</v>
       </c>
     </row>
     <row r="1056" spans="1:27" x14ac:dyDescent="0.4">
@@ -50653,29 +51005,37 @@
         <f t="shared" si="52"/>
         <v>1055</v>
       </c>
-      <c r="B1056" s="14"/>
-      <c r="C1056" s="18"/>
-      <c r="D1056" s="14"/>
-      <c r="E1056" s="14"/>
-      <c r="G1056" s="1">
+      <c r="B1056" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1056" s="21" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D1056" s="14" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E1056" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="G1056" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1056,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1056" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1056" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1056" s="12">
+        <v>5393</v>
+      </c>
+      <c r="X1056" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1056,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1056" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1056" s="16" t="str">
         <f>HYPERLINK($X1056&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1056))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=5393s</v>
       </c>
       <c r="AA1056" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>スキマスイッチアイスクリーム シンドローム</v>
       </c>
     </row>
     <row r="1057" spans="1:27" x14ac:dyDescent="0.4">
@@ -50683,29 +51043,37 @@
         <f t="shared" si="52"/>
         <v>1056</v>
       </c>
-      <c r="B1057" s="14"/>
-      <c r="C1057" s="18"/>
-      <c r="D1057" s="14"/>
-      <c r="E1057" s="14"/>
-      <c r="G1057" s="1">
+      <c r="B1057" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1057" s="21" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D1057" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1057" s="14" t="s">
+        <v>2291</v>
+      </c>
+      <c r="G1057" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1057,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1057" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1057" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1057" s="12">
+        <v>5892</v>
+      </c>
+      <c r="X1057" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1057,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1057" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1057" s="16" t="str">
         <f>HYPERLINK($X1057&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1057))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=5892s</v>
       </c>
       <c r="AA1057" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>シェリル・ノームstarring May'nダイアモンドクレバス</v>
       </c>
     </row>
     <row r="1058" spans="1:27" x14ac:dyDescent="0.4">
@@ -50713,29 +51081,37 @@
         <f t="shared" si="52"/>
         <v>1057</v>
       </c>
-      <c r="B1058" s="14"/>
-      <c r="C1058" s="18"/>
-      <c r="D1058" s="14"/>
-      <c r="E1058" s="14"/>
-      <c r="G1058" s="1">
+      <c r="B1058" s="14">
+        <v>135</v>
+      </c>
+      <c r="C1058" s="21" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D1058" s="14" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E1058" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="G1058" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1058,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1058" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1058" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1058" s="12">
+        <v>6427</v>
+      </c>
+      <c r="X1058" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1058,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1058" s="16" t="e">
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk</v>
+      </c>
+      <c r="Z1058" s="16" t="str">
         <f>HYPERLINK($X1058&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1058))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/xp0K3WVssKY?si=LZW-N2O4nOZbWeQk&amp;t=6427s</v>
       </c>
       <c r="AA1058" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>幽音しのFrom now on</v>
       </c>
     </row>
     <row r="1059" spans="1:27" x14ac:dyDescent="0.4">
@@ -50743,29 +51119,37 @@
         <f t="shared" si="52"/>
         <v>1058</v>
       </c>
-      <c r="B1059" s="14"/>
-      <c r="C1059" s="18"/>
-      <c r="D1059" s="14"/>
-      <c r="E1059" s="14"/>
-      <c r="G1059" s="1">
+      <c r="B1059" s="14">
+        <v>137</v>
+      </c>
+      <c r="C1059" s="21" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D1059" s="14" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E1059" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1059" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1059,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1059" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1059" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1059" s="12">
+        <v>367</v>
+      </c>
+      <c r="X1059" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1059,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1059" s="16" t="e">
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl</v>
+      </c>
+      <c r="Z1059" s="16" t="str">
         <f>HYPERLINK($X1059&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1059))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl&amp;t=367s</v>
       </c>
       <c r="AA1059" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>RADWIMPS正解</v>
       </c>
     </row>
     <row r="1060" spans="1:27" x14ac:dyDescent="0.4">
@@ -50773,29 +51157,37 @@
         <f t="shared" si="52"/>
         <v>1059</v>
       </c>
-      <c r="B1060" s="14"/>
-      <c r="C1060" s="18"/>
-      <c r="D1060" s="14"/>
-      <c r="E1060" s="14"/>
-      <c r="G1060" s="1">
+      <c r="B1060" s="14">
+        <v>137</v>
+      </c>
+      <c r="C1060" s="21" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D1060" s="14" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E1060" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1060" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1060,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1060" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1060" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1060" s="12">
+        <v>1240</v>
+      </c>
+      <c r="X1060" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1060,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1060" s="16" t="e">
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl</v>
+      </c>
+      <c r="Z1060" s="16" t="str">
         <f>HYPERLINK($X1060&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1060))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl&amp;t=1240s</v>
       </c>
       <c r="AA1060" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>RADWIMPSそっけない</v>
       </c>
     </row>
     <row r="1061" spans="1:27" x14ac:dyDescent="0.4">
@@ -50803,29 +51195,37 @@
         <f t="shared" si="52"/>
         <v>1060</v>
       </c>
-      <c r="B1061" s="14"/>
-      <c r="C1061" s="18"/>
-      <c r="D1061" s="14"/>
-      <c r="E1061" s="14"/>
-      <c r="G1061" s="1">
+      <c r="B1061" s="14">
+        <v>137</v>
+      </c>
+      <c r="C1061" s="21" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D1061" s="14" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E1061" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1061" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1061,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1061" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1061" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1061" s="12">
+        <v>1972</v>
+      </c>
+      <c r="X1061" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1061,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1061" s="16" t="e">
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl</v>
+      </c>
+      <c r="Z1061" s="16" t="str">
         <f>HYPERLINK($X1061&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1061))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl&amp;t=1972s</v>
       </c>
       <c r="AA1061" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>RADWIMPSおしゃかしゃま</v>
       </c>
     </row>
     <row r="1062" spans="1:27" x14ac:dyDescent="0.4">
@@ -50833,29 +51233,37 @@
         <f t="shared" si="52"/>
         <v>1061</v>
       </c>
-      <c r="B1062" s="14"/>
-      <c r="C1062" s="18"/>
-      <c r="D1062" s="14"/>
-      <c r="E1062" s="14"/>
-      <c r="G1062" s="1">
+      <c r="B1062" s="14">
+        <v>137</v>
+      </c>
+      <c r="C1062" s="21" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D1062" s="14" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E1062" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1062" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1062,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1062" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1062" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1062" s="12">
+        <v>2870</v>
+      </c>
+      <c r="X1062" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1062,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1062" s="16" t="e">
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl</v>
+      </c>
+      <c r="Z1062" s="16" t="str">
         <f>HYPERLINK($X1062&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1062))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl&amp;t=2870s</v>
       </c>
       <c r="AA1062" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>RADWIMPS夢灯篭</v>
       </c>
     </row>
     <row r="1063" spans="1:27" x14ac:dyDescent="0.4">
@@ -50863,29 +51271,37 @@
         <f t="shared" si="52"/>
         <v>1062</v>
       </c>
-      <c r="B1063" s="14"/>
-      <c r="C1063" s="18"/>
-      <c r="D1063" s="14"/>
-      <c r="E1063" s="14"/>
-      <c r="G1063" s="1">
+      <c r="B1063" s="14">
+        <v>137</v>
+      </c>
+      <c r="C1063" s="21" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D1063" s="14" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E1063" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1063" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1063,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1063" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1063" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1063" s="12">
+        <v>3169</v>
+      </c>
+      <c r="X1063" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1063,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1063" s="16" t="e">
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl</v>
+      </c>
+      <c r="Z1063" s="16" t="str">
         <f>HYPERLINK($X1063&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1063))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl&amp;t=3169s</v>
       </c>
       <c r="AA1063" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>RADWIMPS前前前世</v>
       </c>
     </row>
     <row r="1064" spans="1:27" x14ac:dyDescent="0.4">
@@ -50893,29 +51309,37 @@
         <f t="shared" si="52"/>
         <v>1063</v>
       </c>
-      <c r="B1064" s="14"/>
-      <c r="C1064" s="18"/>
-      <c r="D1064" s="14"/>
-      <c r="E1064" s="14"/>
-      <c r="G1064" s="1">
+      <c r="B1064" s="14">
+        <v>137</v>
+      </c>
+      <c r="C1064" s="21" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D1064" s="14" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E1064" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1064" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1064,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1064" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1064" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1064" s="12">
+        <v>3648</v>
+      </c>
+      <c r="X1064" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1064,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1064" s="16" t="e">
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl</v>
+      </c>
+      <c r="Z1064" s="16" t="str">
         <f>HYPERLINK($X1064&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1064))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl&amp;t=3648s</v>
       </c>
       <c r="AA1064" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>RADWIMPSスパークル</v>
       </c>
     </row>
     <row r="1065" spans="1:27" x14ac:dyDescent="0.4">
@@ -50923,29 +51347,37 @@
         <f t="shared" si="52"/>
         <v>1064</v>
       </c>
-      <c r="B1065" s="14"/>
-      <c r="C1065" s="18"/>
-      <c r="D1065" s="14"/>
-      <c r="E1065" s="14"/>
-      <c r="G1065" s="1">
+      <c r="B1065" s="14">
+        <v>137</v>
+      </c>
+      <c r="C1065" s="21" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1065" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="E1065" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1065" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1065,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1065" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1065" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1065" s="12">
+        <v>4245</v>
+      </c>
+      <c r="X1065" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1065,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1065" s="16" t="e">
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl</v>
+      </c>
+      <c r="Z1065" s="16" t="str">
         <f>HYPERLINK($X1065&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1065))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/OColkUKqs90?si=u_QJLT5Paxmg4Fbl&amp;t=4245s</v>
       </c>
       <c r="AA1065" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>RADWIMPSなんでもないや</v>
       </c>
     </row>
     <row r="1066" spans="1:27" x14ac:dyDescent="0.4">
@@ -50953,29 +51385,37 @@
         <f t="shared" si="52"/>
         <v>1065</v>
       </c>
-      <c r="B1066" s="14"/>
-      <c r="C1066" s="18"/>
-      <c r="D1066" s="14"/>
-      <c r="E1066" s="14"/>
-      <c r="G1066" s="1">
+      <c r="B1066" s="14">
+        <v>140</v>
+      </c>
+      <c r="C1066" s="21" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D1066" s="14" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E1066" s="14" t="s">
+        <v>2313</v>
+      </c>
+      <c r="G1066" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1066,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1066" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1066" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1066" s="12">
+        <v>299</v>
+      </c>
+      <c r="X1066" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1066,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1066" s="16" t="e">
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH</v>
+      </c>
+      <c r="Z1066" s="16" t="str">
         <f>HYPERLINK($X1066&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1066))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH&amp;t=299s</v>
       </c>
       <c r="AA1066" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>神戸孝夫(日本)サンタが街にやってくる</v>
       </c>
     </row>
     <row r="1067" spans="1:27" x14ac:dyDescent="0.4">
@@ -50983,29 +51423,37 @@
         <f t="shared" si="52"/>
         <v>1066</v>
       </c>
-      <c r="B1067" s="14"/>
-      <c r="C1067" s="18"/>
-      <c r="D1067" s="14"/>
-      <c r="E1067" s="14"/>
-      <c r="G1067" s="1">
+      <c r="B1067" s="14">
+        <v>140</v>
+      </c>
+      <c r="C1067" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1067" s="14" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E1067" s="14" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G1067" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1067,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1067" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1067" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1067" s="12">
+        <v>677.00000000000011</v>
+      </c>
+      <c r="X1067" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1067,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1067" s="16" t="e">
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH</v>
+      </c>
+      <c r="Z1067" s="16" t="str">
         <f>HYPERLINK($X1067&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1067))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH&amp;t=677s</v>
       </c>
       <c r="AA1067" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>コレサワたばこ</v>
       </c>
     </row>
     <row r="1068" spans="1:27" x14ac:dyDescent="0.4">
@@ -51013,29 +51461,37 @@
         <f t="shared" si="52"/>
         <v>1067</v>
       </c>
-      <c r="B1068" s="14"/>
-      <c r="C1068" s="18"/>
-      <c r="D1068" s="14"/>
-      <c r="E1068" s="14"/>
-      <c r="G1068" s="1">
+      <c r="B1068" s="14">
+        <v>140</v>
+      </c>
+      <c r="C1068" s="21" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D1068" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1068" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1068" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1068,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1068" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1068" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1068" s="12">
+        <v>1716</v>
+      </c>
+      <c r="X1068" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1068,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1068" s="16" t="e">
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH</v>
+      </c>
+      <c r="Z1068" s="16" t="str">
         <f>HYPERLINK($X1068&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1068))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH&amp;t=1716s</v>
       </c>
       <c r="AA1068" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>クリープハイプ憂、燦々</v>
       </c>
     </row>
     <row r="1069" spans="1:27" x14ac:dyDescent="0.4">
@@ -51043,29 +51499,37 @@
         <f t="shared" si="52"/>
         <v>1068</v>
       </c>
-      <c r="B1069" s="14"/>
-      <c r="C1069" s="18"/>
-      <c r="D1069" s="14"/>
-      <c r="E1069" s="14"/>
-      <c r="G1069" s="1">
+      <c r="B1069" s="14">
+        <v>140</v>
+      </c>
+      <c r="C1069" s="21" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D1069" s="14" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E1069" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="G1069" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1069,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1069" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1069" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1069" s="12">
+        <v>2201</v>
+      </c>
+      <c r="X1069" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1069,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1069" s="16" t="e">
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH</v>
+      </c>
+      <c r="Z1069" s="16" t="str">
         <f>HYPERLINK($X1069&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1069))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH&amp;t=2201s</v>
       </c>
       <c r="AA1069" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>CHiCO with HoneyWorks世界は恋に落ちている</v>
       </c>
     </row>
     <row r="1070" spans="1:27" x14ac:dyDescent="0.4">
@@ -51073,29 +51537,37 @@
         <f t="shared" si="52"/>
         <v>1069</v>
       </c>
-      <c r="B1070" s="14"/>
-      <c r="C1070" s="18"/>
-      <c r="D1070" s="14"/>
-      <c r="E1070" s="14"/>
-      <c r="G1070" s="1">
+      <c r="B1070" s="14">
+        <v>140</v>
+      </c>
+      <c r="C1070" s="21" t="s">
+        <v>2316</v>
+      </c>
+      <c r="D1070" s="14" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E1070" s="14" t="s">
+        <v>2318</v>
+      </c>
+      <c r="G1070" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1070,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1070" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1070" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1070" s="12">
+        <v>2722.0000000000005</v>
+      </c>
+      <c r="X1070" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1070,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1070" s="16" t="e">
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH</v>
+      </c>
+      <c r="Z1070" s="16" t="str">
         <f>HYPERLINK($X1070&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1070))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH&amp;t=2722s</v>
       </c>
       <c r="AA1070" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>想太 feat.歌愛ユキいかないで</v>
       </c>
     </row>
     <row r="1071" spans="1:27" x14ac:dyDescent="0.4">
@@ -51103,29 +51575,37 @@
         <f t="shared" si="52"/>
         <v>1070</v>
       </c>
-      <c r="B1071" s="14"/>
-      <c r="C1071" s="18"/>
-      <c r="D1071" s="14"/>
-      <c r="E1071" s="14"/>
-      <c r="G1071" s="1">
+      <c r="B1071" s="14">
+        <v>140</v>
+      </c>
+      <c r="C1071" s="21" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D1071" s="14" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E1071" s="14" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G1071" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1071,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1071" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1071" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1071" s="12">
+        <v>3093.0000000000005</v>
+      </c>
+      <c r="X1071" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1071,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1071" s="16" t="e">
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH</v>
+      </c>
+      <c r="Z1071" s="16" t="str">
         <f>HYPERLINK($X1071&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1071))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH&amp;t=3093s</v>
       </c>
       <c r="AA1071" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>James Lord Pierpontジングルベル</v>
       </c>
     </row>
     <row r="1072" spans="1:27" x14ac:dyDescent="0.4">
@@ -51133,29 +51613,37 @@
         <f t="shared" si="52"/>
         <v>1071</v>
       </c>
-      <c r="B1072" s="14"/>
-      <c r="C1072" s="18"/>
-      <c r="D1072" s="14"/>
-      <c r="E1072" s="14"/>
-      <c r="G1072" s="1">
+      <c r="B1072" s="14">
+        <v>140</v>
+      </c>
+      <c r="C1072" s="21" t="s">
+        <v>2320</v>
+      </c>
+      <c r="D1072" s="14" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E1072" s="14" t="s">
+        <v>2322</v>
+      </c>
+      <c r="G1072" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1072,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1072" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1072" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1072" s="12">
+        <v>3367.9999999999995</v>
+      </c>
+      <c r="X1072" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1072,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1072" s="16" t="e">
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH</v>
+      </c>
+      <c r="Z1072" s="16" t="str">
         <f>HYPERLINK($X1072&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1072))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH&amp;t=3368s</v>
       </c>
       <c r="AA1072" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>瀧廉太郎お正月</v>
       </c>
     </row>
     <row r="1073" spans="1:27" x14ac:dyDescent="0.4">
@@ -51163,29 +51651,37 @@
         <f t="shared" si="52"/>
         <v>1072</v>
       </c>
-      <c r="B1073" s="14"/>
-      <c r="C1073" s="18"/>
-      <c r="D1073" s="14"/>
-      <c r="E1073" s="14"/>
-      <c r="G1073" s="1">
+      <c r="B1073" s="14">
+        <v>140</v>
+      </c>
+      <c r="C1073" s="21" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D1073" s="14" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E1073" s="14" t="s">
+        <v>2325</v>
+      </c>
+      <c r="G1073" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1073,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1073" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1073" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1073" s="12">
+        <v>3805</v>
+      </c>
+      <c r="X1073" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1073,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1073" s="16" t="e">
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH</v>
+      </c>
+      <c r="Z1073" s="16" t="str">
         <f>HYPERLINK($X1073&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1073))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH&amp;t=3805s</v>
       </c>
       <c r="AA1073" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>Rudolph the Red-Nosed Reindeer赤鼻のトナカイ</v>
       </c>
     </row>
     <row r="1074" spans="1:27" x14ac:dyDescent="0.4">
@@ -51193,29 +51689,37 @@
         <f t="shared" si="52"/>
         <v>1073</v>
       </c>
-      <c r="B1074" s="14"/>
-      <c r="C1074" s="18"/>
-      <c r="D1074" s="14"/>
-      <c r="E1074" s="14"/>
-      <c r="G1074" s="1">
+      <c r="B1074" s="14">
+        <v>140</v>
+      </c>
+      <c r="C1074" s="21" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D1074" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1074" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1074" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1074,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1074" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1074" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1074" s="12">
+        <v>4914</v>
+      </c>
+      <c r="X1074" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1074,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1074" s="16" t="e">
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH</v>
+      </c>
+      <c r="Z1074" s="16" t="str">
         <f>HYPERLINK($X1074&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1074))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH&amp;t=4914s</v>
       </c>
       <c r="AA1074" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>レミオロメン粉雪</v>
       </c>
     </row>
     <row r="1075" spans="1:27" x14ac:dyDescent="0.4">
@@ -51223,29 +51727,37 @@
         <f t="shared" si="52"/>
         <v>1074</v>
       </c>
-      <c r="B1075" s="14"/>
-      <c r="C1075" s="18"/>
-      <c r="D1075" s="14"/>
-      <c r="E1075" s="14"/>
-      <c r="G1075" s="1">
+      <c r="B1075" s="14">
+        <v>140</v>
+      </c>
+      <c r="C1075" s="21" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D1075" s="14" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E1075" s="14" t="s">
+        <v>2322</v>
+      </c>
+      <c r="G1075" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1075,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1075" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1075" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1075" s="12">
+        <v>5411</v>
+      </c>
+      <c r="X1075" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1075,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1075" s="16" t="e">
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH</v>
+      </c>
+      <c r="Z1075" s="16" t="str">
         <f>HYPERLINK($X1075&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1075))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/MRm5RirWRTc?si=-La1GXnNoxw2IMQH&amp;t=5411s</v>
       </c>
       <c r="AA1075" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>瀧廉太郎お正月</v>
       </c>
     </row>
     <row r="1076" spans="1:27" x14ac:dyDescent="0.4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitLocal\shinoutatime-streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427AF10E-49CF-41E7-BD69-B4CCAC2AD7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED77B7-5D45-4DB9-B803-161D9E7AB100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A3198A5-688A-495F-A904-EF8FE4BE0835}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="マスタ" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">M_YT_LIVE!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">M_YT_LIVE!$A$1:$F$161</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">M_YT_LIVE_TIMESTAMP!$A$1:$E$1201</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="2328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4246" uniqueCount="2366">
   <si>
     <t>ID</t>
   </si>
@@ -7462,6 +7462,135 @@
   </si>
   <si>
     <t>1:30:11</t>
+  </si>
+  <si>
+    <t>【#弾き語り】お昼の弾き語り！食後のデザートにいかが？　【幽音しの:ななしいんく】　#shorts #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:19:25</t>
+  </si>
+  <si>
+    <t>0:24:53</t>
+  </si>
+  <si>
+    <t>0:32:03</t>
+  </si>
+  <si>
+    <t>0:39:24</t>
+  </si>
+  <si>
+    <t>0:46:59</t>
+  </si>
+  <si>
+    <t>0:56:09</t>
+  </si>
+  <si>
+    <t>バルーン(須田景凪)feat.flower</t>
+  </si>
+  <si>
+    <t>1:03:45</t>
+  </si>
+  <si>
+    <t>1:09:30</t>
+  </si>
+  <si>
+    <t>1:22:40</t>
+  </si>
+  <si>
+    <t>1:29:01</t>
+  </si>
+  <si>
+    <t>1:36:44</t>
+  </si>
+  <si>
+    <t>1:42:59</t>
+  </si>
+  <si>
+    <t>1:51:03</t>
+  </si>
+  <si>
+    <t>1:59:59</t>
+  </si>
+  <si>
+    <t>【#弾き語り】年内ラスト歌枠！好きな曲歌って歌いおさめる！【幽音しの:ななしいんく】 #shorts #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:05:28</t>
+  </si>
+  <si>
+    <t>0:14:19</t>
+  </si>
+  <si>
+    <t>0:30:38</t>
+  </si>
+  <si>
+    <t>0:37:04</t>
+  </si>
+  <si>
+    <t>0:44:09</t>
+  </si>
+  <si>
+    <t>0:52:16</t>
+  </si>
+  <si>
+    <t>1:01:55</t>
+  </si>
+  <si>
+    <t>1:07:24</t>
+  </si>
+  <si>
+    <t>1:17:33</t>
+  </si>
+  <si>
+    <t>1:28:16</t>
+  </si>
+  <si>
+    <t>来年も一緒だよ！</t>
+  </si>
+  <si>
+    <t>幽音しの(即興)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【有馬記念】知識ゼロのおばけが、ビギナーズラックをおこしてみせる！！！【幽音しの:ななしいんく】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/v7PBMbLTYgY?si=OvQ1JmPPK8s_zlVm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【れいかい通信＃3】レッツダンディー！ダンディのこと呼んだかな？【幽音しの:ななしいんく】　 #vtuber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【年末歌合戦】第5回「悪天歌合戦」現在、悪魔2勝。2引き分け。今年はどうなる！？　#悪天歌合戦【ななしいんく / 島村シャルロット】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/CRuz_3IGzcI?si=4zCSejhZNR_9LYe8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音源</t>
+    <rPh sb="0" eb="2">
+      <t>オンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/IJunTLDD7I0?si=lhLUIzdM_Rtfr1c2</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -7526,7 +7655,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7542,6 +7671,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7671,7 +7806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7759,6 +7894,15 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -7766,6 +7910,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8094,10 +8243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E856D2-B155-4BD9-995B-24668BA721A9}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -8139,7 +8288,7 @@
       <c r="B2" s="15">
         <v>45774</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -8157,7 +8306,7 @@
       <c r="B3" s="15">
         <v>45775</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -8211,7 +8360,7 @@
       <c r="B6" s="15">
         <v>45779</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="31" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -8265,7 +8414,7 @@
       <c r="B9" s="15">
         <v>45785</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="31" t="s">
         <v>126</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -8301,7 +8450,7 @@
       <c r="B11" s="15">
         <v>45787</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="31" t="s">
         <v>170</v>
       </c>
       <c r="D11" s="16" t="s">
@@ -8355,7 +8504,7 @@
       <c r="B14" s="15">
         <v>45792</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="31" t="s">
         <v>211</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -8427,7 +8576,7 @@
       <c r="B18" s="15">
         <v>45802</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="31" t="s">
         <v>344</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -8445,7 +8594,7 @@
       <c r="B19" s="15">
         <v>45804</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="31" t="s">
         <v>349</v>
       </c>
       <c r="D19" s="16" t="s">
@@ -8499,7 +8648,7 @@
       <c r="B22" s="15">
         <v>45807</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="31" t="s">
         <v>396</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -8517,7 +8666,7 @@
       <c r="B23" s="15">
         <v>45808</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="31" t="s">
         <v>398</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -8624,7 +8773,7 @@
       <c r="B29" s="15">
         <v>45822</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="31" t="s">
         <v>584</v>
       </c>
       <c r="D29" s="19" t="s">
@@ -8678,7 +8827,7 @@
       <c r="B32" s="15">
         <v>45826</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="31" t="s">
         <v>684</v>
       </c>
       <c r="D32" s="19" t="s">
@@ -8696,7 +8845,7 @@
       <c r="B33" s="15">
         <v>45827</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="31" t="s">
         <v>686</v>
       </c>
       <c r="D33" s="19" t="s">
@@ -8732,7 +8881,7 @@
       <c r="B35" s="15">
         <v>45840</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="31" t="s">
         <v>722</v>
       </c>
       <c r="D35" s="19" t="s">
@@ -8750,7 +8899,7 @@
       <c r="B36" s="15">
         <v>45841</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="31" t="s">
         <v>724</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -8804,7 +8953,7 @@
       <c r="B39" s="15">
         <v>45847</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="31" t="s">
         <v>792</v>
       </c>
       <c r="D39" s="19" t="s">
@@ -8840,7 +8989,7 @@
       <c r="B41" s="15">
         <v>45848</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="31" t="s">
         <v>809</v>
       </c>
       <c r="D41" s="19" t="s">
@@ -8858,7 +9007,7 @@
       <c r="B42" s="15">
         <v>45848</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="31" t="s">
         <v>811</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -8876,7 +9025,7 @@
       <c r="B43" s="15">
         <v>45849</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="31" t="s">
         <v>813</v>
       </c>
       <c r="D43" s="19" t="s">
@@ -8894,7 +9043,7 @@
       <c r="B44" s="15">
         <v>45855</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="31" t="s">
         <v>819</v>
       </c>
       <c r="D44" s="19" t="s">
@@ -8930,7 +9079,7 @@
       <c r="B46" s="15">
         <v>45861</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="31" t="s">
         <v>841</v>
       </c>
       <c r="D46" s="19" t="s">
@@ -8966,7 +9115,7 @@
       <c r="B48" s="15">
         <v>45864</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="31" t="s">
         <v>895</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -8984,7 +9133,7 @@
       <c r="B49" s="15">
         <v>45864</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="31" t="s">
         <v>897</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -9092,7 +9241,7 @@
       <c r="B55" s="15">
         <v>45876</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="C55" s="30" t="s">
         <v>1028</v>
       </c>
       <c r="D55" s="19" t="s">
@@ -9110,7 +9259,7 @@
       <c r="B56" s="15">
         <v>45876</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="30" t="s">
         <v>1030</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -9146,7 +9295,7 @@
       <c r="B58" s="15">
         <v>45878</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="30" t="s">
         <v>1057</v>
       </c>
       <c r="D58" s="19" t="s">
@@ -9164,7 +9313,7 @@
       <c r="B59" s="15">
         <v>45879</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="30" t="s">
         <v>1059</v>
       </c>
       <c r="D59" s="19" t="s">
@@ -9182,7 +9331,7 @@
       <c r="B60" s="15">
         <v>45887</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="30" t="s">
         <v>1066</v>
       </c>
       <c r="D60" s="19" t="s">
@@ -9236,7 +9385,7 @@
       <c r="B63" s="15">
         <v>45892</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="30" t="s">
         <v>1108</v>
       </c>
       <c r="D63" s="19" t="s">
@@ -9254,7 +9403,7 @@
       <c r="B64" s="15">
         <v>45893</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="30" t="s">
         <v>1110</v>
       </c>
       <c r="D64" s="19" t="s">
@@ -9308,7 +9457,7 @@
       <c r="B67" s="15">
         <v>45900</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="30" t="s">
         <v>1161</v>
       </c>
       <c r="D67" s="19" t="s">
@@ -9344,7 +9493,7 @@
       <c r="B69" s="15">
         <v>45905</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="30" t="s">
         <v>1169</v>
       </c>
       <c r="D69" s="19" t="s">
@@ -9398,7 +9547,7 @@
       <c r="B72" s="15">
         <v>45908</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="30" t="s">
         <v>1386</v>
       </c>
       <c r="D72" s="19" t="s">
@@ -9416,7 +9565,7 @@
       <c r="B73" s="15">
         <v>45910</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="30" t="s">
         <v>1388</v>
       </c>
       <c r="D73" s="19" t="s">
@@ -9452,7 +9601,7 @@
       <c r="B75" s="15">
         <v>45912</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="30" t="s">
         <v>1419</v>
       </c>
       <c r="D75" s="19" t="s">
@@ -9488,7 +9637,7 @@
       <c r="B77" s="15">
         <v>45916</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C77" s="30" t="s">
         <v>1436</v>
       </c>
       <c r="D77" s="19" t="s">
@@ -9524,7 +9673,7 @@
       <c r="B79" s="15">
         <v>45919</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="30" t="s">
         <v>1458</v>
       </c>
       <c r="D79" s="19" t="s">
@@ -9578,7 +9727,7 @@
       <c r="B82" s="15">
         <v>45922</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="30" t="s">
         <v>1501</v>
       </c>
       <c r="D82" s="19" t="s">
@@ -9596,7 +9745,7 @@
       <c r="B83" s="15">
         <v>45922</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="30" t="s">
         <v>1503</v>
       </c>
       <c r="D83" s="19" t="s">
@@ -9668,7 +9817,7 @@
       <c r="B87" s="15">
         <v>45931</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="30" t="s">
         <v>1583</v>
       </c>
       <c r="D87" s="19" t="s">
@@ -9686,7 +9835,7 @@
       <c r="B88" s="15">
         <v>45932</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="30" t="s">
         <v>1584</v>
       </c>
       <c r="D88" s="19" t="s">
@@ -9758,7 +9907,7 @@
       <c r="B92" s="15">
         <v>45936</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="30" t="s">
         <v>1701</v>
       </c>
       <c r="D92" s="19" t="s">
@@ -9812,7 +9961,7 @@
       <c r="B95" s="15">
         <v>45940</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="30" t="s">
         <v>1785</v>
       </c>
       <c r="D95" s="19" t="s">
@@ -9848,7 +9997,7 @@
       <c r="B97" s="15">
         <v>45947</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="30" t="s">
         <v>1801</v>
       </c>
       <c r="D97" s="19" t="s">
@@ -9866,7 +10015,7 @@
       <c r="B98" s="15">
         <v>45949</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="30" t="s">
         <v>1803</v>
       </c>
       <c r="D98" s="19" t="s">
@@ -9938,7 +10087,7 @@
       <c r="B102" s="15">
         <v>45954</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="30" t="s">
         <v>1879</v>
       </c>
       <c r="D102" s="19" t="s">
@@ -9956,7 +10105,7 @@
       <c r="B103" s="15">
         <v>45954</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="30" t="s">
         <v>1881</v>
       </c>
       <c r="D103" s="19" t="s">
@@ -10010,7 +10159,7 @@
       <c r="B106" s="15">
         <v>45959</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C106" s="30" t="s">
         <v>1923</v>
       </c>
       <c r="D106" s="19" t="s">
@@ -10046,7 +10195,7 @@
       <c r="B108" s="15">
         <v>45961</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C108" s="30" t="s">
         <v>1944</v>
       </c>
       <c r="D108" s="19" t="s">
@@ -10064,7 +10213,7 @@
       <c r="B109" s="15">
         <v>45963</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="C109" s="30" t="s">
         <v>1946</v>
       </c>
       <c r="D109" s="19" t="s">
@@ -10082,7 +10231,7 @@
       <c r="B110" s="15">
         <v>45965</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C110" s="30" t="s">
         <v>1948</v>
       </c>
       <c r="D110" s="19" t="s">
@@ -10100,7 +10249,7 @@
       <c r="B111" s="15">
         <v>45966</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C111" s="30" t="s">
         <v>1950</v>
       </c>
       <c r="D111" s="19" t="s">
@@ -10136,7 +10285,7 @@
       <c r="B113" s="15">
         <v>45974</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="30" t="s">
         <v>1973</v>
       </c>
       <c r="D113" s="19" t="s">
@@ -10154,7 +10303,7 @@
       <c r="B114" s="15">
         <v>45977</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" s="30" t="s">
         <v>1975</v>
       </c>
       <c r="D114" s="19" t="s">
@@ -10172,7 +10321,7 @@
       <c r="B115" s="15">
         <v>45980</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" s="30" t="s">
         <v>1978</v>
       </c>
       <c r="D115" s="19" t="s">
@@ -10208,7 +10357,7 @@
       <c r="B117" s="15">
         <v>45982</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="C117" s="30" t="s">
         <v>1996</v>
       </c>
       <c r="D117" s="19" t="s">
@@ -10424,7 +10573,7 @@
       <c r="B129" s="15">
         <v>46002</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C129" s="30" t="s">
         <v>2182</v>
       </c>
       <c r="D129" s="19" t="s">
@@ -10454,13 +10603,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="14">
-        <f t="shared" ref="A131:A151" si="2">ROW()-1</f>
+        <f t="shared" ref="A131:A161" si="2">ROW()-1</f>
         <v>130</v>
       </c>
       <c r="B131" s="15">
         <v>46004</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="C131" s="30" t="s">
         <v>2202</v>
       </c>
       <c r="D131" s="19" t="s">
@@ -10514,7 +10663,7 @@
       <c r="B134" s="15">
         <v>46009</v>
       </c>
-      <c r="C134" s="25" t="s">
+      <c r="C134" s="30" t="s">
         <v>2243</v>
       </c>
       <c r="D134" s="19" t="s">
@@ -10568,7 +10717,7 @@
       <c r="B137" s="15">
         <v>46011</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C137" s="30" t="s">
         <v>2294</v>
       </c>
       <c r="D137" s="19" t="s">
@@ -10604,7 +10753,7 @@
       <c r="B139" s="28">
         <v>46015</v>
       </c>
-      <c r="C139" s="25" t="s">
+      <c r="C139" s="30" t="s">
         <v>2305</v>
       </c>
       <c r="D139" s="19" t="s">
@@ -10622,7 +10771,7 @@
       <c r="B140" s="15">
         <v>46016</v>
       </c>
-      <c r="C140" s="25" t="s">
+      <c r="C140" s="30" t="s">
         <v>2307</v>
       </c>
       <c r="D140" s="19" t="s">
@@ -10655,47 +10804,92 @@
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="14"/>
+      <c r="B142" s="15">
+        <v>46017</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="14">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="14"/>
+      <c r="B143" s="15">
+        <v>46018</v>
+      </c>
+      <c r="C143" s="25" t="s">
+        <v>2345</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="14">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="25"/>
-      <c r="D144" s="14"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B144" s="15">
+        <v>46019</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>2360</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A145" s="14">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B145" s="14"/>
-      <c r="C145" s="25"/>
-      <c r="D145" s="14"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B145" s="28">
+        <v>46019</v>
+      </c>
+      <c r="C145" s="29" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="14">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="25"/>
-      <c r="D146" s="14"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B146" s="28">
+        <v>46021</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="14">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -10704,7 +10898,7 @@
       <c r="C147" s="25"/>
       <c r="D147" s="14"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="14">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -10713,7 +10907,7 @@
       <c r="C148" s="25"/>
       <c r="D148" s="14"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="14">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -10722,7 +10916,7 @@
       <c r="C149" s="25"/>
       <c r="D149" s="14"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="14">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -10731,7 +10925,7 @@
       <c r="C150" s="25"/>
       <c r="D150" s="14"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="14">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -10740,8 +10934,98 @@
       <c r="C151" s="25"/>
       <c r="D151" s="14"/>
     </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A152" s="14">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="14"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="14"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A153" s="14">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="14"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="14"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A154" s="14">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="14"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="14"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A155" s="14">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B155" s="14"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="14"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A156" s="14">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B156" s="14"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="14"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A157" s="14">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="14"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="14"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A158" s="14">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="14"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="14"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A159" s="14">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B159" s="14"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="14"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A160" s="14">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B160" s="14"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="14"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="14">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="14"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{B6E856D2-B155-4BD9-995B-24668BA721A9}"/>
+  <autoFilter ref="A1:F161" xr:uid="{B6E856D2-B155-4BD9-995B-24668BA721A9}"/>
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{5AC07997-7EA4-4357-BA84-FEBA94A82D55}"/>
@@ -10884,9 +11168,14 @@
     <hyperlink ref="D139" r:id="rId138" xr:uid="{63396F28-74D3-49F2-9191-5589251D5332}"/>
     <hyperlink ref="D140" r:id="rId139" xr:uid="{8479B9C0-30FE-496D-B5B4-61B7DF381061}"/>
     <hyperlink ref="D141" r:id="rId140" xr:uid="{76462A95-D2B1-4F0C-BEE6-C8CEEFE204AC}"/>
+    <hyperlink ref="D142" r:id="rId141" xr:uid="{6675AFC2-C766-4753-8CC6-92B863BBEAA2}"/>
+    <hyperlink ref="D143" r:id="rId142" xr:uid="{D23682F8-3F6E-4FD2-93AE-8B3C388797EE}"/>
+    <hyperlink ref="D144" r:id="rId143" xr:uid="{0CB59F1D-A4BF-416D-B8F8-3616350CD1E2}"/>
+    <hyperlink ref="D145" r:id="rId144" xr:uid="{ED346E33-71CA-49A6-8687-778224D80A08}"/>
+    <hyperlink ref="D146" r:id="rId145" xr:uid="{9978D53E-FC38-4B9A-8DAE-2705E1DD7F89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId141"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
 </worksheet>
 </file>
 
@@ -10895,10 +11184,10 @@
   <dimension ref="A1:AA1201"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1057" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1076" sqref="B1076"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -51765,29 +52054,37 @@
         <f t="shared" si="52"/>
         <v>1075</v>
       </c>
-      <c r="B1076" s="14"/>
-      <c r="C1076" s="18"/>
-      <c r="D1076" s="14"/>
-      <c r="E1076" s="14"/>
-      <c r="G1076" s="1">
+      <c r="B1076" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1076" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="D1076" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1076" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1076" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1076,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1076" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1076" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1076" s="12">
+        <v>272</v>
+      </c>
+      <c r="X1076" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1076,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1076" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1076" s="16" t="str">
         <f>HYPERLINK($X1076&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1076))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=272s</v>
       </c>
       <c r="AA1076" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>40mP feat.初音ミクからくりピエロ</v>
       </c>
     </row>
     <row r="1077" spans="1:27" x14ac:dyDescent="0.4">
@@ -51795,29 +52092,37 @@
         <f t="shared" si="52"/>
         <v>1076</v>
       </c>
-      <c r="B1077" s="14"/>
-      <c r="C1077" s="18"/>
-      <c r="D1077" s="14"/>
-      <c r="E1077" s="14"/>
-      <c r="G1077" s="1">
+      <c r="B1077" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1077" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="D1077" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1077" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1077" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1077,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1077" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1077" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1077" s="12">
+        <v>758.99999999999989</v>
+      </c>
+      <c r="X1077" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1077,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1077" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1077" s="16" t="str">
         <f>HYPERLINK($X1077&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1077))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=759s</v>
       </c>
       <c r="AA1077" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>DECO*27 feat.GUMI弱虫モンブラン</v>
       </c>
     </row>
     <row r="1078" spans="1:27" x14ac:dyDescent="0.4">
@@ -51825,29 +52130,37 @@
         <f t="shared" si="52"/>
         <v>1077</v>
       </c>
-      <c r="B1078" s="14"/>
-      <c r="C1078" s="18"/>
-      <c r="D1078" s="14"/>
-      <c r="E1078" s="14"/>
-      <c r="G1078" s="1">
+      <c r="B1078" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1078" s="21" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D1078" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1078" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1078" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1078,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1078" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1078" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1078" s="12">
+        <v>1165</v>
+      </c>
+      <c r="X1078" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1078,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1078" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1078" s="16" t="str">
         <f>HYPERLINK($X1078&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1078))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=1165s</v>
       </c>
       <c r="AA1078" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>メル feat.初音ミク翡翠のまち</v>
       </c>
     </row>
     <row r="1079" spans="1:27" x14ac:dyDescent="0.4">
@@ -51855,29 +52168,37 @@
         <f t="shared" si="52"/>
         <v>1078</v>
       </c>
-      <c r="B1079" s="14"/>
-      <c r="C1079" s="18"/>
-      <c r="D1079" s="14"/>
-      <c r="E1079" s="14"/>
-      <c r="G1079" s="1">
+      <c r="B1079" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1079" s="21" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D1079" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="E1079" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1079" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1079,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1079" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1079" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1079" s="12">
+        <v>1493</v>
+      </c>
+      <c r="X1079" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1079,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1079" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1079" s="16" t="str">
         <f>HYPERLINK($X1079&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1079))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=1493s</v>
       </c>
       <c r="AA1079" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>みきとP feat.初音ミク小夜子</v>
       </c>
     </row>
     <row r="1080" spans="1:27" x14ac:dyDescent="0.4">
@@ -51885,29 +52206,37 @@
         <f t="shared" si="52"/>
         <v>1079</v>
       </c>
-      <c r="B1080" s="14"/>
-      <c r="C1080" s="18"/>
-      <c r="D1080" s="14"/>
-      <c r="E1080" s="14"/>
-      <c r="G1080" s="1">
+      <c r="B1080" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1080" s="21" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D1080" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="E1080" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1080" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1080,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1080" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1080" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1080" s="12">
+        <v>1923</v>
+      </c>
+      <c r="X1080" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1080,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1080" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1080" s="16" t="str">
         <f>HYPERLINK($X1080&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1080))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=1923s</v>
       </c>
       <c r="AA1080" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>みきとP feat.初音ミクサリシノハラ</v>
       </c>
     </row>
     <row r="1081" spans="1:27" x14ac:dyDescent="0.4">
@@ -51915,29 +52244,37 @@
         <f t="shared" si="52"/>
         <v>1080</v>
       </c>
-      <c r="B1081" s="14"/>
-      <c r="C1081" s="18"/>
-      <c r="D1081" s="14"/>
-      <c r="E1081" s="14"/>
-      <c r="G1081" s="1">
+      <c r="B1081" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1081" s="21" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D1081" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1081" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1081" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1081,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1081" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1081" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1081" s="12">
+        <v>2364</v>
+      </c>
+      <c r="X1081" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1081,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1081" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1081" s="16" t="str">
         <f>HYPERLINK($X1081&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1081))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=2364s</v>
       </c>
       <c r="AA1081" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>ジミーサムP feat.初音ミク＆巡音ルカ(コーラス)from Y to Y</v>
       </c>
     </row>
     <row r="1082" spans="1:27" x14ac:dyDescent="0.4">
@@ -51945,29 +52282,37 @@
         <f t="shared" si="52"/>
         <v>1081</v>
       </c>
-      <c r="B1082" s="14"/>
-      <c r="C1082" s="18"/>
-      <c r="D1082" s="14"/>
-      <c r="E1082" s="14"/>
-      <c r="G1082" s="1">
+      <c r="B1082" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1082" s="21" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D1082" s="14" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E1082" s="14" t="s">
+        <v>2218</v>
+      </c>
+      <c r="G1082" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1082,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1082" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1082" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1082" s="12">
+        <v>2819</v>
+      </c>
+      <c r="X1082" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1082,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1082" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1082" s="16" t="str">
         <f>HYPERLINK($X1082&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1082))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=2819s</v>
       </c>
       <c r="AA1082" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>keeno feat.初音ミクglow</v>
       </c>
     </row>
     <row r="1083" spans="1:27" x14ac:dyDescent="0.4">
@@ -51975,29 +52320,37 @@
         <f t="shared" si="52"/>
         <v>1082</v>
       </c>
-      <c r="B1083" s="14"/>
-      <c r="C1083" s="18"/>
-      <c r="D1083" s="14"/>
-      <c r="E1083" s="14"/>
-      <c r="G1083" s="1">
+      <c r="B1083" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1083" s="21" t="s">
+        <v>2335</v>
+      </c>
+      <c r="D1083" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1083" s="14" t="s">
+        <v>2336</v>
+      </c>
+      <c r="G1083" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1083,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1083" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1083" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1083" s="12">
+        <v>3369.0000000000005</v>
+      </c>
+      <c r="X1083" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1083,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1083" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1083" s="16" t="str">
         <f>HYPERLINK($X1083&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1083))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=3369s</v>
       </c>
       <c r="AA1083" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>バルーン(須田景凪)feat.flowerシャルル</v>
       </c>
     </row>
     <row r="1084" spans="1:27" x14ac:dyDescent="0.4">
@@ -52005,29 +52358,37 @@
         <f t="shared" si="52"/>
         <v>1083</v>
       </c>
-      <c r="B1084" s="14"/>
-      <c r="C1084" s="18"/>
-      <c r="D1084" s="14"/>
-      <c r="E1084" s="14"/>
-      <c r="G1084" s="1">
+      <c r="B1084" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1084" s="21" t="s">
+        <v>2337</v>
+      </c>
+      <c r="D1084" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1084" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1084" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1084,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1084" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1084" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1084" s="12">
+        <v>3825</v>
+      </c>
+      <c r="X1084" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1084,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1084" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1084" s="16" t="str">
         <f>HYPERLINK($X1084&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1084))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=3825s</v>
       </c>
       <c r="AA1084" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>Orangestar feat.IADAYBREAK FRONTLINE</v>
       </c>
     </row>
     <row r="1085" spans="1:27" x14ac:dyDescent="0.4">
@@ -52035,29 +52396,37 @@
         <f t="shared" si="52"/>
         <v>1084</v>
       </c>
-      <c r="B1085" s="14"/>
-      <c r="C1085" s="18"/>
-      <c r="D1085" s="14"/>
-      <c r="E1085" s="14"/>
-      <c r="G1085" s="1">
+      <c r="B1085" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1085" s="21" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D1085" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1085" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1085" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1085,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1085" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1085" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1085" s="12">
+        <v>4170</v>
+      </c>
+      <c r="X1085" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1085,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1085" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1085" s="16" t="str">
         <f>HYPERLINK($X1085&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1085))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=4170s</v>
       </c>
       <c r="AA1085" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>Orangestar feat.IAAlice in 冷凍庫</v>
       </c>
     </row>
     <row r="1086" spans="1:27" x14ac:dyDescent="0.4">
@@ -52065,29 +52434,37 @@
         <f t="shared" si="52"/>
         <v>1085</v>
       </c>
-      <c r="B1086" s="14"/>
-      <c r="C1086" s="18"/>
-      <c r="D1086" s="14"/>
-      <c r="E1086" s="14"/>
-      <c r="G1086" s="1">
+      <c r="B1086" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1086" s="21" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D1086" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1086" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1086" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1086,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1086" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1086" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1086" s="12">
+        <v>4536</v>
+      </c>
+      <c r="X1086" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1086,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1086" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1086" s="16" t="str">
         <f>HYPERLINK($X1086&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1086))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=4536s</v>
       </c>
       <c r="AA1086" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>Orangestar feat.IAHenceforth</v>
       </c>
     </row>
     <row r="1087" spans="1:27" x14ac:dyDescent="0.4">
@@ -52095,29 +52472,37 @@
         <f t="shared" si="52"/>
         <v>1086</v>
       </c>
-      <c r="B1087" s="14"/>
-      <c r="C1087" s="18"/>
-      <c r="D1087" s="14"/>
-      <c r="E1087" s="14"/>
-      <c r="G1087" s="1">
+      <c r="B1087" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1087" s="21" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D1087" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1087" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1087" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1087,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1087" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1087" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1087" s="12">
+        <v>4960</v>
+      </c>
+      <c r="X1087" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1087,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1087" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1087" s="16" t="str">
         <f>HYPERLINK($X1087&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1087))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=4960s</v>
       </c>
       <c r="AA1087" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>164P feat.GUMI天ノ弱</v>
       </c>
     </row>
     <row r="1088" spans="1:27" x14ac:dyDescent="0.4">
@@ -52125,29 +52510,37 @@
         <f t="shared" si="52"/>
         <v>1087</v>
       </c>
-      <c r="B1088" s="14"/>
-      <c r="C1088" s="18"/>
-      <c r="D1088" s="14"/>
-      <c r="E1088" s="14"/>
-      <c r="G1088" s="1">
+      <c r="B1088" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1088" s="21" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D1088" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1088" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1088" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1088,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1088" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1088" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1088" s="12">
+        <v>5341</v>
+      </c>
+      <c r="X1088" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1088,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1088" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1088" s="16" t="str">
         <f>HYPERLINK($X1088&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1088))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=5341s</v>
       </c>
       <c r="AA1088" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>みきとP feat.初音ミク少女レイ</v>
       </c>
     </row>
     <row r="1089" spans="1:27" x14ac:dyDescent="0.4">
@@ -52155,29 +52548,37 @@
         <f t="shared" si="52"/>
         <v>1088</v>
       </c>
-      <c r="B1089" s="14"/>
-      <c r="C1089" s="18"/>
-      <c r="D1089" s="14"/>
-      <c r="E1089" s="14"/>
-      <c r="G1089" s="1">
+      <c r="B1089" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1089" s="21" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D1089" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1089" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1089" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1089,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1089" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1089" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1089" s="12">
+        <v>5804</v>
+      </c>
+      <c r="X1089" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1089,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1089" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1089" s="16" t="str">
         <f>HYPERLINK($X1089&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1089))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=5804s</v>
       </c>
       <c r="AA1089" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>40mP feat.初音ミク恋愛裁判</v>
       </c>
     </row>
     <row r="1090" spans="1:27" x14ac:dyDescent="0.4">
@@ -52185,29 +52586,37 @@
         <f t="shared" si="52"/>
         <v>1089</v>
       </c>
-      <c r="B1090" s="14"/>
-      <c r="C1090" s="18"/>
-      <c r="D1090" s="14"/>
-      <c r="E1090" s="14"/>
-      <c r="G1090" s="1">
+      <c r="B1090" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1090" s="21" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D1090" s="14" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E1090" s="14" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G1090" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1090,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1090" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1090" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1090" s="12">
+        <v>6179</v>
+      </c>
+      <c r="X1090" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1090,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1090" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1090" s="16" t="str">
         <f>HYPERLINK($X1090&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1090))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=6179s</v>
       </c>
       <c r="AA1090" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>TOKOTOKO feat.GUMI夜もすがら君想ふ</v>
       </c>
     </row>
     <row r="1091" spans="1:27" x14ac:dyDescent="0.4">
@@ -52215,29 +52624,37 @@
         <f t="shared" si="52"/>
         <v>1090</v>
       </c>
-      <c r="B1091" s="14"/>
-      <c r="C1091" s="18"/>
-      <c r="D1091" s="14"/>
-      <c r="E1091" s="14"/>
-      <c r="G1091" s="1">
+      <c r="B1091" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1091" s="21" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D1091" s="14" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E1091" s="14" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G1091" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1091,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1091" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1091" s="13">
         <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1091" s="12">
+        <v>6663</v>
+      </c>
+      <c r="X1091" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1091,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1091" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1091" s="16" t="str">
         <f>HYPERLINK($X1091&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1091))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=6663s</v>
       </c>
       <c r="AA1091" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>蝶々P feat.GUMI心做し</v>
       </c>
     </row>
     <row r="1092" spans="1:27" x14ac:dyDescent="0.4">
@@ -52245,29 +52662,37 @@
         <f t="shared" si="52"/>
         <v>1091</v>
       </c>
-      <c r="B1092" s="14"/>
-      <c r="C1092" s="18"/>
-      <c r="D1092" s="14"/>
-      <c r="E1092" s="14"/>
-      <c r="G1092" s="1">
+      <c r="B1092" s="14">
+        <v>141</v>
+      </c>
+      <c r="C1092" s="21" t="s">
+        <v>2344</v>
+      </c>
+      <c r="D1092" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1092" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1092" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1092,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1092" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1092" s="13">
         <f t="shared" ref="W1092:W1155" si="53">TIMEVALUE($C1092)*86400</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1092" s="12">
+        <v>7199</v>
+      </c>
+      <c r="X1092" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1092,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1092" s="16" t="e">
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au</v>
+      </c>
+      <c r="Z1092" s="16" t="str">
         <f>HYPERLINK($X1092&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1092))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/oAyJDZdA6tE?si=2WnKccc2rn5H72au&amp;t=7199s</v>
       </c>
       <c r="AA1092" s="12" t="str">
         <f t="shared" si="51"/>
-        <v/>
+        <v>ryo(supercell) feat.初音ミクメルト</v>
       </c>
     </row>
     <row r="1093" spans="1:27" x14ac:dyDescent="0.4">
@@ -52275,29 +52700,37 @@
         <f t="shared" si="52"/>
         <v>1092</v>
       </c>
-      <c r="B1093" s="14"/>
-      <c r="C1093" s="18"/>
-      <c r="D1093" s="14"/>
-      <c r="E1093" s="14"/>
-      <c r="G1093" s="1">
+      <c r="B1093" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1093" s="21" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D1093" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1093" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1093" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1093,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1093" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1093" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1093" s="12">
+        <v>328</v>
+      </c>
+      <c r="X1093" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1093,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1093" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1093" s="16" t="str">
         <f>HYPERLINK($X1093&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1093))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=328s</v>
       </c>
       <c r="AA1093" s="12" t="str">
         <f t="shared" ref="AA1093:AA1156" si="54">TRIM(E1093)&amp;TRIM(D1093)</f>
-        <v/>
+        <v>優里ドライフラワー</v>
       </c>
     </row>
     <row r="1094" spans="1:27" x14ac:dyDescent="0.4">
@@ -52305,29 +52738,37 @@
         <f t="shared" ref="A1094:A1157" si="55">ROW()-1</f>
         <v>1093</v>
       </c>
-      <c r="B1094" s="14"/>
-      <c r="C1094" s="18"/>
-      <c r="D1094" s="14"/>
-      <c r="E1094" s="14"/>
-      <c r="G1094" s="1">
+      <c r="B1094" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1094" s="21" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D1094" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1094" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1094" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1094,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1094" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1094" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1094" s="12">
+        <v>858.99999999999989</v>
+      </c>
+      <c r="X1094" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1094,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1094" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1094" s="16" t="str">
         <f>HYPERLINK($X1094&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1094))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=859s</v>
       </c>
       <c r="AA1094" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>クリープハイプ憂、燦々</v>
       </c>
     </row>
     <row r="1095" spans="1:27" x14ac:dyDescent="0.4">
@@ -52335,29 +52776,37 @@
         <f t="shared" si="55"/>
         <v>1094</v>
       </c>
-      <c r="B1095" s="14"/>
-      <c r="C1095" s="18"/>
-      <c r="D1095" s="14"/>
-      <c r="E1095" s="14"/>
-      <c r="G1095" s="1">
+      <c r="B1095" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1095" s="21" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D1095" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1095" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1095" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1095,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1095" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1095" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1095" s="12">
+        <v>1398</v>
+      </c>
+      <c r="X1095" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1095,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1095" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1095" s="16" t="str">
         <f>HYPERLINK($X1095&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1095))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=1398s</v>
       </c>
       <c r="AA1095" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>R Sound Design feat.初音ミクflos</v>
       </c>
     </row>
     <row r="1096" spans="1:27" x14ac:dyDescent="0.4">
@@ -52365,29 +52814,37 @@
         <f t="shared" si="55"/>
         <v>1095</v>
       </c>
-      <c r="B1096" s="14"/>
-      <c r="C1096" s="18"/>
-      <c r="D1096" s="14"/>
-      <c r="E1096" s="14"/>
-      <c r="G1096" s="1">
+      <c r="B1096" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1096" s="21" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D1096" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1096" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1096" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1096,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1096" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1096" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1096" s="12">
+        <v>1838</v>
+      </c>
+      <c r="X1096" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1096,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1096" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1096" s="16" t="str">
         <f>HYPERLINK($X1096&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1096))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=1838s</v>
       </c>
       <c r="AA1096" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>ヨルシカノーチラス</v>
       </c>
     </row>
     <row r="1097" spans="1:27" x14ac:dyDescent="0.4">
@@ -52395,29 +52852,37 @@
         <f t="shared" si="55"/>
         <v>1096</v>
       </c>
-      <c r="B1097" s="14"/>
-      <c r="C1097" s="18"/>
-      <c r="D1097" s="14"/>
-      <c r="E1097" s="14"/>
-      <c r="G1097" s="1">
+      <c r="B1097" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1097" s="21" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D1097" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1097" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1097" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1097,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1097" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1097" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1097" s="12">
+        <v>2224</v>
+      </c>
+      <c r="X1097" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1097,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1097" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1097" s="16" t="str">
         <f>HYPERLINK($X1097&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1097))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=2224s</v>
       </c>
       <c r="AA1097" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>Vaundy怪獣の花唄</v>
       </c>
     </row>
     <row r="1098" spans="1:27" x14ac:dyDescent="0.4">
@@ -52425,29 +52890,37 @@
         <f t="shared" si="55"/>
         <v>1097</v>
       </c>
-      <c r="B1098" s="14"/>
-      <c r="C1098" s="18"/>
-      <c r="D1098" s="14"/>
-      <c r="E1098" s="14"/>
-      <c r="G1098" s="1">
+      <c r="B1098" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1098" s="21" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D1098" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1098" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1098" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1098,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1098" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1098" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1098" s="12">
+        <v>2649</v>
+      </c>
+      <c r="X1098" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1098,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1098" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1098" s="16" t="str">
         <f>HYPERLINK($X1098&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1098))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=2649s</v>
       </c>
       <c r="AA1098" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>マカロニえんぴつブルーベリー・ナイツ</v>
       </c>
     </row>
     <row r="1099" spans="1:27" x14ac:dyDescent="0.4">
@@ -52455,29 +52928,37 @@
         <f t="shared" si="55"/>
         <v>1098</v>
       </c>
-      <c r="B1099" s="14"/>
-      <c r="C1099" s="18"/>
-      <c r="D1099" s="14"/>
-      <c r="E1099" s="14"/>
-      <c r="G1099" s="1">
+      <c r="B1099" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1099" s="21" t="s">
+        <v>2352</v>
+      </c>
+      <c r="D1099" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1099" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1099" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1099,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1099" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1099" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1099" s="12">
+        <v>3136</v>
+      </c>
+      <c r="X1099" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1099,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1099" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1099" s="16" t="str">
         <f>HYPERLINK($X1099&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1099))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=3136s</v>
       </c>
       <c r="AA1099" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>羊文学more than words</v>
       </c>
     </row>
     <row r="1100" spans="1:27" x14ac:dyDescent="0.4">
@@ -52485,29 +52966,37 @@
         <f t="shared" si="55"/>
         <v>1099</v>
       </c>
-      <c r="B1100" s="14"/>
-      <c r="C1100" s="18"/>
-      <c r="D1100" s="14"/>
-      <c r="E1100" s="14"/>
-      <c r="G1100" s="1">
+      <c r="B1100" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1100" s="21" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D1100" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1100" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1100" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1100,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1100" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1100" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1100" s="12">
+        <v>3715</v>
+      </c>
+      <c r="X1100" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1100,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1100" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1100" s="16" t="str">
         <f>HYPERLINK($X1100&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1100))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=3715s</v>
       </c>
       <c r="AA1100" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>YUI for 雨音薫Good-bye days</v>
       </c>
     </row>
     <row r="1101" spans="1:27" x14ac:dyDescent="0.4">
@@ -52515,29 +53004,37 @@
         <f t="shared" si="55"/>
         <v>1100</v>
       </c>
-      <c r="B1101" s="14"/>
-      <c r="C1101" s="18"/>
-      <c r="D1101" s="14"/>
-      <c r="E1101" s="14"/>
-      <c r="G1101" s="1">
+      <c r="B1101" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1101" s="21" t="s">
+        <v>2354</v>
+      </c>
+      <c r="D1101" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1101" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1101" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1101,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1101" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1101" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1101" s="12">
+        <v>4044.0000000000005</v>
+      </c>
+      <c r="X1101" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1101,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1101" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1101" s="16" t="str">
         <f>HYPERLINK($X1101&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1101))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=4044s</v>
       </c>
       <c r="AA1101" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>じん(自然の敵P) feat.IA想像フォレスト</v>
       </c>
     </row>
     <row r="1102" spans="1:27" x14ac:dyDescent="0.4">
@@ -52545,29 +53042,37 @@
         <f t="shared" si="55"/>
         <v>1101</v>
       </c>
-      <c r="B1102" s="14"/>
-      <c r="C1102" s="18"/>
-      <c r="D1102" s="14"/>
-      <c r="E1102" s="14"/>
-      <c r="G1102" s="1">
+      <c r="B1102" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1102" s="21" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D1102" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1102" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1102" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1102,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1102" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1102" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1102" s="12">
+        <v>4653</v>
+      </c>
+      <c r="X1102" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1102,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1102" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1102" s="16" t="str">
         <f>HYPERLINK($X1102&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1102))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=4653s</v>
       </c>
       <c r="AA1102" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>supercellMy Dearest</v>
       </c>
     </row>
     <row r="1103" spans="1:27" x14ac:dyDescent="0.4">
@@ -52575,29 +53080,37 @@
         <f t="shared" si="55"/>
         <v>1102</v>
       </c>
-      <c r="B1103" s="14"/>
-      <c r="C1103" s="18"/>
-      <c r="D1103" s="14"/>
-      <c r="E1103" s="14"/>
-      <c r="G1103" s="1">
+      <c r="B1103" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1103" s="21" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D1103" s="14" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E1103" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="G1103" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1103,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1103" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1103" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1103" s="12">
+        <v>5296</v>
+      </c>
+      <c r="X1103" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1103,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1103" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1103" s="16" t="str">
         <f>HYPERLINK($X1103&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1103))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=5296s</v>
       </c>
       <c r="AA1103" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>幽音しのFrom now on</v>
       </c>
     </row>
     <row r="1104" spans="1:27" x14ac:dyDescent="0.4">
@@ -52605,29 +53118,37 @@
         <f t="shared" si="55"/>
         <v>1103</v>
       </c>
-      <c r="B1104" s="14"/>
-      <c r="C1104" s="18"/>
-      <c r="D1104" s="14"/>
-      <c r="E1104" s="14"/>
-      <c r="G1104" s="1">
+      <c r="B1104" s="14">
+        <v>142</v>
+      </c>
+      <c r="C1104" s="21" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D1104" s="14" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E1104" s="14" t="s">
+        <v>2358</v>
+      </c>
+      <c r="G1104" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1104,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1104" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1104" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1104" s="12">
+        <v>6179</v>
+      </c>
+      <c r="X1104" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1104,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1104" s="16" t="e">
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS</v>
+      </c>
+      <c r="Z1104" s="16" t="str">
         <f>HYPERLINK($X1104&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1104))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/-LFW7tNdmHY?si=GPUnndjVLQ00wOIS&amp;t=6179s</v>
       </c>
       <c r="AA1104" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>幽音しの(即興)来年も一緒だよ！</v>
       </c>
     </row>
     <row r="1105" spans="1:27" x14ac:dyDescent="0.4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitLocal\shinoutatime-streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ED77B7-5D45-4DB9-B803-161D9E7AB100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB551E-14DE-48F4-B755-2380262C51D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A3198A5-688A-495F-A904-EF8FE4BE0835}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4246" uniqueCount="2366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="2404">
   <si>
     <t>ID</t>
   </si>
@@ -7558,10 +7558,6 @@
     <t>来年も一緒だよ！</t>
   </si>
   <si>
-    <t>幽音しの(即興)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>【有馬記念】知識ゼロのおばけが、ビギナーズラックをおこしてみせる！！！【幽音しの:ななしいんく】</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -7580,6 +7576,17 @@
   <si>
     <t>https://www.youtube.com/live/CRuz_3IGzcI?si=4zCSejhZNR_9LYe8</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/IJunTLDD7I0?si=lhLUIzdM_Rtfr1c2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:26:38</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾き語り</t>
   </si>
   <si>
     <t>音源</t>
@@ -7589,8 +7596,127 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>https://www.youtube.com/live/IJunTLDD7I0?si=lhLUIzdM_Rtfr1c2</t>
+    <t>0:27:55</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>点描の唄(1chorus)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ド屑(1chorus)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レッツダンディ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:33:38</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダンディさん(幽音しの(即興))</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【あけおめ配信】あけましておめでとう雑談！お酒飲みながら少しお話しする【幽音しの:ななしいんく】　#shorts #vsinger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/55-fnnXPRQk?si=7zNy10DVwXJ3rxFg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【#弾き語り】2026年！初歌枠だ～～！！今年もよろしくね！！【幽音しの:ななしいんく】 #shorts #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:10:40</t>
+  </si>
+  <si>
+    <t>聖槍爆裂ボーイ</t>
+  </si>
+  <si>
+    <t>れるりり&amp;もじゃ feat .鏡音リン</t>
+  </si>
+  <si>
+    <t>0:16:29</t>
+  </si>
+  <si>
+    <t>0:22:49</t>
+  </si>
+  <si>
+    <t>Masked bitcH</t>
+  </si>
+  <si>
+    <t>ギガ&amp;q*Left feat.GUMI</t>
+  </si>
+  <si>
+    <t>0:28:20</t>
+  </si>
+  <si>
+    <t>0:34:49</t>
+  </si>
+  <si>
+    <t>バレリーコ</t>
+  </si>
+  <si>
+    <t>みきとP feat.GUMI</t>
+  </si>
+  <si>
+    <t>0:41:20</t>
+  </si>
+  <si>
+    <t>0:49:45</t>
+  </si>
+  <si>
+    <t>1:02:02</t>
+  </si>
+  <si>
+    <t>モニタリング</t>
+  </si>
+  <si>
+    <t>1:09:32</t>
+  </si>
+  <si>
+    <t>1:14:39</t>
+  </si>
+  <si>
+    <t>1:21:40</t>
+  </si>
+  <si>
+    <t>1:34:16</t>
+  </si>
+  <si>
+    <t>乙女解剖</t>
+  </si>
+  <si>
+    <t>【#弾き語り】深夜定期！今日も寝れる弾き語りを！【幽音しの:ななしいんく】 #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:04:20</t>
+  </si>
+  <si>
+    <t>0:13:41</t>
+  </si>
+  <si>
+    <t>0:28:53</t>
+  </si>
+  <si>
+    <t>0:43:29</t>
+  </si>
+  <si>
+    <t>0:50:08</t>
   </si>
 </sst>
 </file>
@@ -7806,7 +7932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7894,11 +8020,14 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8288,7 +8417,7 @@
       <c r="B2" s="15">
         <v>45774</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -8306,7 +8435,7 @@
       <c r="B3" s="15">
         <v>45775</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="16" t="s">
@@ -8360,7 +8489,7 @@
       <c r="B6" s="15">
         <v>45779</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="25" t="s">
         <v>90</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -8414,7 +8543,7 @@
       <c r="B9" s="15">
         <v>45785</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="25" t="s">
         <v>126</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -8450,7 +8579,7 @@
       <c r="B11" s="15">
         <v>45787</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="25" t="s">
         <v>170</v>
       </c>
       <c r="D11" s="16" t="s">
@@ -8504,7 +8633,7 @@
       <c r="B14" s="15">
         <v>45792</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="25" t="s">
         <v>211</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -8576,7 +8705,7 @@
       <c r="B18" s="15">
         <v>45802</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="25" t="s">
         <v>344</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -8594,7 +8723,7 @@
       <c r="B19" s="15">
         <v>45804</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="25" t="s">
         <v>349</v>
       </c>
       <c r="D19" s="16" t="s">
@@ -8648,7 +8777,7 @@
       <c r="B22" s="15">
         <v>45807</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="25" t="s">
         <v>396</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -8666,7 +8795,7 @@
       <c r="B23" s="15">
         <v>45808</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="25" t="s">
         <v>398</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -8773,7 +8902,7 @@
       <c r="B29" s="15">
         <v>45822</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="25" t="s">
         <v>584</v>
       </c>
       <c r="D29" s="19" t="s">
@@ -8827,7 +8956,7 @@
       <c r="B32" s="15">
         <v>45826</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="25" t="s">
         <v>684</v>
       </c>
       <c r="D32" s="19" t="s">
@@ -8845,7 +8974,7 @@
       <c r="B33" s="15">
         <v>45827</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="25" t="s">
         <v>686</v>
       </c>
       <c r="D33" s="19" t="s">
@@ -8881,7 +9010,7 @@
       <c r="B35" s="15">
         <v>45840</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="25" t="s">
         <v>722</v>
       </c>
       <c r="D35" s="19" t="s">
@@ -8899,7 +9028,7 @@
       <c r="B36" s="15">
         <v>45841</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="25" t="s">
         <v>724</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -8953,7 +9082,7 @@
       <c r="B39" s="15">
         <v>45847</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="25" t="s">
         <v>792</v>
       </c>
       <c r="D39" s="19" t="s">
@@ -8989,7 +9118,7 @@
       <c r="B41" s="15">
         <v>45848</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="25" t="s">
         <v>809</v>
       </c>
       <c r="D41" s="19" t="s">
@@ -9007,7 +9136,7 @@
       <c r="B42" s="15">
         <v>45848</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="25" t="s">
         <v>811</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -9025,7 +9154,7 @@
       <c r="B43" s="15">
         <v>45849</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="25" t="s">
         <v>813</v>
       </c>
       <c r="D43" s="19" t="s">
@@ -9043,7 +9172,7 @@
       <c r="B44" s="15">
         <v>45855</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="25" t="s">
         <v>819</v>
       </c>
       <c r="D44" s="19" t="s">
@@ -9079,7 +9208,7 @@
       <c r="B46" s="15">
         <v>45861</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="25" t="s">
         <v>841</v>
       </c>
       <c r="D46" s="19" t="s">
@@ -9115,7 +9244,7 @@
       <c r="B48" s="15">
         <v>45864</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="25" t="s">
         <v>895</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -9133,7 +9262,7 @@
       <c r="B49" s="15">
         <v>45864</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="25" t="s">
         <v>897</v>
       </c>
       <c r="D49" s="19" t="s">
@@ -9241,7 +9370,7 @@
       <c r="B55" s="15">
         <v>45876</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="29" t="s">
         <v>1028</v>
       </c>
       <c r="D55" s="19" t="s">
@@ -9259,7 +9388,7 @@
       <c r="B56" s="15">
         <v>45876</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="29" t="s">
         <v>1030</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -9295,7 +9424,7 @@
       <c r="B58" s="15">
         <v>45878</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="29" t="s">
         <v>1057</v>
       </c>
       <c r="D58" s="19" t="s">
@@ -9313,7 +9442,7 @@
       <c r="B59" s="15">
         <v>45879</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="29" t="s">
         <v>1059</v>
       </c>
       <c r="D59" s="19" t="s">
@@ -9331,7 +9460,7 @@
       <c r="B60" s="15">
         <v>45887</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="29" t="s">
         <v>1066</v>
       </c>
       <c r="D60" s="19" t="s">
@@ -9385,7 +9514,7 @@
       <c r="B63" s="15">
         <v>45892</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="29" t="s">
         <v>1108</v>
       </c>
       <c r="D63" s="19" t="s">
@@ -9403,7 +9532,7 @@
       <c r="B64" s="15">
         <v>45893</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="29" t="s">
         <v>1110</v>
       </c>
       <c r="D64" s="19" t="s">
@@ -9457,7 +9586,7 @@
       <c r="B67" s="15">
         <v>45900</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="29" t="s">
         <v>1161</v>
       </c>
       <c r="D67" s="19" t="s">
@@ -9493,7 +9622,7 @@
       <c r="B69" s="15">
         <v>45905</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="29" t="s">
         <v>1169</v>
       </c>
       <c r="D69" s="19" t="s">
@@ -9547,7 +9676,7 @@
       <c r="B72" s="15">
         <v>45908</v>
       </c>
-      <c r="C72" s="30" t="s">
+      <c r="C72" s="29" t="s">
         <v>1386</v>
       </c>
       <c r="D72" s="19" t="s">
@@ -9565,7 +9694,7 @@
       <c r="B73" s="15">
         <v>45910</v>
       </c>
-      <c r="C73" s="30" t="s">
+      <c r="C73" s="29" t="s">
         <v>1388</v>
       </c>
       <c r="D73" s="19" t="s">
@@ -9601,7 +9730,7 @@
       <c r="B75" s="15">
         <v>45912</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="29" t="s">
         <v>1419</v>
       </c>
       <c r="D75" s="19" t="s">
@@ -9637,7 +9766,7 @@
       <c r="B77" s="15">
         <v>45916</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="29" t="s">
         <v>1436</v>
       </c>
       <c r="D77" s="19" t="s">
@@ -9673,7 +9802,7 @@
       <c r="B79" s="15">
         <v>45919</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="29" t="s">
         <v>1458</v>
       </c>
       <c r="D79" s="19" t="s">
@@ -9727,7 +9856,7 @@
       <c r="B82" s="15">
         <v>45922</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="29" t="s">
         <v>1501</v>
       </c>
       <c r="D82" s="19" t="s">
@@ -9745,7 +9874,7 @@
       <c r="B83" s="15">
         <v>45922</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="C83" s="29" t="s">
         <v>1503</v>
       </c>
       <c r="D83" s="19" t="s">
@@ -9817,7 +9946,7 @@
       <c r="B87" s="15">
         <v>45931</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="29" t="s">
         <v>1583</v>
       </c>
       <c r="D87" s="19" t="s">
@@ -9835,7 +9964,7 @@
       <c r="B88" s="15">
         <v>45932</v>
       </c>
-      <c r="C88" s="30" t="s">
+      <c r="C88" s="29" t="s">
         <v>1584</v>
       </c>
       <c r="D88" s="19" t="s">
@@ -9907,7 +10036,7 @@
       <c r="B92" s="15">
         <v>45936</v>
       </c>
-      <c r="C92" s="30" t="s">
+      <c r="C92" s="29" t="s">
         <v>1701</v>
       </c>
       <c r="D92" s="19" t="s">
@@ -9961,7 +10090,7 @@
       <c r="B95" s="15">
         <v>45940</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="29" t="s">
         <v>1785</v>
       </c>
       <c r="D95" s="19" t="s">
@@ -9997,7 +10126,7 @@
       <c r="B97" s="15">
         <v>45947</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="C97" s="29" t="s">
         <v>1801</v>
       </c>
       <c r="D97" s="19" t="s">
@@ -10015,7 +10144,7 @@
       <c r="B98" s="15">
         <v>45949</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="29" t="s">
         <v>1803</v>
       </c>
       <c r="D98" s="19" t="s">
@@ -10087,7 +10216,7 @@
       <c r="B102" s="15">
         <v>45954</v>
       </c>
-      <c r="C102" s="30" t="s">
+      <c r="C102" s="29" t="s">
         <v>1879</v>
       </c>
       <c r="D102" s="19" t="s">
@@ -10105,7 +10234,7 @@
       <c r="B103" s="15">
         <v>45954</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="29" t="s">
         <v>1881</v>
       </c>
       <c r="D103" s="19" t="s">
@@ -10159,7 +10288,7 @@
       <c r="B106" s="15">
         <v>45959</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="C106" s="29" t="s">
         <v>1923</v>
       </c>
       <c r="D106" s="19" t="s">
@@ -10195,7 +10324,7 @@
       <c r="B108" s="15">
         <v>45961</v>
       </c>
-      <c r="C108" s="30" t="s">
+      <c r="C108" s="29" t="s">
         <v>1944</v>
       </c>
       <c r="D108" s="19" t="s">
@@ -10213,7 +10342,7 @@
       <c r="B109" s="15">
         <v>45963</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C109" s="29" t="s">
         <v>1946</v>
       </c>
       <c r="D109" s="19" t="s">
@@ -10231,7 +10360,7 @@
       <c r="B110" s="15">
         <v>45965</v>
       </c>
-      <c r="C110" s="30" t="s">
+      <c r="C110" s="29" t="s">
         <v>1948</v>
       </c>
       <c r="D110" s="19" t="s">
@@ -10249,7 +10378,7 @@
       <c r="B111" s="15">
         <v>45966</v>
       </c>
-      <c r="C111" s="30" t="s">
+      <c r="C111" s="29" t="s">
         <v>1950</v>
       </c>
       <c r="D111" s="19" t="s">
@@ -10285,7 +10414,7 @@
       <c r="B113" s="15">
         <v>45974</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="29" t="s">
         <v>1973</v>
       </c>
       <c r="D113" s="19" t="s">
@@ -10303,7 +10432,7 @@
       <c r="B114" s="15">
         <v>45977</v>
       </c>
-      <c r="C114" s="30" t="s">
+      <c r="C114" s="29" t="s">
         <v>1975</v>
       </c>
       <c r="D114" s="19" t="s">
@@ -10321,7 +10450,7 @@
       <c r="B115" s="15">
         <v>45980</v>
       </c>
-      <c r="C115" s="30" t="s">
+      <c r="C115" s="29" t="s">
         <v>1978</v>
       </c>
       <c r="D115" s="19" t="s">
@@ -10357,7 +10486,7 @@
       <c r="B117" s="15">
         <v>45982</v>
       </c>
-      <c r="C117" s="30" t="s">
+      <c r="C117" s="29" t="s">
         <v>1996</v>
       </c>
       <c r="D117" s="19" t="s">
@@ -10573,7 +10702,7 @@
       <c r="B129" s="15">
         <v>46002</v>
       </c>
-      <c r="C129" s="30" t="s">
+      <c r="C129" s="29" t="s">
         <v>2182</v>
       </c>
       <c r="D129" s="19" t="s">
@@ -10609,7 +10738,7 @@
       <c r="B131" s="15">
         <v>46004</v>
       </c>
-      <c r="C131" s="30" t="s">
+      <c r="C131" s="29" t="s">
         <v>2202</v>
       </c>
       <c r="D131" s="19" t="s">
@@ -10663,7 +10792,7 @@
       <c r="B134" s="15">
         <v>46009</v>
       </c>
-      <c r="C134" s="30" t="s">
+      <c r="C134" s="29" t="s">
         <v>2243</v>
       </c>
       <c r="D134" s="19" t="s">
@@ -10717,7 +10846,7 @@
       <c r="B137" s="15">
         <v>46011</v>
       </c>
-      <c r="C137" s="30" t="s">
+      <c r="C137" s="29" t="s">
         <v>2294</v>
       </c>
       <c r="D137" s="19" t="s">
@@ -10753,7 +10882,7 @@
       <c r="B139" s="28">
         <v>46015</v>
       </c>
-      <c r="C139" s="30" t="s">
+      <c r="C139" s="29" t="s">
         <v>2305</v>
       </c>
       <c r="D139" s="19" t="s">
@@ -10771,7 +10900,7 @@
       <c r="B140" s="15">
         <v>46016</v>
       </c>
-      <c r="C140" s="30" t="s">
+      <c r="C140" s="29" t="s">
         <v>2307</v>
       </c>
       <c r="D140" s="19" t="s">
@@ -10843,11 +10972,11 @@
       <c r="B144" s="15">
         <v>46019</v>
       </c>
-      <c r="C144" s="30" t="s">
+      <c r="C144" s="29" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D144" s="19" t="s">
         <v>2359</v>
-      </c>
-      <c r="D144" s="19" t="s">
-        <v>2360</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>627</v>
@@ -10858,17 +10987,17 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B145" s="28">
+      <c r="B145" s="31">
         <v>46019</v>
       </c>
-      <c r="C145" s="29" t="s">
+      <c r="C145" s="32" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D145" s="19" t="s">
         <v>2362</v>
       </c>
-      <c r="D145" s="19" t="s">
-        <v>2363</v>
-      </c>
       <c r="F145" s="1" t="s">
-        <v>2364</v>
+        <v>628</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
@@ -10879,11 +11008,11 @@
       <c r="B146" s="28">
         <v>46021</v>
       </c>
-      <c r="C146" s="30" t="s">
-        <v>2361</v>
+      <c r="C146" s="29" t="s">
+        <v>2360</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>627</v>
@@ -10894,27 +11023,54 @@
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="14"/>
+      <c r="B147" s="15">
+        <v>46026</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="14">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="14"/>
+      <c r="B148" s="15">
+        <v>46029</v>
+      </c>
+      <c r="C148" s="25" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="14">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B149" s="14"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="14"/>
+      <c r="B149" s="15">
+        <v>46030</v>
+      </c>
+      <c r="C149" s="25" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="14">
@@ -11173,9 +11329,12 @@
     <hyperlink ref="D144" r:id="rId143" xr:uid="{0CB59F1D-A4BF-416D-B8F8-3616350CD1E2}"/>
     <hyperlink ref="D145" r:id="rId144" xr:uid="{ED346E33-71CA-49A6-8687-778224D80A08}"/>
     <hyperlink ref="D146" r:id="rId145" xr:uid="{9978D53E-FC38-4B9A-8DAE-2705E1DD7F89}"/>
+    <hyperlink ref="D147" r:id="rId146" xr:uid="{729E1DA2-922A-4F61-8C4B-C6643C6F6C66}"/>
+    <hyperlink ref="D148" r:id="rId147" xr:uid="{F108337A-668F-4DBE-B5F8-55618D3C3E1E}"/>
+    <hyperlink ref="D149" r:id="rId148" xr:uid="{761AF7B4-200F-48AB-8BD5-DE27F30B0194}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId149"/>
 </worksheet>
 </file>
 
@@ -11184,7 +11343,7 @@
   <dimension ref="A1:AA1201"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -53128,7 +53287,7 @@
         <v>2357</v>
       </c>
       <c r="E1104" s="14" t="s">
-        <v>2358</v>
+        <v>347</v>
       </c>
       <c r="G1104" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1104,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
@@ -53156,29 +53315,36 @@
         <f t="shared" si="55"/>
         <v>1104</v>
       </c>
-      <c r="B1105" s="14"/>
-      <c r="C1105" s="18"/>
-      <c r="D1105" s="14"/>
-      <c r="E1105" s="14"/>
-      <c r="G1105" s="1">
-        <f>_xlfn.XLOOKUP(B1105,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1105" s="13" t="e">
+      <c r="B1105" s="14">
+        <v>144</v>
+      </c>
+      <c r="C1105" s="18" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D1105" s="14" t="s">
+        <v>2368</v>
+      </c>
+      <c r="E1105" s="14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G1105" s="30" t="s">
+        <v>2365</v>
+      </c>
+      <c r="W1105" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1105" s="12">
+        <v>1598</v>
+      </c>
+      <c r="X1105" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1105,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1105" s="16" t="e">
+        <v>https://www.youtube.com/live/CRuz_3IGzcI?si=4zCSejhZNR_9LYe8</v>
+      </c>
+      <c r="Z1105" s="16" t="str">
         <f>HYPERLINK($X1105&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1105))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/CRuz_3IGzcI?si=4zCSejhZNR_9LYe8&amp;t=1598s</v>
       </c>
       <c r="AA1105" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>Mrs. GREEN APPLE feat.井上苑子点描の唄(1chorus)</v>
       </c>
     </row>
     <row r="1106" spans="1:27" x14ac:dyDescent="0.4">
@@ -53186,29 +53352,36 @@
         <f t="shared" si="55"/>
         <v>1105</v>
       </c>
-      <c r="B1106" s="14"/>
-      <c r="C1106" s="18"/>
-      <c r="D1106" s="14"/>
-      <c r="E1106" s="14"/>
-      <c r="G1106" s="1">
-        <f>_xlfn.XLOOKUP(B1106,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1106" s="13" t="e">
+      <c r="B1106" s="14">
+        <v>144</v>
+      </c>
+      <c r="C1106" s="18" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D1106" s="14" t="s">
+        <v>2369</v>
+      </c>
+      <c r="E1106" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1106" s="30" t="s">
+        <v>2366</v>
+      </c>
+      <c r="W1106" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1106" s="12">
+        <v>1675</v>
+      </c>
+      <c r="X1106" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1106,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1106" s="16" t="e">
+        <v>https://www.youtube.com/live/CRuz_3IGzcI?si=4zCSejhZNR_9LYe8</v>
+      </c>
+      <c r="Z1106" s="16" t="str">
         <f>HYPERLINK($X1106&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1106))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/CRuz_3IGzcI?si=4zCSejhZNR_9LYe8&amp;t=1675s</v>
       </c>
       <c r="AA1106" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>なきそ feat.歌愛ユキド屑(1chorus)</v>
       </c>
     </row>
     <row r="1107" spans="1:27" x14ac:dyDescent="0.4">
@@ -53216,29 +53389,37 @@
         <f t="shared" si="55"/>
         <v>1106</v>
       </c>
-      <c r="B1107" s="14"/>
-      <c r="C1107" s="18"/>
-      <c r="D1107" s="14"/>
-      <c r="E1107" s="14"/>
-      <c r="G1107" s="1">
+      <c r="B1107" s="14">
+        <v>145</v>
+      </c>
+      <c r="C1107" s="21" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D1107" s="14" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E1107" s="14" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G1107" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1107,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1107" s="13" t="e">
+        <v>他</v>
+      </c>
+      <c r="W1107" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1107" s="12">
+        <v>2018</v>
+      </c>
+      <c r="X1107" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1107,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1107" s="16" t="e">
+        <v>https://www.youtube.com/live/IJunTLDD7I0?si=lhLUIzdM_Rtfr1c2</v>
+      </c>
+      <c r="Z1107" s="16" t="str">
         <f>HYPERLINK($X1107&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1107))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/IJunTLDD7I0?si=lhLUIzdM_Rtfr1c2&amp;t=2018s</v>
       </c>
       <c r="AA1107" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>ダンディさん(幽音しの(即興))レッツダンディ</v>
       </c>
     </row>
     <row r="1108" spans="1:27" x14ac:dyDescent="0.4">
@@ -53246,29 +53427,37 @@
         <f t="shared" si="55"/>
         <v>1107</v>
       </c>
-      <c r="B1108" s="14"/>
-      <c r="C1108" s="18"/>
-      <c r="D1108" s="14"/>
-      <c r="E1108" s="14"/>
-      <c r="G1108" s="1">
+      <c r="B1108" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1108" s="21" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D1108" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1108" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="G1108" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1108,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1108" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1108" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1108" s="12">
+        <v>320</v>
+      </c>
+      <c r="X1108" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1108,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1108" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1108" s="16" t="str">
         <f>HYPERLINK($X1108&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1108))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=320s</v>
       </c>
       <c r="AA1108" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>梅とら feat. 巡音ルカ&amp;初音ミク&amp;GUMI&amp;IA&amp;鏡音リン威風堂々</v>
       </c>
     </row>
     <row r="1109" spans="1:27" x14ac:dyDescent="0.4">
@@ -53276,29 +53465,37 @@
         <f t="shared" si="55"/>
         <v>1108</v>
       </c>
-      <c r="B1109" s="14"/>
-      <c r="C1109" s="18"/>
-      <c r="D1109" s="14"/>
-      <c r="E1109" s="14"/>
-      <c r="G1109" s="1">
+      <c r="B1109" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1109" s="21" t="s">
+        <v>2377</v>
+      </c>
+      <c r="D1109" s="14" t="s">
+        <v>2378</v>
+      </c>
+      <c r="E1109" s="14" t="s">
+        <v>2379</v>
+      </c>
+      <c r="G1109" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1109,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1109" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1109" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1109" s="12">
+        <v>640</v>
+      </c>
+      <c r="X1109" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1109,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1109" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1109" s="16" t="str">
         <f>HYPERLINK($X1109&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1109))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=640s</v>
       </c>
       <c r="AA1109" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>れるりり&amp;もじゃ feat .鏡音リン聖槍爆裂ボーイ</v>
       </c>
     </row>
     <row r="1110" spans="1:27" x14ac:dyDescent="0.4">
@@ -53306,29 +53503,37 @@
         <f t="shared" si="55"/>
         <v>1109</v>
       </c>
-      <c r="B1110" s="14"/>
-      <c r="C1110" s="18"/>
-      <c r="D1110" s="14"/>
-      <c r="E1110" s="14"/>
-      <c r="G1110" s="1">
+      <c r="B1110" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1110" s="21" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D1110" s="14" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E1110" s="14" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G1110" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1110,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1110" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1110" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1110" s="12">
+        <v>989</v>
+      </c>
+      <c r="X1110" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1110,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1110" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1110" s="16" t="str">
         <f>HYPERLINK($X1110&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1110))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=989s</v>
       </c>
       <c r="AA1110" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>れるりり feat.GUMIヤミタイガール</v>
       </c>
     </row>
     <row r="1111" spans="1:27" x14ac:dyDescent="0.4">
@@ -53336,29 +53541,37 @@
         <f t="shared" si="55"/>
         <v>1110</v>
       </c>
-      <c r="B1111" s="14"/>
-      <c r="C1111" s="18"/>
-      <c r="D1111" s="14"/>
-      <c r="E1111" s="14"/>
-      <c r="G1111" s="1">
+      <c r="B1111" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1111" s="21" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D1111" s="14" t="s">
+        <v>2382</v>
+      </c>
+      <c r="E1111" s="14" t="s">
+        <v>2383</v>
+      </c>
+      <c r="G1111" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1111,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1111" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1111" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1111" s="12">
+        <v>1369</v>
+      </c>
+      <c r="X1111" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1111,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1111" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1111" s="16" t="str">
         <f>HYPERLINK($X1111&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1111))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=1369s</v>
       </c>
       <c r="AA1111" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>ギガ&amp;q*Left feat.GUMIMasked bitcH</v>
       </c>
     </row>
     <row r="1112" spans="1:27" x14ac:dyDescent="0.4">
@@ -53366,29 +53579,37 @@
         <f t="shared" si="55"/>
         <v>1111</v>
       </c>
-      <c r="B1112" s="14"/>
-      <c r="C1112" s="18"/>
-      <c r="D1112" s="14"/>
-      <c r="E1112" s="14"/>
-      <c r="G1112" s="1">
+      <c r="B1112" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1112" s="21" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D1112" s="14" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E1112" s="14" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G1112" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1112,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1112" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1112" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1112" s="12">
+        <v>1700</v>
+      </c>
+      <c r="X1112" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1112,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1112" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1112" s="16" t="str">
         <f>HYPERLINK($X1112&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1112))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=1700s</v>
       </c>
       <c r="AA1112" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>蝶々P feat.初音ミクえ？あぁ、そう。</v>
       </c>
     </row>
     <row r="1113" spans="1:27" x14ac:dyDescent="0.4">
@@ -53396,29 +53617,37 @@
         <f t="shared" si="55"/>
         <v>1112</v>
       </c>
-      <c r="B1113" s="14"/>
-      <c r="C1113" s="18"/>
-      <c r="D1113" s="14"/>
-      <c r="E1113" s="14"/>
-      <c r="G1113" s="1">
+      <c r="B1113" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1113" s="21" t="s">
+        <v>2385</v>
+      </c>
+      <c r="D1113" s="14" t="s">
+        <v>2386</v>
+      </c>
+      <c r="E1113" s="14" t="s">
+        <v>2387</v>
+      </c>
+      <c r="G1113" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1113,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1113" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1113" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1113" s="12">
+        <v>2089</v>
+      </c>
+      <c r="X1113" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1113,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1113" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1113" s="16" t="str">
         <f>HYPERLINK($X1113&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1113))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=2089s</v>
       </c>
       <c r="AA1113" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>みきとP feat.GUMIバレリーコ</v>
       </c>
     </row>
     <row r="1114" spans="1:27" x14ac:dyDescent="0.4">
@@ -53426,29 +53655,37 @@
         <f t="shared" si="55"/>
         <v>1113</v>
       </c>
-      <c r="B1114" s="14"/>
-      <c r="C1114" s="18"/>
-      <c r="D1114" s="14"/>
-      <c r="E1114" s="14"/>
-      <c r="G1114" s="1">
+      <c r="B1114" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1114" s="21" t="s">
+        <v>2388</v>
+      </c>
+      <c r="D1114" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="E1114" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="G1114" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1114,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1114" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1114" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1114" s="12">
+        <v>2480</v>
+      </c>
+      <c r="X1114" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1114,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1114" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1114" s="16" t="str">
         <f>HYPERLINK($X1114&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1114))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=2480s</v>
       </c>
       <c r="AA1114" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>みきとP feat.MAYU夕立のりぼん</v>
       </c>
     </row>
     <row r="1115" spans="1:27" x14ac:dyDescent="0.4">
@@ -53456,29 +53693,37 @@
         <f t="shared" si="55"/>
         <v>1114</v>
       </c>
-      <c r="B1115" s="14"/>
-      <c r="C1115" s="18"/>
-      <c r="D1115" s="14"/>
-      <c r="E1115" s="14"/>
-      <c r="G1115" s="1">
+      <c r="B1115" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1115" s="21" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D1115" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="E1115" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="G1115" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1115,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1115" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1115" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1115" s="12">
+        <v>2985</v>
+      </c>
+      <c r="X1115" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1115,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1115" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1115" s="16" t="str">
         <f>HYPERLINK($X1115&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1115))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=2985s</v>
       </c>
       <c r="AA1115" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>梅とら feat. 巡音ルカ&amp;初音ミク&amp;GUMI&amp;IA&amp;鏡音リン虎視眈々</v>
       </c>
     </row>
     <row r="1116" spans="1:27" x14ac:dyDescent="0.4">
@@ -53486,29 +53731,37 @@
         <f t="shared" si="55"/>
         <v>1115</v>
       </c>
-      <c r="B1116" s="14"/>
-      <c r="C1116" s="18"/>
-      <c r="D1116" s="14"/>
-      <c r="E1116" s="14"/>
-      <c r="G1116" s="1">
+      <c r="B1116" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1116" s="21" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D1116" s="14" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E1116" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1116" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1116,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1116" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1116" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1116" s="12">
+        <v>3722</v>
+      </c>
+      <c r="X1116" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1116,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1116" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1116" s="16" t="str">
         <f>HYPERLINK($X1116&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1116))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=3722s</v>
       </c>
       <c r="AA1116" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>DECO*27 feat.初音ミクモニタリング</v>
       </c>
     </row>
     <row r="1117" spans="1:27" x14ac:dyDescent="0.4">
@@ -53516,29 +53769,37 @@
         <f t="shared" si="55"/>
         <v>1116</v>
       </c>
-      <c r="B1117" s="14"/>
-      <c r="C1117" s="18"/>
-      <c r="D1117" s="14"/>
-      <c r="E1117" s="14"/>
-      <c r="G1117" s="1">
+      <c r="B1117" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1117" s="21" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D1117" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="E1117" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1117" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1117,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1117" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1117" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1117" s="12">
+        <v>4172</v>
+      </c>
+      <c r="X1117" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1117,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1117" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1117" s="16" t="str">
         <f>HYPERLINK($X1117&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1117))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=4172s</v>
       </c>
       <c r="AA1117" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>なきそ feat.歌愛ユキド屑</v>
       </c>
     </row>
     <row r="1118" spans="1:27" x14ac:dyDescent="0.4">
@@ -53546,29 +53807,37 @@
         <f t="shared" si="55"/>
         <v>1117</v>
       </c>
-      <c r="B1118" s="14"/>
-      <c r="C1118" s="18"/>
-      <c r="D1118" s="14"/>
-      <c r="E1118" s="14"/>
-      <c r="G1118" s="1">
+      <c r="B1118" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1118" s="21" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D1118" s="14" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E1118" s="14" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G1118" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1118,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1118" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1118" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1118" s="12">
+        <v>4479</v>
+      </c>
+      <c r="X1118" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1118,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1118" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1118" s="16" t="str">
         <f>HYPERLINK($X1118&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1118))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=4479s</v>
       </c>
       <c r="AA1118" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>25時、ナイトコードで。×KAITO化けの花</v>
       </c>
     </row>
     <row r="1119" spans="1:27" x14ac:dyDescent="0.4">
@@ -53576,29 +53845,37 @@
         <f t="shared" si="55"/>
         <v>1118</v>
       </c>
-      <c r="B1119" s="14"/>
-      <c r="C1119" s="18"/>
-      <c r="D1119" s="14"/>
-      <c r="E1119" s="14"/>
-      <c r="G1119" s="1">
+      <c r="B1119" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1119" s="21" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D1119" s="14" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E1119" s="14" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G1119" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1119,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1119" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1119" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1119" s="12">
+        <v>4900</v>
+      </c>
+      <c r="X1119" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1119,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1119" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1119" s="16" t="str">
         <f>HYPERLINK($X1119&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1119))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=4900s</v>
       </c>
       <c r="AA1119" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>いよわ feat.可不きゅうくらりん</v>
       </c>
     </row>
     <row r="1120" spans="1:27" x14ac:dyDescent="0.4">
@@ -53606,29 +53883,37 @@
         <f t="shared" si="55"/>
         <v>1119</v>
       </c>
-      <c r="B1120" s="14"/>
-      <c r="C1120" s="18"/>
-      <c r="D1120" s="14"/>
-      <c r="E1120" s="14"/>
-      <c r="G1120" s="1">
+      <c r="B1120" s="14">
+        <v>147</v>
+      </c>
+      <c r="C1120" s="21" t="s">
+        <v>2395</v>
+      </c>
+      <c r="D1120" s="14" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E1120" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1120" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1120,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1120" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1120" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1120" s="12">
+        <v>5656</v>
+      </c>
+      <c r="X1120" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1120,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1120" s="16" t="e">
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy</v>
+      </c>
+      <c r="Z1120" s="16" t="str">
         <f>HYPERLINK($X1120&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1120))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/ivps1kBiaZY?si=JYr8YoP36SUYaFiy&amp;t=5656s</v>
       </c>
       <c r="AA1120" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>DECO*27 feat.初音ミク乙女解剖</v>
       </c>
     </row>
     <row r="1121" spans="1:27" x14ac:dyDescent="0.4">
@@ -53636,29 +53921,37 @@
         <f t="shared" si="55"/>
         <v>1120</v>
       </c>
-      <c r="B1121" s="14"/>
-      <c r="C1121" s="18"/>
-      <c r="D1121" s="14"/>
-      <c r="E1121" s="14"/>
-      <c r="G1121" s="1">
+      <c r="B1121" s="14">
+        <v>148</v>
+      </c>
+      <c r="C1121" s="21" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D1121" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1121" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1121" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1121,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1121" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1121" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1121" s="12">
+        <v>260</v>
+      </c>
+      <c r="X1121" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1121,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1121" s="16" t="e">
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR</v>
+      </c>
+      <c r="Z1121" s="16" t="str">
         <f>HYPERLINK($X1121&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1121))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR&amp;t=260s</v>
       </c>
       <c r="AA1121" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>あいみょんハルノヒ</v>
       </c>
     </row>
     <row r="1122" spans="1:27" x14ac:dyDescent="0.4">
@@ -53666,29 +53959,37 @@
         <f t="shared" si="55"/>
         <v>1121</v>
       </c>
-      <c r="B1122" s="14"/>
-      <c r="C1122" s="18"/>
-      <c r="D1122" s="14"/>
-      <c r="E1122" s="14"/>
-      <c r="G1122" s="1">
+      <c r="B1122" s="14">
+        <v>148</v>
+      </c>
+      <c r="C1122" s="21" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D1122" s="14" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E1122" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1122" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1122,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1122" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1122" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1122" s="12">
+        <v>820.99999999999989</v>
+      </c>
+      <c r="X1122" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1122,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1122" s="16" t="e">
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR</v>
+      </c>
+      <c r="Z1122" s="16" t="str">
         <f>HYPERLINK($X1122&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1122))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR&amp;t=821s</v>
       </c>
       <c r="AA1122" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>米津玄師vivi</v>
       </c>
     </row>
     <row r="1123" spans="1:27" x14ac:dyDescent="0.4">
@@ -53696,29 +53997,37 @@
         <f t="shared" si="55"/>
         <v>1122</v>
       </c>
-      <c r="B1123" s="14"/>
-      <c r="C1123" s="18"/>
-      <c r="D1123" s="14"/>
-      <c r="E1123" s="14"/>
-      <c r="G1123" s="1">
+      <c r="B1123" s="14">
+        <v>148</v>
+      </c>
+      <c r="C1123" s="21" t="s">
+        <v>962</v>
+      </c>
+      <c r="D1123" s="14" t="s">
+        <v>968</v>
+      </c>
+      <c r="E1123" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1123" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1123,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1123" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1123" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1123" s="12">
+        <v>1275</v>
+      </c>
+      <c r="X1123" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1123,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1123" s="16" t="e">
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR</v>
+      </c>
+      <c r="Z1123" s="16" t="str">
         <f>HYPERLINK($X1123&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1123))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR&amp;t=1275s</v>
       </c>
       <c r="AA1123" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>米津玄師Lemon</v>
       </c>
     </row>
     <row r="1124" spans="1:27" x14ac:dyDescent="0.4">
@@ -53726,29 +54035,37 @@
         <f t="shared" si="55"/>
         <v>1123</v>
       </c>
-      <c r="B1124" s="14"/>
-      <c r="C1124" s="18"/>
-      <c r="D1124" s="14"/>
-      <c r="E1124" s="14"/>
-      <c r="G1124" s="1">
+      <c r="B1124" s="14">
+        <v>148</v>
+      </c>
+      <c r="C1124" s="21" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D1124" s="14" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1124" s="14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G1124" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1124,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1124" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1124" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1124" s="12">
+        <v>1733.0000000000002</v>
+      </c>
+      <c r="X1124" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1124,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1124" s="16" t="e">
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR</v>
+      </c>
+      <c r="Z1124" s="16" t="str">
         <f>HYPERLINK($X1124&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1124))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR&amp;t=1733s</v>
       </c>
       <c r="AA1124" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>Mrs. GREEN APPLE feat.井上苑子点描の唄</v>
       </c>
     </row>
     <row r="1125" spans="1:27" x14ac:dyDescent="0.4">
@@ -53756,29 +54073,37 @@
         <f t="shared" si="55"/>
         <v>1124</v>
       </c>
-      <c r="B1125" s="14"/>
-      <c r="C1125" s="18"/>
-      <c r="D1125" s="14"/>
-      <c r="E1125" s="14"/>
-      <c r="G1125" s="1">
+      <c r="B1125" s="14">
+        <v>148</v>
+      </c>
+      <c r="C1125" s="21" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D1125" s="14" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E1125" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1125" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1125,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1125" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1125" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1125" s="12">
+        <v>2211</v>
+      </c>
+      <c r="X1125" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1125,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1125" s="16" t="e">
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR</v>
+      </c>
+      <c r="Z1125" s="16" t="str">
         <f>HYPERLINK($X1125&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1125))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR&amp;t=2211s</v>
       </c>
       <c r="AA1125" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>ヨルシカ忘れてください</v>
       </c>
     </row>
     <row r="1126" spans="1:27" x14ac:dyDescent="0.4">
@@ -53786,29 +54111,37 @@
         <f t="shared" si="55"/>
         <v>1125</v>
       </c>
-      <c r="B1126" s="14"/>
-      <c r="C1126" s="18"/>
-      <c r="D1126" s="14"/>
-      <c r="E1126" s="14"/>
-      <c r="G1126" s="1">
+      <c r="B1126" s="14">
+        <v>148</v>
+      </c>
+      <c r="C1126" s="21" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D1126" s="14" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E1126" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1126" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1126,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1126" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1126" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1126" s="12">
+        <v>2609</v>
+      </c>
+      <c r="X1126" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1126,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1126" s="16" t="e">
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR</v>
+      </c>
+      <c r="Z1126" s="16" t="str">
         <f>HYPERLINK($X1126&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1126))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR&amp;t=2609s</v>
       </c>
       <c r="AA1126" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>優里ベテルギウス</v>
       </c>
     </row>
     <row r="1127" spans="1:27" x14ac:dyDescent="0.4">
@@ -53816,29 +54149,37 @@
         <f t="shared" si="55"/>
         <v>1126</v>
       </c>
-      <c r="B1127" s="14"/>
-      <c r="C1127" s="18"/>
-      <c r="D1127" s="14"/>
-      <c r="E1127" s="14"/>
-      <c r="G1127" s="1">
+      <c r="B1127" s="14">
+        <v>148</v>
+      </c>
+      <c r="C1127" s="21" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D1127" s="14" t="s">
+        <v>2188</v>
+      </c>
+      <c r="E1127" s="14" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G1127" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1127,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1127" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1127" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1127" s="12">
+        <v>3008</v>
+      </c>
+      <c r="X1127" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1127,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1127" s="16" t="e">
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR</v>
+      </c>
+      <c r="Z1127" s="16" t="str">
         <f>HYPERLINK($X1127&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1127))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR&amp;t=3008s</v>
       </c>
       <c r="AA1127" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>コレサワたばこ</v>
       </c>
     </row>
     <row r="1128" spans="1:27" x14ac:dyDescent="0.4">
@@ -53846,29 +54187,37 @@
         <f t="shared" si="55"/>
         <v>1127</v>
       </c>
-      <c r="B1128" s="14"/>
-      <c r="C1128" s="18"/>
-      <c r="D1128" s="14"/>
-      <c r="E1128" s="14"/>
-      <c r="G1128" s="1">
+      <c r="B1128" s="14">
+        <v>148</v>
+      </c>
+      <c r="C1128" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1128" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="E1128" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="G1128" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1128,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1128" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1128" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1128" s="12">
+        <v>3425</v>
+      </c>
+      <c r="X1128" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1128,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1128" s="16" t="e">
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR</v>
+      </c>
+      <c r="Z1128" s="16" t="str">
         <f>HYPERLINK($X1128&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1128))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR&amp;t=3425s</v>
       </c>
       <c r="AA1128" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>スキマスイッチ奏</v>
       </c>
     </row>
     <row r="1129" spans="1:27" x14ac:dyDescent="0.4">
@@ -53876,29 +54225,37 @@
         <f t="shared" si="55"/>
         <v>1128</v>
       </c>
-      <c r="B1129" s="14"/>
-      <c r="C1129" s="18"/>
-      <c r="D1129" s="14"/>
-      <c r="E1129" s="14"/>
-      <c r="G1129" s="1">
+      <c r="B1129" s="14">
+        <v>148</v>
+      </c>
+      <c r="C1129" s="21" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D1129" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1129" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1129" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1129,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1129" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1129" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1129" s="12">
+        <v>3930</v>
+      </c>
+      <c r="X1129" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1129,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1129" s="16" t="e">
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR</v>
+      </c>
+      <c r="Z1129" s="16" t="str">
         <f>HYPERLINK($X1129&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1129))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/eoOU4nEz4Yk?si=whVwZgpMk4twa4IR&amp;t=3930s</v>
       </c>
       <c r="AA1129" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>Vaundy踊り子</v>
       </c>
     </row>
     <row r="1130" spans="1:27" x14ac:dyDescent="0.4">

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitLocal\shinoutatime-streamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FB551E-14DE-48F4-B755-2380262C51D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6F0CCD-BD13-4331-8F5F-2397D19BC435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A3198A5-688A-495F-A904-EF8FE4BE0835}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="2404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="2487">
   <si>
     <t>ID</t>
   </si>
@@ -7718,6 +7718,296 @@
   <si>
     <t>0:50:08</t>
   </si>
+  <si>
+    <r>
+      <t>【 #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ななし新春歌枠リレー 】思わず空に浮いちゃうような弾き語りをお届け！【幽音しの:ななしいんく】 #vsinger #歌枠</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/TQC6YXjwtgA?si=BdfZ9GrSmS7Xrso8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランカ・リー＝中島愛</t>
+  </si>
+  <si>
+    <t>神のまにまに</t>
+  </si>
+  <si>
+    <t>れるりり</t>
+  </si>
+  <si>
+    <t>0:00:53</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:05:02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:13:12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:20:01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:25:37</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【利用規約に同意したい】たくさん同意してやんよ！【幽音しの:ななしいんく】　 #vsinger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/RG3JLadSsgo?si=5uyNEGK1qEZGuULU</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【#弾き語り】かっこよく！男性アーティスト縛り歌枠です！【幽音しの:ななしいんく】 #karaoke #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:04:24</t>
+  </si>
+  <si>
+    <t>0:10:26</t>
+  </si>
+  <si>
+    <t>0:25:13</t>
+  </si>
+  <si>
+    <t>夜の踊り子</t>
+  </si>
+  <si>
+    <t>0:41:04</t>
+  </si>
+  <si>
+    <t>0:48:50</t>
+  </si>
+  <si>
+    <t>0:55:25</t>
+  </si>
+  <si>
+    <t>TK from 凛として時雨</t>
+  </si>
+  <si>
+    <t>1:09:58</t>
+  </si>
+  <si>
+    <t>1:16:52</t>
+  </si>
+  <si>
+    <t>1:24:58</t>
+  </si>
+  <si>
+    <t>1:30:33</t>
+  </si>
+  <si>
+    <t>Help! (1chorus)</t>
+  </si>
+  <si>
+    <t>The Beatles</t>
+  </si>
+  <si>
+    <t>1:35:06</t>
+  </si>
+  <si>
+    <t>スターライトパレード</t>
+  </si>
+  <si>
+    <t>SEKAI NO OWARI</t>
+  </si>
+  <si>
+    <t>1:41:53</t>
+  </si>
+  <si>
+    <t>マツケンサンバⅡ (1chorus)</t>
+  </si>
+  <si>
+    <t>松平健</t>
+  </si>
+  <si>
+    <t>1:47:16</t>
+  </si>
+  <si>
+    <t>完全感覚Dreamer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マツケンサンバⅡ (1chorus)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【#ななしマイクラビンゴ】情熱の赤！！！それは勝利の色！！【幽音しの:ななしいんく】　#vsinger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/UPM7MQfPoU8?si=59I5bWXIdcPJmj6G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【歌枠】気ままにカラオケを楽しむ配信！！【幽音しの:ななしいんく】　#shorts #vsinger #歌枠</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:04:04</t>
+  </si>
+  <si>
+    <t>0:11:26</t>
+  </si>
+  <si>
+    <t>ヤマダ電機の歌</t>
+  </si>
+  <si>
+    <t>富田伊知郎(ミラクル・ヴォウス)</t>
+  </si>
+  <si>
+    <t>0:18:50</t>
+  </si>
+  <si>
+    <t>ヨドバシカメラの歌</t>
+  </si>
+  <si>
+    <t>ヨドバシカメラ</t>
+  </si>
+  <si>
+    <t>0:22:33</t>
+  </si>
+  <si>
+    <t>MIRACLE SHOPPING〜ドン・キホーテのテーマ〜</t>
+  </si>
+  <si>
+    <t>田中マイミ</t>
+  </si>
+  <si>
+    <t>0:27:38</t>
+  </si>
+  <si>
+    <t>0:35:30</t>
+  </si>
+  <si>
+    <t>W/X/Y</t>
+  </si>
+  <si>
+    <t>Tani Yuuki</t>
+  </si>
+  <si>
+    <t>0:48:46</t>
+  </si>
+  <si>
+    <t>シュガーソングとビターステップ (リクエスト)</t>
+  </si>
+  <si>
+    <t>0:55:24</t>
+  </si>
+  <si>
+    <t>1:00:16</t>
+  </si>
+  <si>
+    <t>unlasting (Tv size)</t>
+  </si>
+  <si>
+    <t>1:03:26</t>
+  </si>
+  <si>
+    <t>1:16:40</t>
+  </si>
+  <si>
+    <t>君のせい (Tv size)</t>
+  </si>
+  <si>
+    <t>1:22:27</t>
+  </si>
+  <si>
+    <t>ADAMAS</t>
+  </si>
+  <si>
+    <t>【#弾き語り】ただいま！深夜定期弾き語り歌枠【幽音しの:ななしいんく】 #karaoke #歌枠 #shorts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0:06:59</t>
+  </si>
+  <si>
+    <t>0:12:58</t>
+  </si>
+  <si>
+    <t>久しぶりだねの歌</t>
+  </si>
+  <si>
+    <t>0:24:32</t>
+  </si>
+  <si>
+    <t>0:30:30</t>
+  </si>
+  <si>
+    <t>0:37:10</t>
+  </si>
+  <si>
+    <t>0:43:33</t>
+  </si>
+  <si>
+    <t>0:49:52</t>
+  </si>
+  <si>
+    <t>0:55:55</t>
+  </si>
+  <si>
+    <t>1:05:42</t>
+  </si>
+  <si>
+    <t>1:13:45</t>
+  </si>
+  <si>
+    <t>1:21:21</t>
+  </si>
+  <si>
+    <t>1:29:36</t>
+  </si>
+  <si>
+    <t>1:36:03</t>
+  </si>
+  <si>
+    <t>1:44:36</t>
+  </si>
+  <si>
+    <t>1:52:49</t>
+  </si>
 </sst>
 </file>
 
@@ -7726,7 +8016,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7779,6 +8069,13 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -7932,7 +8229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8026,11 +8323,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8372,13 +8666,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E856D2-B155-4BD9-995B-24668BA721A9}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -10732,7 +11026,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="14">
-        <f t="shared" ref="A131:A161" si="2">ROW()-1</f>
+        <f t="shared" ref="A131:A194" si="2">ROW()-1</f>
         <v>130</v>
       </c>
       <c r="B131" s="15">
@@ -10987,10 +11281,10 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B145" s="31">
+      <c r="B145" s="15">
         <v>46019</v>
       </c>
-      <c r="C145" s="32" t="s">
+      <c r="C145" s="25" t="s">
         <v>2361</v>
       </c>
       <c r="D145" s="19" t="s">
@@ -11072,59 +11366,113 @@
         <v>628</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A150" s="14">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B150" s="14"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="14"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B150" s="15">
+        <v>46031</v>
+      </c>
+      <c r="C150" s="25" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D150" s="31" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A151" s="14">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B151" s="14"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="14"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B151" s="15">
+        <v>46032</v>
+      </c>
+      <c r="C151" s="25" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A152" s="14">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B152" s="14"/>
-      <c r="C152" s="25"/>
-      <c r="D152" s="14"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B152" s="15">
+        <v>46033</v>
+      </c>
+      <c r="C152" s="25" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D152" s="31" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A153" s="14">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="B153" s="14"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="14"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B153" s="15">
+        <v>46035</v>
+      </c>
+      <c r="C153" s="25" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D153" s="31" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A154" s="14">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="B154" s="14"/>
-      <c r="C154" s="25"/>
-      <c r="D154" s="14"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B154" s="15">
+        <v>46036</v>
+      </c>
+      <c r="C154" s="25" t="s">
+        <v>2443</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>2444</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A155" s="14">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B155" s="14"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="14"/>
+      <c r="B155" s="15">
+        <v>46037</v>
+      </c>
+      <c r="C155" s="25" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="14">
@@ -11179,6 +11527,366 @@
       <c r="B161" s="14"/>
       <c r="C161" s="25"/>
       <c r="D161" s="14"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" s="14">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="14"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="14"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="14">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B163" s="14"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="14"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="14">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B164" s="14"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="14"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="14">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="14"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="14"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" s="14">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="14"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="14"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="14">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="14"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="14"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" s="14">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="14"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="14"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="14">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="14"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="14"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" s="14">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="14"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="14"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" s="14">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="14"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="14"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" s="14">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="14"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="14"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" s="14">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="14"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="14"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" s="14">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="14"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="14"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="14">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="14"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="14"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" s="14">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="14"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="14"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="14">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B177" s="14"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="14"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" s="14">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="14"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="14"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" s="14">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="14"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="14"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" s="14">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="14"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="14"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="14">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="14"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="14"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" s="14">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="14"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="14"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" s="14">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="14"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="14"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" s="14">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="14"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="14"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="14">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="14"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="14"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" s="14">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="14"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="14"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="14">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="14"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="14"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" s="14">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="14"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="14"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="14">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="14"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="14"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="14">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="14"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="14"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="14">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B191" s="14"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="14"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="14">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B192" s="14"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="14"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="14">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B193" s="14"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="14"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="14">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B194" s="14"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="14"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" s="14">
+        <f t="shared" ref="A195:A201" si="3">ROW()-1</f>
+        <v>194</v>
+      </c>
+      <c r="B195" s="14"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="14"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="14">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="B196" s="14"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="14"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="14">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="14"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="14"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="14">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="14"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="14"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="14">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="14"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="14"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="14">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="14"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="14"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" s="14">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="14"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F161" xr:uid="{B6E856D2-B155-4BD9-995B-24668BA721A9}"/>
@@ -11332,9 +12040,15 @@
     <hyperlink ref="D147" r:id="rId146" xr:uid="{729E1DA2-922A-4F61-8C4B-C6643C6F6C66}"/>
     <hyperlink ref="D148" r:id="rId147" xr:uid="{F108337A-668F-4DBE-B5F8-55618D3C3E1E}"/>
     <hyperlink ref="D149" r:id="rId148" xr:uid="{761AF7B4-200F-48AB-8BD5-DE27F30B0194}"/>
+    <hyperlink ref="D150" r:id="rId149" xr:uid="{C5DE4647-4417-4386-AFD7-64A8B3AAF28C}"/>
+    <hyperlink ref="D151" r:id="rId150" xr:uid="{56A10DD2-7F91-4739-A64D-E79CDFE814E7}"/>
+    <hyperlink ref="D152" r:id="rId151" xr:uid="{8653A927-BB8F-433D-A62B-B58326997E2E}"/>
+    <hyperlink ref="D153" r:id="rId152" xr:uid="{ABEDC85A-98A9-4C27-B1B8-13EFBC29EB86}"/>
+    <hyperlink ref="D154" r:id="rId153" xr:uid="{816F7237-02CC-423E-A706-F7C64B4DFD51}"/>
+    <hyperlink ref="D155" r:id="rId154" xr:uid="{38F68D24-EB3B-4609-A9D7-55198A25E54E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId149"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId155"/>
 </worksheet>
 </file>
 
@@ -11343,10 +12057,10 @@
   <dimension ref="A1:AA1201"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C1166" sqref="C1166:C1183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -54263,29 +54977,37 @@
         <f t="shared" si="55"/>
         <v>1129</v>
       </c>
-      <c r="B1130" s="14"/>
-      <c r="C1130" s="18"/>
-      <c r="D1130" s="14"/>
-      <c r="E1130" s="14"/>
-      <c r="G1130" s="1">
+      <c r="B1130" s="14">
+        <v>149</v>
+      </c>
+      <c r="C1130" s="21" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D1130" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="E1130" s="14" t="s">
+        <v>2406</v>
+      </c>
+      <c r="G1130" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1130,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1130" s="13" t="e">
+        <v>他</v>
+      </c>
+      <c r="W1130" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1130" s="12">
+        <v>53</v>
+      </c>
+      <c r="X1130" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1130,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1130" s="16" t="e">
+        <v>https://www.youtube.com/live/TQC6YXjwtgA?si=BdfZ9GrSmS7Xrso8</v>
+      </c>
+      <c r="Z1130" s="16" t="str">
         <f>HYPERLINK($X1130&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1130))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TQC6YXjwtgA?si=BdfZ9GrSmS7Xrso8&amp;t=53s</v>
       </c>
       <c r="AA1130" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>ランカ・リー＝中島愛星間飛行</v>
       </c>
     </row>
     <row r="1131" spans="1:27" x14ac:dyDescent="0.4">
@@ -54293,29 +55015,37 @@
         <f t="shared" si="55"/>
         <v>1130</v>
       </c>
-      <c r="B1131" s="14"/>
-      <c r="C1131" s="18"/>
-      <c r="D1131" s="14"/>
-      <c r="E1131" s="14"/>
-      <c r="G1131" s="1">
+      <c r="B1131" s="14">
+        <v>149</v>
+      </c>
+      <c r="C1131" s="21" t="s">
+        <v>2410</v>
+      </c>
+      <c r="D1131" s="14" t="s">
+        <v>2407</v>
+      </c>
+      <c r="E1131" s="14" t="s">
+        <v>2408</v>
+      </c>
+      <c r="G1131" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1131,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1131" s="13" t="e">
+        <v>他</v>
+      </c>
+      <c r="W1131" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1131" s="12">
+        <v>302</v>
+      </c>
+      <c r="X1131" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1131,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1131" s="16" t="e">
+        <v>https://www.youtube.com/live/TQC6YXjwtgA?si=BdfZ9GrSmS7Xrso8</v>
+      </c>
+      <c r="Z1131" s="16" t="str">
         <f>HYPERLINK($X1131&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1131))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TQC6YXjwtgA?si=BdfZ9GrSmS7Xrso8&amp;t=302s</v>
       </c>
       <c r="AA1131" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>れるりり神のまにまに</v>
       </c>
     </row>
     <row r="1132" spans="1:27" x14ac:dyDescent="0.4">
@@ -54323,29 +55053,37 @@
         <f t="shared" si="55"/>
         <v>1131</v>
       </c>
-      <c r="B1132" s="14"/>
-      <c r="C1132" s="18"/>
-      <c r="D1132" s="14"/>
-      <c r="E1132" s="14"/>
-      <c r="G1132" s="1">
+      <c r="B1132" s="14">
+        <v>149</v>
+      </c>
+      <c r="C1132" s="21" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D1132" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1132" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1132" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1132,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1132" s="13" t="e">
+        <v>他</v>
+      </c>
+      <c r="W1132" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1132" s="12">
+        <v>792</v>
+      </c>
+      <c r="X1132" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1132,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1132" s="16" t="e">
+        <v>https://www.youtube.com/live/TQC6YXjwtgA?si=BdfZ9GrSmS7Xrso8</v>
+      </c>
+      <c r="Z1132" s="16" t="str">
         <f>HYPERLINK($X1132&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1132))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TQC6YXjwtgA?si=BdfZ9GrSmS7Xrso8&amp;t=792s</v>
       </c>
       <c r="AA1132" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>レミオロメン粉雪</v>
       </c>
     </row>
     <row r="1133" spans="1:27" x14ac:dyDescent="0.4">
@@ -54353,29 +55091,37 @@
         <f t="shared" si="55"/>
         <v>1132</v>
       </c>
-      <c r="B1133" s="14"/>
-      <c r="C1133" s="18"/>
-      <c r="D1133" s="14"/>
-      <c r="E1133" s="14"/>
-      <c r="G1133" s="1">
+      <c r="B1133" s="14">
+        <v>149</v>
+      </c>
+      <c r="C1133" s="21" t="s">
+        <v>2412</v>
+      </c>
+      <c r="D1133" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1133" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1133" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1133,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1133" s="13" t="e">
+        <v>他</v>
+      </c>
+      <c r="W1133" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1133" s="12">
+        <v>1201</v>
+      </c>
+      <c r="X1133" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1133,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1133" s="16" t="e">
+        <v>https://www.youtube.com/live/TQC6YXjwtgA?si=BdfZ9GrSmS7Xrso8</v>
+      </c>
+      <c r="Z1133" s="16" t="str">
         <f>HYPERLINK($X1133&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1133))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TQC6YXjwtgA?si=BdfZ9GrSmS7Xrso8&amp;t=1201s</v>
       </c>
       <c r="AA1133" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>やなぎなぎユキトキ</v>
       </c>
     </row>
     <row r="1134" spans="1:27" x14ac:dyDescent="0.4">
@@ -54383,29 +55129,37 @@
         <f t="shared" si="55"/>
         <v>1133</v>
       </c>
-      <c r="B1134" s="14"/>
-      <c r="C1134" s="18"/>
-      <c r="D1134" s="14"/>
-      <c r="E1134" s="14"/>
-      <c r="G1134" s="1">
+      <c r="B1134" s="14">
+        <v>149</v>
+      </c>
+      <c r="C1134" s="21" t="s">
+        <v>2413</v>
+      </c>
+      <c r="D1134" s="14" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E1134" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="G1134" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1134,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1134" s="13" t="e">
+        <v>他</v>
+      </c>
+      <c r="W1134" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1134" s="12">
+        <v>1537</v>
+      </c>
+      <c r="X1134" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1134,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1134" s="16" t="e">
+        <v>https://www.youtube.com/live/TQC6YXjwtgA?si=BdfZ9GrSmS7Xrso8</v>
+      </c>
+      <c r="Z1134" s="16" t="str">
         <f>HYPERLINK($X1134&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1134))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/TQC6YXjwtgA?si=BdfZ9GrSmS7Xrso8&amp;t=1537s</v>
       </c>
       <c r="AA1134" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>幽音しのFrom now on</v>
       </c>
     </row>
     <row r="1135" spans="1:27" x14ac:dyDescent="0.4">
@@ -54413,29 +55167,37 @@
         <f t="shared" si="55"/>
         <v>1134</v>
       </c>
-      <c r="B1135" s="14"/>
-      <c r="C1135" s="18"/>
-      <c r="D1135" s="14"/>
-      <c r="E1135" s="14"/>
-      <c r="G1135" s="1">
+      <c r="B1135" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1135" s="21" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D1135" s="14" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E1135" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1135" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1135,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1135" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1135" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1135" s="12">
+        <v>264</v>
+      </c>
+      <c r="X1135" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1135,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1135" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1135" s="16" t="str">
         <f>HYPERLINK($X1135&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1135))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=264s</v>
       </c>
       <c r="AA1135" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>Mrs. GREEN APPLEWanteD! WanteD!</v>
       </c>
     </row>
     <row r="1136" spans="1:27" x14ac:dyDescent="0.4">
@@ -54443,29 +55205,37 @@
         <f t="shared" si="55"/>
         <v>1135</v>
       </c>
-      <c r="B1136" s="14"/>
-      <c r="C1136" s="18"/>
-      <c r="D1136" s="14"/>
-      <c r="E1136" s="14"/>
-      <c r="G1136" s="1">
+      <c r="B1136" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1136" s="21" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D1136" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1136" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1136" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1136,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1136" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1136" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1136" s="12">
+        <v>626</v>
+      </c>
+      <c r="X1136" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1136,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1136" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1136" s="16" t="str">
         <f>HYPERLINK($X1136&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1136))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=626s</v>
       </c>
       <c r="AA1136" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>Vaundy花占い</v>
       </c>
     </row>
     <row r="1137" spans="1:27" x14ac:dyDescent="0.4">
@@ -54473,29 +55243,37 @@
         <f t="shared" si="55"/>
         <v>1136</v>
       </c>
-      <c r="B1137" s="14"/>
-      <c r="C1137" s="18"/>
-      <c r="D1137" s="14"/>
-      <c r="E1137" s="14"/>
-      <c r="G1137" s="1">
+      <c r="B1137" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1137" s="21" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D1137" s="14" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E1137" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="G1137" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1137,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1137" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1137" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1137" s="12">
+        <v>1083</v>
+      </c>
+      <c r="X1137" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1137,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1137" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1137" s="16" t="str">
         <f>HYPERLINK($X1137&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1137))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=1083s</v>
       </c>
       <c r="AA1137" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>RADWIMPS前前前世</v>
       </c>
     </row>
     <row r="1138" spans="1:27" x14ac:dyDescent="0.4">
@@ -54503,29 +55281,37 @@
         <f t="shared" si="55"/>
         <v>1137</v>
       </c>
-      <c r="B1138" s="14"/>
-      <c r="C1138" s="18"/>
-      <c r="D1138" s="14"/>
-      <c r="E1138" s="14"/>
-      <c r="G1138" s="1">
+      <c r="B1138" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1138" s="21" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D1138" s="14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E1138" s="14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G1138" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1138,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1138" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1138" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1138" s="12">
+        <v>1513</v>
+      </c>
+      <c r="X1138" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1138,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1138" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1138" s="16" t="str">
         <f>HYPERLINK($X1138&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1138))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=1513s</v>
       </c>
       <c r="AA1138" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>BUMP OF CHICKEN天体観測</v>
       </c>
     </row>
     <row r="1139" spans="1:27" x14ac:dyDescent="0.4">
@@ -54533,29 +55319,37 @@
         <f t="shared" si="55"/>
         <v>1138</v>
       </c>
-      <c r="B1139" s="14"/>
-      <c r="C1139" s="18"/>
-      <c r="D1139" s="14"/>
-      <c r="E1139" s="14"/>
-      <c r="G1139" s="1">
+      <c r="B1139" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1139" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1139" s="14" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E1139" s="14" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G1139" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1139,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1139" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1139" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1139" s="12">
+        <v>2050</v>
+      </c>
+      <c r="X1139" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1139,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1139" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1139" s="16" t="str">
         <f>HYPERLINK($X1139&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1139))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=2050s</v>
       </c>
       <c r="AA1139" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>サカナクション夜の踊り子</v>
       </c>
     </row>
     <row r="1140" spans="1:27" x14ac:dyDescent="0.4">
@@ -54563,29 +55357,37 @@
         <f t="shared" si="55"/>
         <v>1139</v>
       </c>
-      <c r="B1140" s="14"/>
-      <c r="C1140" s="18"/>
-      <c r="D1140" s="14"/>
-      <c r="E1140" s="14"/>
-      <c r="G1140" s="1">
+      <c r="B1140" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1140" s="21" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D1140" s="14" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E1140" s="14" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G1140" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1140,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1140" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1140" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1140" s="12">
+        <v>2464</v>
+      </c>
+      <c r="X1140" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1140,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1140" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1140" s="16" t="str">
         <f>HYPERLINK($X1140&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1140))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=2464s</v>
       </c>
       <c r="AA1140" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>Mr.ChildrenHANABI</v>
       </c>
     </row>
     <row r="1141" spans="1:27" x14ac:dyDescent="0.4">
@@ -54593,29 +55395,37 @@
         <f t="shared" si="55"/>
         <v>1140</v>
       </c>
-      <c r="B1141" s="14"/>
-      <c r="C1141" s="18"/>
-      <c r="D1141" s="14"/>
-      <c r="E1141" s="14"/>
-      <c r="G1141" s="1">
+      <c r="B1141" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1141" s="21" t="s">
+        <v>2423</v>
+      </c>
+      <c r="D1141" s="14" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E1141" s="14" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G1141" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1141,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1141" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1141" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1141" s="12">
+        <v>2930</v>
+      </c>
+      <c r="X1141" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1141,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1141" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1141" s="16" t="str">
         <f>HYPERLINK($X1141&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1141))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=2930s</v>
       </c>
       <c r="AA1141" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>flumpool君に届け</v>
       </c>
     </row>
     <row r="1142" spans="1:27" x14ac:dyDescent="0.4">
@@ -54623,29 +55433,37 @@
         <f t="shared" si="55"/>
         <v>1141</v>
       </c>
-      <c r="B1142" s="14"/>
-      <c r="C1142" s="18"/>
-      <c r="D1142" s="14"/>
-      <c r="E1142" s="14"/>
-      <c r="G1142" s="1">
+      <c r="B1142" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1142" s="21" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D1142" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1142" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1142" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1142,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1142" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1142" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1142" s="12">
+        <v>3325</v>
+      </c>
+      <c r="X1142" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1142,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1142" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1142" s="16" t="str">
         <f>HYPERLINK($X1142&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1142))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=3325s</v>
       </c>
       <c r="AA1142" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>Official髭男dismノーダウト</v>
       </c>
     </row>
     <row r="1143" spans="1:27" x14ac:dyDescent="0.4">
@@ -54653,29 +55471,37 @@
         <f t="shared" si="55"/>
         <v>1142</v>
       </c>
-      <c r="B1143" s="14"/>
-      <c r="C1143" s="18"/>
-      <c r="D1143" s="14"/>
-      <c r="E1143" s="14"/>
-      <c r="G1143" s="1">
+      <c r="B1143" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1143" s="21" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D1143" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1143" s="14" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G1143" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1143,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1143" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1143" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1143" s="12">
+        <v>3722</v>
+      </c>
+      <c r="X1143" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1143,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1143" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1143" s="16" t="str">
         <f>HYPERLINK($X1143&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1143))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=3722s</v>
       </c>
       <c r="AA1143" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>TK from 凛として時雨unravel</v>
       </c>
     </row>
     <row r="1144" spans="1:27" x14ac:dyDescent="0.4">
@@ -54683,29 +55509,37 @@
         <f t="shared" si="55"/>
         <v>1143</v>
       </c>
-      <c r="B1144" s="14"/>
-      <c r="C1144" s="18"/>
-      <c r="D1144" s="14"/>
-      <c r="E1144" s="14"/>
-      <c r="G1144" s="1">
+      <c r="B1144" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1144" s="21" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D1144" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1144" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1144" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1144,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1144" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1144" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1144" s="12">
+        <v>4198</v>
+      </c>
+      <c r="X1144" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1144,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1144" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1144" s="16" t="str">
         <f>HYPERLINK($X1144&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1144))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=4198s</v>
       </c>
       <c r="AA1144" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>Saucy Dogシンデレラボーイ</v>
       </c>
     </row>
     <row r="1145" spans="1:27" x14ac:dyDescent="0.4">
@@ -54713,29 +55547,36 @@
         <f t="shared" si="55"/>
         <v>1144</v>
       </c>
-      <c r="B1145" s="14"/>
-      <c r="C1145" s="18"/>
-      <c r="D1145" s="14"/>
-      <c r="E1145" s="14"/>
-      <c r="G1145" s="1">
-        <f>_xlfn.XLOOKUP(B1145,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1145" s="13" t="e">
+      <c r="B1145" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1145" s="21" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D1145" s="14" t="s">
+        <v>2439</v>
+      </c>
+      <c r="E1145" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1145" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="W1145" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1145" s="12">
+        <v>4612</v>
+      </c>
+      <c r="X1145" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1145,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1145" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1145" s="16" t="str">
         <f>HYPERLINK($X1145&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1145))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=4612s</v>
       </c>
       <c r="AA1145" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>ONE OK ROCK完全感覚Dreamer</v>
       </c>
     </row>
     <row r="1146" spans="1:27" x14ac:dyDescent="0.4">
@@ -54743,29 +55584,37 @@
         <f t="shared" si="55"/>
         <v>1145</v>
       </c>
-      <c r="B1146" s="14"/>
-      <c r="C1146" s="18"/>
-      <c r="D1146" s="14"/>
-      <c r="E1146" s="14"/>
-      <c r="G1146" s="1">
+      <c r="B1146" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1146" s="21" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D1146" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="E1146" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1146" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1146,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1146" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1146" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1146" s="12">
+        <v>5098</v>
+      </c>
+      <c r="X1146" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1146,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1146" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1146" s="16" t="str">
         <f>HYPERLINK($X1146&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1146))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=5098s</v>
       </c>
       <c r="AA1146" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>THE ORAL CIGARETTES狂乱 Hey Kids!!</v>
       </c>
     </row>
     <row r="1147" spans="1:27" x14ac:dyDescent="0.4">
@@ -54773,29 +55622,37 @@
         <f t="shared" si="55"/>
         <v>1146</v>
       </c>
-      <c r="B1147" s="14"/>
-      <c r="C1147" s="18"/>
-      <c r="D1147" s="14"/>
-      <c r="E1147" s="14"/>
-      <c r="G1147" s="1">
+      <c r="B1147" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1147" s="21" t="s">
+        <v>2429</v>
+      </c>
+      <c r="D1147" s="14" t="s">
+        <v>2430</v>
+      </c>
+      <c r="E1147" s="14" t="s">
+        <v>2431</v>
+      </c>
+      <c r="G1147" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1147,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1147" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1147" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1147" s="12">
+        <v>5433</v>
+      </c>
+      <c r="X1147" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1147,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1147" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1147" s="16" t="str">
         <f>HYPERLINK($X1147&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1147))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=5433s</v>
       </c>
       <c r="AA1147" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>The BeatlesHelp! (1chorus)</v>
       </c>
     </row>
     <row r="1148" spans="1:27" x14ac:dyDescent="0.4">
@@ -54803,29 +55660,37 @@
         <f t="shared" si="55"/>
         <v>1147</v>
       </c>
-      <c r="B1148" s="14"/>
-      <c r="C1148" s="18"/>
-      <c r="D1148" s="14"/>
-      <c r="E1148" s="14"/>
-      <c r="G1148" s="1">
+      <c r="B1148" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1148" s="21" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D1148" s="14" t="s">
+        <v>2433</v>
+      </c>
+      <c r="E1148" s="14" t="s">
+        <v>2434</v>
+      </c>
+      <c r="G1148" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1148,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1148" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1148" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1148" s="12">
+        <v>5706</v>
+      </c>
+      <c r="X1148" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1148,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1148" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1148" s="16" t="str">
         <f>HYPERLINK($X1148&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1148))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=5706s</v>
       </c>
       <c r="AA1148" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>SEKAI NO OWARIスターライトパレード</v>
       </c>
     </row>
     <row r="1149" spans="1:27" x14ac:dyDescent="0.4">
@@ -54833,29 +55698,37 @@
         <f t="shared" si="55"/>
         <v>1148</v>
       </c>
-      <c r="B1149" s="14"/>
-      <c r="C1149" s="18"/>
-      <c r="D1149" s="14"/>
-      <c r="E1149" s="14"/>
-      <c r="G1149" s="1">
+      <c r="B1149" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1149" s="21" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D1149" s="14" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E1149" s="14" t="s">
+        <v>2437</v>
+      </c>
+      <c r="G1149" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1149,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1149" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1149" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1149" s="12">
+        <v>6113</v>
+      </c>
+      <c r="X1149" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1149,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1149" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1149" s="16" t="str">
         <f>HYPERLINK($X1149&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1149))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=6113s</v>
       </c>
       <c r="AA1149" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>松平健マツケンサンバⅡ (1chorus)</v>
       </c>
     </row>
     <row r="1150" spans="1:27" x14ac:dyDescent="0.4">
@@ -54863,29 +55736,37 @@
         <f t="shared" si="55"/>
         <v>1149</v>
       </c>
-      <c r="B1150" s="14"/>
-      <c r="C1150" s="18"/>
-      <c r="D1150" s="14"/>
-      <c r="E1150" s="14"/>
-      <c r="G1150" s="1">
+      <c r="B1150" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1150" s="21" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D1150" s="14" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E1150" s="14" t="s">
+        <v>2437</v>
+      </c>
+      <c r="G1150" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1150,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1150" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1150" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1150" s="12">
+        <v>6436.0000000000009</v>
+      </c>
+      <c r="X1150" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1150,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1150" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1150" s="16" t="str">
         <f>HYPERLINK($X1150&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1150))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=6436s</v>
       </c>
       <c r="AA1150" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>松平健マツケンサンバⅡ (1chorus)</v>
       </c>
     </row>
     <row r="1151" spans="1:27" x14ac:dyDescent="0.4">
@@ -54893,29 +55774,36 @@
         <f t="shared" si="55"/>
         <v>1150</v>
       </c>
-      <c r="B1151" s="14"/>
-      <c r="C1151" s="18"/>
-      <c r="D1151" s="14"/>
-      <c r="E1151" s="14"/>
-      <c r="G1151" s="1">
-        <f>_xlfn.XLOOKUP(B1151,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1151" s="13" t="e">
+      <c r="B1151" s="14">
+        <v>151</v>
+      </c>
+      <c r="C1151" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1151" s="14" t="s">
+        <v>2440</v>
+      </c>
+      <c r="E1151" s="14" t="s">
+        <v>2437</v>
+      </c>
+      <c r="G1151" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="W1151" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1151" s="12">
+        <v>6543</v>
+      </c>
+      <c r="X1151" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1151,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1151" s="16" t="e">
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF</v>
+      </c>
+      <c r="Z1151" s="16" t="str">
         <f>HYPERLINK($X1151&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1151))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/PeAN2eEh-ug?si=Q76LwLkKs-5oX2lF&amp;t=6543s</v>
       </c>
       <c r="AA1151" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>松平健マツケンサンバⅡ (1chorus)</v>
       </c>
     </row>
     <row r="1152" spans="1:27" x14ac:dyDescent="0.4">
@@ -54923,29 +55811,37 @@
         <f t="shared" si="55"/>
         <v>1151</v>
       </c>
-      <c r="B1152" s="14"/>
-      <c r="C1152" s="18"/>
-      <c r="D1152" s="14"/>
-      <c r="E1152" s="14"/>
-      <c r="G1152" s="1">
+      <c r="B1152" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1152" s="21" t="s">
+        <v>2445</v>
+      </c>
+      <c r="D1152" s="14" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E1152" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1152" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1152,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1152" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1152" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1152" s="12">
+        <v>243.99999999999997</v>
+      </c>
+      <c r="X1152" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1152,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1152" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1152" s="16" t="str">
         <f>HYPERLINK($X1152&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1152))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=244s</v>
       </c>
       <c r="AA1152" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>Aimer残響散歌</v>
       </c>
     </row>
     <row r="1153" spans="1:27" x14ac:dyDescent="0.4">
@@ -54953,29 +55849,37 @@
         <f t="shared" si="55"/>
         <v>1152</v>
       </c>
-      <c r="B1153" s="14"/>
-      <c r="C1153" s="18"/>
-      <c r="D1153" s="14"/>
-      <c r="E1153" s="14"/>
-      <c r="G1153" s="1">
+      <c r="B1153" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1153" s="21" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D1153" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1153" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="G1153" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1153,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1153" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1153" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1153" s="12">
+        <v>686</v>
+      </c>
+      <c r="X1153" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1153,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1153" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1153" s="16" t="str">
         <f>HYPERLINK($X1153&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1153))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=686s</v>
       </c>
       <c r="AA1153" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>椎名林檎丸の内サディスティック</v>
       </c>
     </row>
     <row r="1154" spans="1:27" x14ac:dyDescent="0.4">
@@ -54983,29 +55887,37 @@
         <f t="shared" si="55"/>
         <v>1153</v>
       </c>
-      <c r="B1154" s="14"/>
-      <c r="C1154" s="18"/>
-      <c r="D1154" s="14"/>
-      <c r="E1154" s="14"/>
-      <c r="G1154" s="1">
+      <c r="B1154" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1154" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1154" s="14" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E1154" s="14" t="s">
+        <v>2448</v>
+      </c>
+      <c r="G1154" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1154,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1154" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1154" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1154" s="12">
+        <v>995</v>
+      </c>
+      <c r="X1154" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1154,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1154" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1154" s="16" t="str">
         <f>HYPERLINK($X1154&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1154))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=995s</v>
       </c>
       <c r="AA1154" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>富田伊知郎(ミラクル・ヴォウス)ヤマダ電機の歌</v>
       </c>
     </row>
     <row r="1155" spans="1:27" x14ac:dyDescent="0.4">
@@ -55013,29 +55925,37 @@
         <f t="shared" si="55"/>
         <v>1154</v>
       </c>
-      <c r="B1155" s="14"/>
-      <c r="C1155" s="18"/>
-      <c r="D1155" s="14"/>
-      <c r="E1155" s="14"/>
-      <c r="G1155" s="1">
+      <c r="B1155" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1155" s="21" t="s">
+        <v>2449</v>
+      </c>
+      <c r="D1155" s="14" t="s">
+        <v>2450</v>
+      </c>
+      <c r="E1155" s="14" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G1155" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1155,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1155" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1155" s="13">
         <f t="shared" si="53"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1155" s="12">
+        <v>1130</v>
+      </c>
+      <c r="X1155" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1155,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1155" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1155" s="16" t="str">
         <f>HYPERLINK($X1155&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1155))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=1130s</v>
       </c>
       <c r="AA1155" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>ヨドバシカメラヨドバシカメラの歌</v>
       </c>
     </row>
     <row r="1156" spans="1:27" x14ac:dyDescent="0.4">
@@ -55043,29 +55963,37 @@
         <f t="shared" si="55"/>
         <v>1155</v>
       </c>
-      <c r="B1156" s="14"/>
-      <c r="C1156" s="18"/>
-      <c r="D1156" s="14"/>
-      <c r="E1156" s="14"/>
-      <c r="G1156" s="1">
+      <c r="B1156" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1156" s="21" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D1156" s="14" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E1156" s="14" t="s">
+        <v>2454</v>
+      </c>
+      <c r="G1156" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1156,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1156" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1156" s="13">
         <f t="shared" ref="W1156:W1201" si="56">TIMEVALUE($C1156)*86400</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1156" s="12">
+        <v>1352.9999999999998</v>
+      </c>
+      <c r="X1156" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1156,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1156" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1156" s="16" t="str">
         <f>HYPERLINK($X1156&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1156))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=1353s</v>
       </c>
       <c r="AA1156" s="12" t="str">
         <f t="shared" si="54"/>
-        <v/>
+        <v>田中マイミMIRACLE SHOPPING〜ドン・キホーテのテーマ〜</v>
       </c>
     </row>
     <row r="1157" spans="1:27" x14ac:dyDescent="0.4">
@@ -55073,29 +56001,37 @@
         <f t="shared" si="55"/>
         <v>1156</v>
       </c>
-      <c r="B1157" s="14"/>
-      <c r="C1157" s="18"/>
-      <c r="D1157" s="14"/>
-      <c r="E1157" s="14"/>
-      <c r="G1157" s="1">
+      <c r="B1157" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1157" s="21" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D1157" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1157" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1157" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1157,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1157" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1157" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1157" s="12">
+        <v>1658</v>
+      </c>
+      <c r="X1157" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1157,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1157" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1157" s="16" t="str">
         <f>HYPERLINK($X1157&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1157))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=1658s</v>
       </c>
       <c r="AA1157" s="12" t="str">
         <f t="shared" ref="AA1157:AA1201" si="57">TRIM(E1157)&amp;TRIM(D1157)</f>
-        <v/>
+        <v>みきとP feat.初音ミク少女レイ</v>
       </c>
     </row>
     <row r="1158" spans="1:27" x14ac:dyDescent="0.4">
@@ -55103,29 +56039,37 @@
         <f t="shared" ref="A1158:A1201" si="58">ROW()-1</f>
         <v>1157</v>
       </c>
-      <c r="B1158" s="14"/>
-      <c r="C1158" s="18"/>
-      <c r="D1158" s="14"/>
-      <c r="E1158" s="14"/>
-      <c r="G1158" s="1">
+      <c r="B1158" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1158" s="21" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D1158" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E1158" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1158" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1158,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1158" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1158" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1158" s="12">
+        <v>2130</v>
+      </c>
+      <c r="X1158" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1158,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1158" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1158" s="16" t="str">
         <f>HYPERLINK($X1158&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1158))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=2130s</v>
       </c>
       <c r="AA1158" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>Adoギラギラ</v>
       </c>
     </row>
     <row r="1159" spans="1:27" x14ac:dyDescent="0.4">
@@ -55133,29 +56077,37 @@
         <f t="shared" si="58"/>
         <v>1158</v>
       </c>
-      <c r="B1159" s="14"/>
-      <c r="C1159" s="18"/>
-      <c r="D1159" s="14"/>
-      <c r="E1159" s="14"/>
-      <c r="G1159" s="1">
+      <c r="B1159" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1159" s="21" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D1159" s="14" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E1159" s="14" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G1159" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1159,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1159" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1159" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1159" s="12">
+        <v>2496</v>
+      </c>
+      <c r="X1159" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1159,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1159" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1159" s="16" t="str">
         <f>HYPERLINK($X1159&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1159))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=2496s</v>
       </c>
       <c r="AA1159" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>Tani YuukiW/X/Y</v>
       </c>
     </row>
     <row r="1160" spans="1:27" x14ac:dyDescent="0.4">
@@ -55163,29 +56115,37 @@
         <f t="shared" si="58"/>
         <v>1159</v>
       </c>
-      <c r="B1160" s="14"/>
-      <c r="C1160" s="18"/>
-      <c r="D1160" s="14"/>
-      <c r="E1160" s="14"/>
-      <c r="G1160" s="1">
+      <c r="B1160" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1160" s="21" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D1160" s="14" t="s">
+        <v>2460</v>
+      </c>
+      <c r="E1160" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1160" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1160,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1160" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1160" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1160" s="12">
+        <v>2925.9999999999995</v>
+      </c>
+      <c r="X1160" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1160,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1160" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1160" s="16" t="str">
         <f>HYPERLINK($X1160&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1160))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=2926s</v>
       </c>
       <c r="AA1160" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>UNISON SQUARE GARDENシュガーソングとビターステップ (リクエスト)</v>
       </c>
     </row>
     <row r="1161" spans="1:27" x14ac:dyDescent="0.4">
@@ -55193,29 +56153,37 @@
         <f t="shared" si="58"/>
         <v>1160</v>
       </c>
-      <c r="B1161" s="14"/>
-      <c r="C1161" s="18"/>
-      <c r="D1161" s="14"/>
-      <c r="E1161" s="14"/>
-      <c r="G1161" s="1">
+      <c r="B1161" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1161" s="21" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D1161" s="14" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E1161" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1161" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1161,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1161" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1161" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1161" s="12">
+        <v>3324</v>
+      </c>
+      <c r="X1161" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1161,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1161" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1161" s="16" t="str">
         <f>HYPERLINK($X1161&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1161))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=3324s</v>
       </c>
       <c r="AA1161" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>YUIRolling star</v>
       </c>
     </row>
     <row r="1162" spans="1:27" x14ac:dyDescent="0.4">
@@ -55223,29 +56191,37 @@
         <f t="shared" si="58"/>
         <v>1161</v>
       </c>
-      <c r="B1162" s="14"/>
-      <c r="C1162" s="18"/>
-      <c r="D1162" s="14"/>
-      <c r="E1162" s="14"/>
-      <c r="G1162" s="1">
+      <c r="B1162" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1162" s="21" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D1162" s="14" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E1162" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1162" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1162,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1162" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1162" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1162" s="12">
+        <v>3615.9999999999995</v>
+      </c>
+      <c r="X1162" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1162,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1162" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1162" s="16" t="str">
         <f>HYPERLINK($X1162&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1162))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=3616s</v>
       </c>
       <c r="AA1162" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>LiSAunlasting (Tv size)</v>
       </c>
     </row>
     <row r="1163" spans="1:27" x14ac:dyDescent="0.4">
@@ -55253,29 +56229,37 @@
         <f t="shared" si="58"/>
         <v>1162</v>
       </c>
-      <c r="B1163" s="14"/>
-      <c r="C1163" s="18"/>
-      <c r="D1163" s="14"/>
-      <c r="E1163" s="14"/>
-      <c r="G1163" s="1">
+      <c r="B1163" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1163" s="21" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D1163" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="E1163" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="G1163" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1163,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1163" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1163" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1163" s="12">
+        <v>3806</v>
+      </c>
+      <c r="X1163" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1163,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1163" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1163" s="16" t="str">
         <f>HYPERLINK($X1163&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1163))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=3806s</v>
       </c>
       <c r="AA1163" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>Superfly愛をこめて花束を</v>
       </c>
     </row>
     <row r="1164" spans="1:27" x14ac:dyDescent="0.4">
@@ -55283,29 +56267,37 @@
         <f t="shared" si="58"/>
         <v>1163</v>
       </c>
-      <c r="B1164" s="14"/>
-      <c r="C1164" s="18"/>
-      <c r="D1164" s="14"/>
-      <c r="E1164" s="14"/>
-      <c r="G1164" s="1">
+      <c r="B1164" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1164" s="21" t="s">
+        <v>2426</v>
+      </c>
+      <c r="D1164" s="14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E1164" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1164" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1164,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1164" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1164" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1164" s="12">
+        <v>4198</v>
+      </c>
+      <c r="X1164" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1164,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1164" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1164" s="16" t="str">
         <f>HYPERLINK($X1164&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1164))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=4198s</v>
       </c>
       <c r="AA1164" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>LiSARising Hope</v>
       </c>
     </row>
     <row r="1165" spans="1:27" x14ac:dyDescent="0.4">
@@ -55313,29 +56305,37 @@
         <f t="shared" si="58"/>
         <v>1164</v>
       </c>
-      <c r="B1165" s="14"/>
-      <c r="C1165" s="18"/>
-      <c r="D1165" s="14"/>
-      <c r="E1165" s="14"/>
-      <c r="G1165" s="1">
+      <c r="B1165" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1165" s="21" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D1165" s="14" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1165" s="14" t="s">
+        <v>966</v>
+      </c>
+      <c r="G1165" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1165,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1165" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1165" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1165" s="12">
+        <v>4600</v>
+      </c>
+      <c r="X1165" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1165,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1165" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1165" s="16" t="str">
         <f>HYPERLINK($X1165&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1165))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=4600s</v>
       </c>
       <c r="AA1165" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>the peggies君のせい (Tv size)</v>
       </c>
     </row>
     <row r="1166" spans="1:27" x14ac:dyDescent="0.4">
@@ -55343,29 +56343,37 @@
         <f t="shared" si="58"/>
         <v>1165</v>
       </c>
-      <c r="B1166" s="14"/>
-      <c r="C1166" s="18"/>
-      <c r="D1166" s="14"/>
-      <c r="E1166" s="14"/>
-      <c r="G1166" s="1">
+      <c r="B1166" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1166" s="21" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D1166" s="14" t="s">
+        <v>2468</v>
+      </c>
+      <c r="E1166" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1166" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1166,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1166" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1166" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1166" s="12">
+        <v>4947</v>
+      </c>
+      <c r="X1166" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1166,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1166" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1166" s="16" t="str">
         <f>HYPERLINK($X1166&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1166))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=4947s</v>
       </c>
       <c r="AA1166" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>LiSAADAMAS</v>
       </c>
     </row>
     <row r="1167" spans="1:27" x14ac:dyDescent="0.4">
@@ -55373,29 +56381,37 @@
         <f t="shared" si="58"/>
         <v>1166</v>
       </c>
-      <c r="B1167" s="14"/>
-      <c r="C1167" s="18"/>
-      <c r="D1167" s="14"/>
-      <c r="E1167" s="14"/>
-      <c r="G1167" s="1">
+      <c r="B1167" s="14">
+        <v>153</v>
+      </c>
+      <c r="C1167" s="21" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D1167" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="E1167" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1167" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1167,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1167" s="13" t="e">
+        <v>音源</v>
+      </c>
+      <c r="W1167" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1167" s="12">
+        <v>5386</v>
+      </c>
+      <c r="X1167" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1167,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1167" s="16" t="e">
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF</v>
+      </c>
+      <c r="Z1167" s="16" t="str">
         <f>HYPERLINK($X1167&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1167))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/5WLpYh7ET8Q?si=U6vokm2OYMw3HwVF&amp;t=5386s</v>
       </c>
       <c r="AA1167" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>LiSA紅蓮華</v>
       </c>
     </row>
     <row r="1168" spans="1:27" x14ac:dyDescent="0.4">
@@ -55403,29 +56419,37 @@
         <f t="shared" si="58"/>
         <v>1167</v>
       </c>
-      <c r="B1168" s="14"/>
-      <c r="C1168" s="18"/>
-      <c r="D1168" s="14"/>
-      <c r="E1168" s="14"/>
-      <c r="G1168" s="1">
+      <c r="B1168" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1168" s="21" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D1168" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1168" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1168" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1168,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1168" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1168" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1168" s="12">
+        <v>419</v>
+      </c>
+      <c r="X1168" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1168,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1168" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1168" s="16" t="str">
         <f>HYPERLINK($X1168&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1168))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=419s</v>
       </c>
       <c r="AA1168" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>Vaundy灯火</v>
       </c>
     </row>
     <row r="1169" spans="1:27" x14ac:dyDescent="0.4">
@@ -55433,29 +56457,37 @@
         <f t="shared" si="58"/>
         <v>1168</v>
       </c>
-      <c r="B1169" s="14"/>
-      <c r="C1169" s="18"/>
-      <c r="D1169" s="14"/>
-      <c r="E1169" s="14"/>
-      <c r="G1169" s="1">
+      <c r="B1169" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1169" s="21" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D1169" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="E1169" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1169" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1169,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1169" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1169" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1169" s="12">
+        <v>778</v>
+      </c>
+      <c r="X1169" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1169,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1169" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1169" s="16" t="str">
         <f>HYPERLINK($X1169&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1169))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=778s</v>
       </c>
       <c r="AA1169" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>aikomilk</v>
       </c>
     </row>
     <row r="1170" spans="1:27" x14ac:dyDescent="0.4">
@@ -55463,29 +56495,37 @@
         <f t="shared" si="58"/>
         <v>1169</v>
       </c>
-      <c r="B1170" s="14"/>
-      <c r="C1170" s="18"/>
-      <c r="D1170" s="14"/>
-      <c r="E1170" s="14"/>
-      <c r="G1170" s="1">
+      <c r="B1170" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1170" s="21" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D1170" s="14" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E1170" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="G1170" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1170,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1170" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1170" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1170" s="12">
+        <v>1279</v>
+      </c>
+      <c r="X1170" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1170,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1170" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1170" s="16" t="str">
         <f>HYPERLINK($X1170&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1170))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=1279s</v>
       </c>
       <c r="AA1170" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>幽音しの久しぶりだねの歌</v>
       </c>
     </row>
     <row r="1171" spans="1:27" x14ac:dyDescent="0.4">
@@ -55493,29 +56533,37 @@
         <f t="shared" si="58"/>
         <v>1170</v>
       </c>
-      <c r="B1171" s="14"/>
-      <c r="C1171" s="18"/>
-      <c r="D1171" s="14"/>
-      <c r="E1171" s="14"/>
-      <c r="G1171" s="1">
+      <c r="B1171" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1171" s="21" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D1171" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1171" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1171" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1171,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1171" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1171" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1171" s="12">
+        <v>1472</v>
+      </c>
+      <c r="X1171" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1171,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1171" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1171" s="16" t="str">
         <f>HYPERLINK($X1171&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1171))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=1472s</v>
       </c>
       <c r="AA1171" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>supercell星が瞬くこんな夜に</v>
       </c>
     </row>
     <row r="1172" spans="1:27" x14ac:dyDescent="0.4">
@@ -55523,29 +56571,37 @@
         <f t="shared" si="58"/>
         <v>1171</v>
       </c>
-      <c r="B1172" s="14"/>
-      <c r="C1172" s="18"/>
-      <c r="D1172" s="14"/>
-      <c r="E1172" s="14"/>
-      <c r="G1172" s="1">
+      <c r="B1172" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1172" s="21" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D1172" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1172" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1172" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1172,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1172" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1172" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1172" s="12">
+        <v>1830</v>
+      </c>
+      <c r="X1172" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1172,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1172" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1172" s="16" t="str">
         <f>HYPERLINK($X1172&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1172))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=1830s</v>
       </c>
       <c r="AA1172" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>supercellリルモア</v>
       </c>
     </row>
     <row r="1173" spans="1:27" x14ac:dyDescent="0.4">
@@ -55553,29 +56609,37 @@
         <f t="shared" si="58"/>
         <v>1172</v>
       </c>
-      <c r="B1173" s="14"/>
-      <c r="C1173" s="18"/>
-      <c r="D1173" s="14"/>
-      <c r="E1173" s="14"/>
-      <c r="G1173" s="1">
+      <c r="B1173" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1173" s="21" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D1173" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="E1173" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="G1173" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1173,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1173" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1173" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1173" s="12">
+        <v>2230</v>
+      </c>
+      <c r="X1173" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1173,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1173" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1173" s="16" t="str">
         <f>HYPERLINK($X1173&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1173))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=2230s</v>
       </c>
       <c r="AA1173" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>赤い公園サイダー</v>
       </c>
     </row>
     <row r="1174" spans="1:27" x14ac:dyDescent="0.4">
@@ -55583,29 +56647,37 @@
         <f t="shared" si="58"/>
         <v>1173</v>
       </c>
-      <c r="B1174" s="14"/>
-      <c r="C1174" s="18"/>
-      <c r="D1174" s="14"/>
-      <c r="E1174" s="14"/>
-      <c r="G1174" s="1">
+      <c r="B1174" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1174" s="21" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D1174" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1174" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1174" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1174,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1174" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1174" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1174" s="12">
+        <v>2613</v>
+      </c>
+      <c r="X1174" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1174,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1174" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1174" s="16" t="str">
         <f>HYPERLINK($X1174&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1174))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=2613s</v>
       </c>
       <c r="AA1174" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>EGOIST雨、キミを連れて</v>
       </c>
     </row>
     <row r="1175" spans="1:27" x14ac:dyDescent="0.4">
@@ -55613,29 +56685,37 @@
         <f t="shared" si="58"/>
         <v>1174</v>
       </c>
-      <c r="B1175" s="14"/>
-      <c r="C1175" s="18"/>
-      <c r="D1175" s="14"/>
-      <c r="E1175" s="14"/>
-      <c r="G1175" s="1">
+      <c r="B1175" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1175" s="21" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D1175" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1175" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1175" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1175,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1175" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1175" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1175" s="12">
+        <v>2992</v>
+      </c>
+      <c r="X1175" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1175,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1175" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1175" s="16" t="str">
         <f>HYPERLINK($X1175&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1175))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=2992s</v>
       </c>
       <c r="AA1175" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>EGOISTDepartures 〜あなたにおくるアイの歌〜</v>
       </c>
     </row>
     <row r="1176" spans="1:27" x14ac:dyDescent="0.4">
@@ -55643,29 +56723,37 @@
         <f t="shared" si="58"/>
         <v>1175</v>
       </c>
-      <c r="B1176" s="14"/>
-      <c r="C1176" s="18"/>
-      <c r="D1176" s="14"/>
-      <c r="E1176" s="14"/>
-      <c r="G1176" s="1">
+      <c r="B1176" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1176" s="21" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D1176" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1176" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1176" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1176,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1176" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1176" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1176" s="12">
+        <v>3355.0000000000005</v>
+      </c>
+      <c r="X1176" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1176,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1176" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1176" s="16" t="str">
         <f>HYPERLINK($X1176&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1176))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=3355s</v>
       </c>
       <c r="AA1176" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>EGOISTGhost of a smile</v>
       </c>
     </row>
     <row r="1177" spans="1:27" x14ac:dyDescent="0.4">
@@ -55673,29 +56761,37 @@
         <f t="shared" si="58"/>
         <v>1176</v>
       </c>
-      <c r="B1177" s="14"/>
-      <c r="C1177" s="18"/>
-      <c r="D1177" s="14"/>
-      <c r="E1177" s="14"/>
-      <c r="G1177" s="1">
+      <c r="B1177" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1177" s="21" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D1177" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="E1177" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1177" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1177,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1177" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1177" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1177" s="12">
+        <v>3942</v>
+      </c>
+      <c r="X1177" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1177,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1177" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1177" s="16" t="str">
         <f>HYPERLINK($X1177&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1177))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=3942s</v>
       </c>
       <c r="AA1177" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>EGOISTAll Alone With You</v>
       </c>
     </row>
     <row r="1178" spans="1:27" x14ac:dyDescent="0.4">
@@ -55703,29 +56799,37 @@
         <f t="shared" si="58"/>
         <v>1177</v>
       </c>
-      <c r="B1178" s="14"/>
-      <c r="C1178" s="18"/>
-      <c r="D1178" s="14"/>
-      <c r="E1178" s="14"/>
-      <c r="G1178" s="1">
+      <c r="B1178" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1178" s="21" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D1178" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1178" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1178" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1178,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1178" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1178" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1178" s="12">
+        <v>4425</v>
+      </c>
+      <c r="X1178" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1178,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1178" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1178" s="16" t="str">
         <f>HYPERLINK($X1178&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1178))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=4425s</v>
       </c>
       <c r="AA1178" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>supercell君の知らない物語</v>
       </c>
     </row>
     <row r="1179" spans="1:27" x14ac:dyDescent="0.4">
@@ -55733,29 +56837,37 @@
         <f t="shared" si="58"/>
         <v>1178</v>
       </c>
-      <c r="B1179" s="14"/>
-      <c r="C1179" s="18"/>
-      <c r="D1179" s="14"/>
-      <c r="E1179" s="14"/>
-      <c r="G1179" s="1">
+      <c r="B1179" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1179" s="21" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D1179" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1179" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1179" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1179,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1179" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1179" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1179" s="12">
+        <v>4881</v>
+      </c>
+      <c r="X1179" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1179,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1179" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1179" s="16" t="str">
         <f>HYPERLINK($X1179&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1179))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=4881s</v>
       </c>
       <c r="AA1179" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>羊文学光るとき</v>
       </c>
     </row>
     <row r="1180" spans="1:27" x14ac:dyDescent="0.4">
@@ -55763,29 +56875,37 @@
         <f t="shared" si="58"/>
         <v>1179</v>
       </c>
-      <c r="B1180" s="14"/>
-      <c r="C1180" s="18"/>
-      <c r="D1180" s="14"/>
-      <c r="E1180" s="14"/>
-      <c r="G1180" s="1">
+      <c r="B1180" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1180" s="21" t="s">
+        <v>2483</v>
+      </c>
+      <c r="D1180" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E1180" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1180" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1180,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1180" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1180" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1180" s="12">
+        <v>5376</v>
+      </c>
+      <c r="X1180" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1180,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1180" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1180" s="16" t="str">
         <f>HYPERLINK($X1180&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1180))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=5376s</v>
       </c>
       <c r="AA1180" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>羊文学永遠のブルー</v>
       </c>
     </row>
     <row r="1181" spans="1:27" x14ac:dyDescent="0.4">
@@ -55793,29 +56913,37 @@
         <f t="shared" si="58"/>
         <v>1180</v>
       </c>
-      <c r="B1181" s="14"/>
-      <c r="C1181" s="18"/>
-      <c r="D1181" s="14"/>
-      <c r="E1181" s="14"/>
-      <c r="G1181" s="1">
+      <c r="B1181" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1181" s="21" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D1181" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1181" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1181" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1181,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1181" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1181" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1181" s="12">
+        <v>5763</v>
+      </c>
+      <c r="X1181" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1181,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1181" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1181" s="16" t="str">
         <f>HYPERLINK($X1181&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1181))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=5763s</v>
       </c>
       <c r="AA1181" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>木村弓いのちの名前</v>
       </c>
     </row>
     <row r="1182" spans="1:27" x14ac:dyDescent="0.4">
@@ -55823,29 +56951,37 @@
         <f t="shared" si="58"/>
         <v>1181</v>
       </c>
-      <c r="B1182" s="14"/>
-      <c r="C1182" s="18"/>
-      <c r="D1182" s="14"/>
-      <c r="E1182" s="14"/>
-      <c r="G1182" s="1">
+      <c r="B1182" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1182" s="21" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D1182" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1182" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="G1182" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1182,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1182" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1182" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1182" s="12">
+        <v>6276</v>
+      </c>
+      <c r="X1182" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1182,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1182" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1182" s="16" t="str">
         <f>HYPERLINK($X1182&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1182))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=6276s</v>
       </c>
       <c r="AA1182" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>煮ル果実 feat.可不ナイトルール</v>
       </c>
     </row>
     <row r="1183" spans="1:27" x14ac:dyDescent="0.4">
@@ -55853,29 +56989,37 @@
         <f t="shared" si="58"/>
         <v>1182</v>
       </c>
-      <c r="B1183" s="14"/>
-      <c r="C1183" s="18"/>
-      <c r="D1183" s="14"/>
-      <c r="E1183" s="14"/>
-      <c r="G1183" s="1">
+      <c r="B1183" s="14">
+        <v>154</v>
+      </c>
+      <c r="C1183" s="21" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D1183" s="14" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E1183" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1183" s="1" t="str">
         <f>_xlfn.XLOOKUP(B1183,M_YT_LIVE!A:A,M_YT_LIVE!F:F,"ERROR",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W1183" s="13" t="e">
+        <v>弾き語り</v>
+      </c>
+      <c r="W1183" s="13">
         <f t="shared" si="56"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X1183" s="12">
+        <v>6769</v>
+      </c>
+      <c r="X1183" s="12" t="str">
         <f>_xlfn.XLOOKUP($B1183,M_YT_LIVE!$A:$A,M_YT_LIVE!$D:$D)</f>
-        <v>0</v>
-      </c>
-      <c r="Z1183" s="16" t="e">
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB</v>
+      </c>
+      <c r="Z1183" s="16" t="str">
         <f>HYPERLINK($X1183&amp;SUBSTITUTE(マスタ!$C$3,"XXXXX",$W1183))</f>
-        <v>#VALUE!</v>
+        <v>https://www.youtube.com/live/lZby81fWXVY?si=_wcXehm3GgvfsGSB&amp;t=6769s</v>
       </c>
       <c r="AA1183" s="12" t="str">
         <f t="shared" si="57"/>
-        <v/>
+        <v>米津玄師春雷</v>
       </c>
     </row>
     <row r="1184" spans="1:27" x14ac:dyDescent="0.4">
